--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +670,10 @@
         <v>1.34</v>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3.85</v>
       </c>
       <c r="I2" t="n">
         <v>13.5</v>
@@ -682,25 +682,25 @@
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>7.2</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02</v>
+        <v>1.87</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -718,7 +718,7 @@
         <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="X2" t="n">
         <v>980</v>
@@ -808,16 +808,16 @@
         <v>2.58</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -841,7 +841,7 @@
         <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
         <v>1.63</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G5" t="n">
         <v>1.71</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
         <v>1.44</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.22</v>
+        <v>1.88</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.26</v>
       </c>
       <c r="H6" t="n">
-        <v>1.5</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.5</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.32</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.92</v>
+        <v>2.38</v>
       </c>
       <c r="G7" t="n">
-        <v>2.48</v>
+        <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>2.96</v>
+        <v>1.42</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>2.78</v>
+        <v>1.42</v>
       </c>
       <c r="K7" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.38</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>1.64</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.88</v>
+        <v>2.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>1.41</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>1.61</v>
       </c>
       <c r="J9" t="n">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.12</v>
+        <v>2.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,12 +1873,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1915,7 +1915,7 @@
         <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.36</v>
+        <v>1.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,61 +2143,61 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>St Patricks</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>2.56</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P13" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>2.36</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,64 +2206,64 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>St Patricks</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.61</v>
+        <v>2.26</v>
       </c>
       <c r="G14" t="n">
-        <v>1.99</v>
+        <v>2.98</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>2.74</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,33 +2408,33 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>1.98</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="I15" t="n">
         <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="K15" t="n">
         <v>1000</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,61 +2548,61 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.64</v>
+        <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>2.94</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>2.98</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.97</v>
+        <v>1.68</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,64 +2611,64 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Icelandic Urvalsdeild</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,66 +2678,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.95</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Icelandic Urvalsdeild</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,36 +2813,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.61</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2953,28 +2953,28 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="H19" t="n">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="I19" t="n">
         <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="K19" t="n">
         <v>1000</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.82</v>
+        <v>1.68</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="I20" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>2.74</v>
+        <v>1.91</v>
       </c>
       <c r="K20" t="n">
-        <v>2.94</v>
+        <v>1000</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.18</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3.2</v>
-      </c>
       <c r="R20" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.98</v>
+        <v>2.68</v>
       </c>
       <c r="G21" t="n">
-        <v>2.14</v>
+        <v>2.92</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>3.55</v>
       </c>
       <c r="J21" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="K21" t="n">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.13</v>
       </c>
-      <c r="N21" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.14</v>
-      </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="T21" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="U21" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="V21" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.88</v>
+        <v>1.52</v>
       </c>
       <c r="X21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y21" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y21" t="n">
-        <v>12</v>
-      </c>
       <c r="Z21" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AG21" t="n">
         <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AJ21" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AK21" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AL21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>350</v>
+      </c>
+      <c r="AN21" t="n">
         <v>85</v>
       </c>
-      <c r="AM21" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>42</v>
-      </c>
       <c r="AO21" t="n">
-        <v>280</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>3.35</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P22" t="n">
         <v>1.42</v>
       </c>
-      <c r="I22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.7</v>
-      </c>
       <c r="Q22" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Paysandu</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,125 +3758,260 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.9</v>
+        <v>3.15</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.82</v>
+        <v>2.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.99</v>
+        <v>2.74</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
       </c>
       <c r="K25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.7</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>1.01</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M26" t="n">
         <v>1.1</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N26" t="n">
         <v>2.7</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O26" t="n">
         <v>1.48</v>
       </c>
-      <c r="P25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R25" t="n">
+      <c r="P26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.21</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S26" t="n">
         <v>4.8</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T26" t="n">
         <v>2.1</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U26" t="n">
         <v>1.75</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V26" t="n">
         <v>2</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W26" t="n">
         <v>1.2</v>
       </c>
-      <c r="X25" t="n">
+      <c r="X26" t="n">
         <v>11</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y26" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="Z26" t="n">
         <v>11</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AA26" t="n">
         <v>23</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AB26" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC26" t="n">
         <v>8.4</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AD26" t="n">
         <v>11</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AE26" t="n">
         <v>25</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AF26" t="n">
         <v>44</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AG26" t="n">
         <v>23</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AH26" t="n">
         <v>26</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AI26" t="n">
         <v>55</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AJ26" t="n">
         <v>190</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AK26" t="n">
         <v>120</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AL26" t="n">
         <v>130</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AM26" t="n">
         <v>220</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AN26" t="n">
         <v>180</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AO26" t="n">
         <v>21</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="G2" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>7.2</v>
       </c>
       <c r="I2" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,16 +691,16 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -718,58 +718,58 @@
         <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,60 +788,60 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.08</v>
+        <v>1.35</v>
       </c>
       <c r="G3" t="n">
-        <v>2.58</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.55</v>
+        <v>1.84</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.55</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -850,10 +850,10 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>2.92</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>970</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>2.34</v>
+        <v>1.56</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.63</v>
+        <v>2.24</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,31 +1063,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="H5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I5" t="n">
         <v>4.9</v>
       </c>
-      <c r="I5" t="n">
-        <v>980</v>
-      </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>9.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.32</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,31 +1198,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
       <c r="G6" t="n">
-        <v>2.26</v>
+        <v>1.69</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>970</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>5.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.38</v>
+        <v>1.89</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>1.42</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.42</v>
+        <v>2.7</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Puszcza Niepolomice</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Wisla Krakow</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.92</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>15.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1.46</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>1.72</v>
       </c>
       <c r="J8" t="n">
-        <v>2.78</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>7.2</v>
+        <v>9.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>3.55</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.41</v>
+        <v>1.95</v>
       </c>
       <c r="I9" t="n">
-        <v>1.61</v>
+        <v>2.52</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.9</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.32</v>
+        <v>2.32</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,28 +1738,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="I10" t="n">
         <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="K10" t="n">
         <v>1000</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>2.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>2.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,66 +2138,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.25</v>
+        <v>2.36</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="H13" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I13" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.36</v>
+        <v>1.53</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,64 +2206,64 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,36 +2273,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>St Patricks</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.96</v>
+        <v>1.25</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,36 +2408,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,33 +2543,33 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>1.99</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
         <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>1000</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,66 +2678,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>St Patricks</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.64</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="I17" t="n">
-        <v>2.98</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="R17" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Icelandic Urvalsdeild</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,66 +2813,66 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,58 +2881,58 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2948,33 +2948,33 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>1.66</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
         <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="K19" t="n">
         <v>1000</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,66 +3083,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.68</v>
+        <v>2.62</v>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="H20" t="n">
-        <v>1.91</v>
+        <v>2.96</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="J20" t="n">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>1.51</v>
+        <v>1.93</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Icelandic Urvalsdeild</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1.01</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3.2</v>
-      </c>
       <c r="R21" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1.39</v>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8</v>
+        <v>2.52</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>2.52</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>1.92</v>
       </c>
       <c r="R22" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>1.68</v>
       </c>
       <c r="G23" t="n">
-        <v>2.76</v>
+        <v>2.12</v>
       </c>
       <c r="H23" t="n">
-        <v>2.32</v>
+        <v>1.89</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>1.89</v>
       </c>
       <c r="K23" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.02</v>
+        <v>2.16</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
         <v>1.25</v>
       </c>
       <c r="Q24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.01</v>
       </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.15</v>
+        <v>2.02</v>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>2.12</v>
       </c>
       <c r="H25" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.74</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q25" t="n">
         <v>3</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.46</v>
-      </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,126 +3893,531 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.9</v>
+        <v>2.82</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
-        <v>1.82</v>
+        <v>2.48</v>
       </c>
       <c r="I26" t="n">
-        <v>1.99</v>
+        <v>2.98</v>
       </c>
       <c r="J26" t="n">
         <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Ferroviaria</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q27" t="n">
         <v>1.01</v>
       </c>
-      <c r="M26" t="n">
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O29" t="n">
         <v>1.1</v>
       </c>
-      <c r="N26" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X26" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>180</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>21</v>
+      <c r="P29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="H2" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>5.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.86</v>
+        <v>3.65</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W2" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,55 +802,55 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
         <v>1.86</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.84</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
         <v>2.16</v>
@@ -865,13 +865,13 @@
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -901,7 +901,7 @@
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
@@ -940,55 +940,55 @@
         <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>970</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>1.56</v>
+        <v>2.86</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="Q4" t="n">
         <v>2.24</v>
       </c>
       <c r="R4" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="W4" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1075,109 +1075,109 @@
         <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
         <v>4.9</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>2.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G6" t="n">
         <v>1.69</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,118 +1477,118 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="G8" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="I8" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>9.6</v>
+        <v>5.7</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.55</v>
+        <v>1.02</v>
       </c>
       <c r="G9" t="n">
-        <v>5.7</v>
+        <v>610</v>
       </c>
       <c r="H9" t="n">
-        <v>1.95</v>
+        <v>1.02</v>
       </c>
       <c r="I9" t="n">
-        <v>2.52</v>
+        <v>870</v>
       </c>
       <c r="J9" t="n">
-        <v>2.78</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>500</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Halmstads</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
         <v>3.3</v>
       </c>
-      <c r="H10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>1.77</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Hammarby TFF</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Karlbergs BK</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="G11" t="n">
-        <v>2.46</v>
+        <v>1.58</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>6.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.42</v>
+        <v>2.48</v>
       </c>
       <c r="I12" t="n">
-        <v>1.64</v>
+        <v>2.82</v>
       </c>
       <c r="J12" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>2.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.33</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="G13" t="n">
-        <v>2.88</v>
+        <v>2.54</v>
       </c>
       <c r="H13" t="n">
-        <v>2.56</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
         <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.53</v>
-      </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:10:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>IFK Goteborg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.66</v>
+        <v>5.8</v>
       </c>
       <c r="G16" t="n">
-        <v>1.99</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>1.56</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P16" t="n">
-        <v>1.76</v>
+        <v>3.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>1.35</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>St Patricks</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="J17" t="n">
-        <v>2.36</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.97</v>
+        <v>1.53</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="G18" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="I18" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>1.68</v>
+        <v>2.52</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.36</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AA18" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM18" t="n">
         <v>65</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>160</v>
-      </c>
       <c r="AN18" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L19" t="n">
         <v>1.01</v>
       </c>
-      <c r="K19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>1.67</v>
+        <v>2.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.87</v>
+        <v>1.49</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,114 +3083,114 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.62</v>
+        <v>3.15</v>
       </c>
       <c r="G20" t="n">
-        <v>2.64</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.96</v>
+        <v>1.96</v>
       </c>
       <c r="I20" t="n">
-        <v>2.98</v>
+        <v>2.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>5.8</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>3.9</v>
+        <v>1.53</v>
       </c>
       <c r="O20" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>3.6</v>
+        <v>2.06</v>
       </c>
       <c r="T20" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Icelandic Urvalsdeild</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="Q21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.01</v>
       </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.39</v>
+        <v>2.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.66</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
-        <v>2.52</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="P22" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.92</v>
+        <v>2.74</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="G23" t="n">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="H23" t="n">
-        <v>1.89</v>
+        <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>1.89</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.46</v>
+        <v>1.79</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>St Patricks</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.7</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="I24" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.66</v>
+        <v>2.4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.94</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,22 +3661,22 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.25</v>
+        <v>2.88</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.15</v>
+        <v>1.96</v>
       </c>
       <c r="R24" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.02</v>
+        <v>3.3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.12</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>2.52</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>2.54</v>
       </c>
       <c r="J25" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>1.06</v>
+        <v>3.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.12</v>
+        <v>1.45</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="R25" t="n">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="S25" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V25" t="n">
-        <v>1.23</v>
+        <v>1.64</v>
       </c>
       <c r="W25" t="n">
-        <v>1.89</v>
+        <v>1.42</v>
       </c>
       <c r="X25" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,66 +3893,66 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N26" t="n">
         <v>2.82</v>
       </c>
-      <c r="G26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.02</v>
+        <v>2.62</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3961,64 +3961,64 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,66 +4028,66 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>1.25</v>
+        <v>1.94</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4096,64 +4096,64 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,36 +4163,36 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.96</v>
+        <v>1.98</v>
       </c>
       <c r="G28" t="n">
-        <v>3.15</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="I28" t="n">
-        <v>2.84</v>
+        <v>5.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.46</v>
+        <v>1.87</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4288,136 +4288,1216 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Icelandic Urvalsdeild</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fram</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Internacional de Palmira</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Real Santander</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Boca Juniors de Cali</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X32" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>370</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X33" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Ferroviaria</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>2025-10-20</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>La Equidad</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Tolima</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="n">
         <v>6.2</v>
       </c>
-      <c r="L29" t="n">
+      <c r="H37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L37" t="n">
         <v>1.01</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="M37" t="n">
         <v>1.1</v>
       </c>
-      <c r="P29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>1000</v>
+      <c r="N37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X37" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>200</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,10 +721,10 @@
         <v>3.05</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
         <v>120</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
         <v>55</v>
@@ -745,22 +745,22 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH2" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
         <v>55</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G3" t="n">
         <v>1.86</v>
@@ -814,13 +814,13 @@
         <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.42</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.32</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>2.68</v>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>2.48</v>
       </c>
       <c r="I5" t="n">
-        <v>4.8</v>
+        <v>2.82</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>2.34</v>
+        <v>1.93</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="W5" t="n">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AB5" t="n">
         <v>14.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Halmstads</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.52</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.61</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>2.12</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>2.44</v>
+        <v>1.94</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>36</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
         <v>70</v>
       </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>960</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>960</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>960</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>960</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO6" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>960</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>960</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,55 +1333,55 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.92</v>
+        <v>1.02</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>610</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>870</v>
       </c>
       <c r="J7" t="n">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="T7" t="n">
         <v>1.03</v>
@@ -1390,10 +1390,10 @@
         <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,55 +1468,55 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Puszcza Niepolomice</t>
+          <t>Hammarby TFF</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Wisla Krakow</t>
+          <t>Karlbergs BK</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.4</v>
+        <v>1.48</v>
       </c>
       <c r="G8" t="n">
-        <v>8.800000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="H8" t="n">
-        <v>1.51</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.63</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="Q8" t="n">
         <v>1.61</v>
       </c>
       <c r="R8" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S8" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="T8" t="n">
         <v>1.03</v>
@@ -1525,70 +1525,70 @@
         <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>2.58</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>1.13</v>
+        <v>2.72</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,55 +1603,55 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.02</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>610</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>870</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>2.76</v>
       </c>
       <c r="K9" t="n">
-        <v>500</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>1.32</v>
+        <v>1.7</v>
       </c>
       <c r="T9" t="n">
         <v>1.03</v>
@@ -1660,10 +1660,10 @@
         <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Halmstads</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.49</v>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>1.71</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>6.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>1.77</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>3.7</v>
+        <v>2.12</v>
       </c>
       <c r="T10" t="n">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="W10" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>960</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>960</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>960</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>960</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>27</v>
+        <v>960</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>960</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>960</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,55 +1873,55 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hammarby TFF</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Karlbergs BK</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="G11" t="n">
-        <v>1.58</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.5</v>
       </c>
-      <c r="K11" t="n">
-        <v>6.2</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="S11" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="T11" t="n">
         <v>1.03</v>
@@ -1930,70 +1930,70 @@
         <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>2.72</v>
+        <v>2.08</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.68</v>
+        <v>2.18</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.48</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.82</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="Q12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.87</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.71</v>
       </c>
-      <c r="U12" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Puszcza Niepolomice</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Wisla Krakow</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S13" t="n">
         <v>2.52</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.85</v>
-      </c>
       <c r="T13" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="U13" t="n">
-        <v>1.85</v>
+        <v>1.03</v>
       </c>
       <c r="V13" t="n">
-        <v>1.43</v>
+        <v>2.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.64</v>
+        <v>1.14</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO13" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>960</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -2293,7 +2293,7 @@
         <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I14" t="n">
         <v>2.9</v>
@@ -2302,7 +2302,7 @@
         <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
         <v>1.35</v>
@@ -2320,7 +2320,7 @@
         <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
         <v>1.39</v>
@@ -2425,7 +2425,7 @@
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H15" t="n">
         <v>2.04</v>
@@ -2443,31 +2443,31 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
         <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>1.78</v>
       </c>
       <c r="V15" t="n">
         <v>1.78</v>
@@ -2476,58 +2476,58 @@
         <v>1.26</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.8</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>2.74</v>
       </c>
       <c r="H16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.47</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.78</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.5</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S17" t="n">
         <v>2.34</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="18">
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.82</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,88 +2851,88 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>2.66</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="R18" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="S18" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T18" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="W18" t="n">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.06</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>2.36</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>1.44</v>
       </c>
       <c r="I19" t="n">
-        <v>3.85</v>
+        <v>1.53</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="K19" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>2.66</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="P19" t="n">
-        <v>2.66</v>
+        <v>3.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="R19" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="S19" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.35</v>
+        <v>2.84</v>
       </c>
       <c r="W19" t="n">
-        <v>1.73</v>
+        <v>1.13</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.15</v>
+        <v>2.24</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>2.34</v>
       </c>
       <c r="H20" t="n">
-        <v>1.96</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>1.53</v>
+        <v>2.42</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="P20" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.06</v>
+        <v>2.72</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S20" t="n">
-        <v>2.06</v>
+        <v>6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V20" t="n">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="W20" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
@@ -3223,31 +3223,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="G21" t="n">
-        <v>10.5</v>
+        <v>4.6</v>
       </c>
       <c r="H21" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="I21" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="J21" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="K21" t="n">
-        <v>5.1</v>
+        <v>980</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,22 +3256,22 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="O21" t="n">
         <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
         <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34</v>
+        <v>5.6</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>1.23</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>2.44</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="K22" t="n">
-        <v>3.25</v>
+        <v>980</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,22 +3391,22 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>2.42</v>
+        <v>1.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.74</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>5.1</v>
+        <v>2.24</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,64 +3415,64 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.21</v>
       </c>
       <c r="X22" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3514,7 +3514,7 @@
         <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
         <v>4.5</v>
@@ -3523,91 +3523,91 @@
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>1.79</v>
+        <v>3.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P23" t="n">
         <v>1.79</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="R23" t="n">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>1.87</v>
+        <v>3.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
         <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
@@ -3640,7 +3640,7 @@
         <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="H24" t="n">
         <v>1.04</v>
@@ -3649,7 +3649,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="K24" t="n">
         <v>1000</v>
@@ -3658,10 +3658,10 @@
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O24" t="n">
         <v>1.29</v>
@@ -3676,7 +3676,7 @@
         <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3688,7 +3688,7 @@
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G25" t="n">
         <v>3.4</v>
@@ -3784,19 +3784,19 @@
         <v>2.54</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M25" t="n">
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.45</v>
@@ -3808,22 +3808,22 @@
         <v>2.38</v>
       </c>
       <c r="R25" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
         <v>4.6</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U25" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V25" t="n">
         <v>1.64</v>
       </c>
       <c r="W25" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X25" t="n">
         <v>10</v>
@@ -3862,10 +3862,10 @@
         <v>55</v>
       </c>
       <c r="AJ25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK25" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL25" t="n">
         <v>65</v>
@@ -3874,7 +3874,7 @@
         <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO25" t="n">
         <v>30</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="G26" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>2.84</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K26" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.82</v>
+        <v>1.79</v>
       </c>
       <c r="O26" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.62</v>
+        <v>1.87</v>
       </c>
       <c r="R26" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="S26" t="n">
-        <v>5.4</v>
+        <v>1.87</v>
       </c>
       <c r="T26" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X26" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4045,13 +4045,13 @@
         <v>2.6</v>
       </c>
       <c r="G27" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H27" t="n">
         <v>2.96</v>
       </c>
       <c r="I27" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
         <v>3.5</v>
@@ -4060,7 +4060,7 @@
         <v>3.55</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
@@ -4072,7 +4072,7 @@
         <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q27" t="n">
         <v>2.02</v>
@@ -4090,43 +4090,43 @@
         <v>2.22</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z27" t="n">
         <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
         <v>7.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>32</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG27" t="n">
         <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>44</v>
@@ -4135,25 +4135,25 @@
         <v>38</v>
       </c>
       <c r="AK27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="n">
         <v>85</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.98</v>
+        <v>2.36</v>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H28" t="n">
-        <v>2.78</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P28" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.87</v>
+        <v>2.6</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Icelandic Urvalsdeild</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Racing Club (Uru)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Icelandic Urvalsdeild</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,126 +4433,126 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R30" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q30" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.81</v>
+        <v>1.42</v>
       </c>
       <c r="G31" t="n">
-        <v>1.91</v>
+        <v>1.66</v>
       </c>
       <c r="H31" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="I31" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.22</v>
+        <v>1.92</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,126 +4703,126 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.66</v>
+        <v>1.81</v>
       </c>
       <c r="G32" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="H32" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>2.94</v>
+        <v>3.7</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
       <c r="P32" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.2</v>
+        <v>2.24</v>
       </c>
       <c r="R32" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>7.2</v>
+        <v>3.55</v>
       </c>
       <c r="T32" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="U32" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V32" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="W32" t="n">
-        <v>1.53</v>
+        <v>2.08</v>
       </c>
       <c r="X32" t="n">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="Y32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC32" t="n">
         <v>9.4</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AD32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN32" t="n">
         <v>26</v>
       </c>
-      <c r="AA32" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>370</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>90</v>
-      </c>
       <c r="AO32" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="G33" t="n">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="H33" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="K33" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="L33" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N33" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="O33" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P33" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X33" t="n">
         <v>6.8</v>
       </c>
-      <c r="T33" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X33" t="n">
-        <v>970</v>
-      </c>
       <c r="Y33" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z33" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AA33" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AF33" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG33" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AI33" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AJ33" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AL33" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM33" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN33" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AO33" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.84</v>
+        <v>2.04</v>
       </c>
       <c r="G34" t="n">
-        <v>3.05</v>
+        <v>2.12</v>
       </c>
       <c r="H34" t="n">
-        <v>2.68</v>
+        <v>4.7</v>
       </c>
       <c r="I34" t="n">
-        <v>2.88</v>
+        <v>5.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="P34" t="n">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.16</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P35" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,260 +5243,530 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.98</v>
+        <v>3.8</v>
       </c>
       <c r="G36" t="n">
-        <v>3.15</v>
+        <v>5.4</v>
       </c>
       <c r="H36" t="n">
-        <v>2.66</v>
+        <v>1.97</v>
       </c>
       <c r="I36" t="n">
-        <v>2.82</v>
+        <v>2.46</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K36" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P36" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.46</v>
+        <v>2.18</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Ferroviaria</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>2025-10-20</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>La Equidad</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Tolima</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="F39" t="n">
         <v>5</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G39" t="n">
         <v>6.2</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H39" t="n">
         <v>1.82</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I39" t="n">
         <v>1.99</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J39" t="n">
         <v>3.2</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K39" t="n">
         <v>3.7</v>
       </c>
-      <c r="L37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="L39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M39" t="n">
         <v>1.1</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N39" t="n">
         <v>2.7</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O39" t="n">
         <v>1.48</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P39" t="n">
         <v>1.58</v>
       </c>
-      <c r="Q37" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R37" t="n">
+      <c r="Q39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R39" t="n">
         <v>1.21</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S39" t="n">
         <v>4.8</v>
       </c>
-      <c r="T37" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U37" t="n">
+      <c r="T39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U39" t="n">
         <v>1.73</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V39" t="n">
         <v>2</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W39" t="n">
         <v>1.2</v>
       </c>
-      <c r="X37" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z37" t="n">
+      <c r="X39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z39" t="n">
         <v>11</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AA39" t="n">
         <v>27</v>
       </c>
-      <c r="AB37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE37" t="n">
+      <c r="AB39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE39" t="n">
         <v>32</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AF39" t="n">
         <v>44</v>
       </c>
-      <c r="AG37" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH37" t="n">
+      <c r="AG39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH39" t="n">
         <v>32</v>
       </c>
-      <c r="AI37" t="n">
+      <c r="AI39" t="n">
         <v>60</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AJ39" t="n">
         <v>200</v>
       </c>
-      <c r="AK37" t="n">
+      <c r="AK39" t="n">
         <v>120</v>
       </c>
-      <c r="AL37" t="n">
+      <c r="AL39" t="n">
         <v>140</v>
       </c>
-      <c r="AM37" t="n">
+      <c r="AM39" t="n">
         <v>240</v>
       </c>
-      <c r="AN37" t="n">
+      <c r="AN39" t="n">
         <v>200</v>
       </c>
-      <c r="AO37" t="n">
+      <c r="AO39" t="n">
         <v>25</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,123 +653,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Levadia Tallinn II</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Septemvri</t>
+          <t>Nomme Kalju II</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1.47</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>8.199999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.65</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.77</v>
+        <v>1.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>2.98</v>
+        <v>1.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.99</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>1.59</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Septemvri</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1.86</v>
+        <v>1.49</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>2.16</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>2.52</v>
+        <v>1.86</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S4" t="n">
         <v>3.4</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.85</v>
-      </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>1.65</v>
+        <v>2.16</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="H5" t="n">
-        <v>2.48</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.39</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
         <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Halmstads</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="G6" t="n">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>2.82</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.35</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.31</v>
-      </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="W6" t="n">
-        <v>1.94</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG6" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Hammarby TFF</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Karlbergs BK</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.02</v>
+        <v>1.48</v>
       </c>
       <c r="G7" t="n">
-        <v>610</v>
+        <v>1.58</v>
       </c>
       <c r="H7" t="n">
-        <v>1.02</v>
+        <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>870</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>500</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>1.25</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>1.32</v>
+        <v>2.54</v>
       </c>
       <c r="T7" t="n">
-        <v>1.03</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hammarby TFF</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Karlbergs BK</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.48</v>
+        <v>1.02</v>
       </c>
       <c r="G8" t="n">
-        <v>1.58</v>
+        <v>610</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>1.02</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>870</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>6.2</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.61</v>
+        <v>1.32</v>
       </c>
       <c r="R8" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2.28</v>
+        <v>1.32</v>
       </c>
       <c r="T8" t="n">
         <v>1.03</v>
@@ -1525,10 +1525,10 @@
         <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Halmstads</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.76</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W9" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.49</v>
+        <v>1.97</v>
       </c>
       <c r="G10" t="n">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="H10" t="n">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>1.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>2.12</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="V10" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="W10" t="n">
-        <v>2.4</v>
+        <v>1.87</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="n">
-        <v>960</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>960</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>960</v>
+        <v>14</v>
       </c>
       <c r="AG10" t="n">
-        <v>960</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>1.49</v>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="R11" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="T11" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="U11" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="W11" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>2.88</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>2.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>2.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>1.71</v>
+        <v>2.08</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Puszcza Niepolomice</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Wisla Krakow</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.1</v>
+        <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>8.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.67</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
       <c r="O13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.23</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S13" t="n">
-        <v>2.52</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="U13" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>2.48</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:10:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>IFK Goteborg</t>
+          <t>Puszcza Niepolomice</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Wisla Krakow</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.64</v>
+        <v>5.1</v>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2.68</v>
+        <v>1.55</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>1.67</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>2.54</v>
       </c>
       <c r="T14" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
         <v>2.02</v>
       </c>
       <c r="V14" t="n">
-        <v>1.53</v>
+        <v>2.48</v>
       </c>
       <c r="W14" t="n">
-        <v>1.56</v>
+        <v>1.14</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>960</v>
+        <v>65</v>
       </c>
       <c r="AG14" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="AO14" t="n">
-        <v>24</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,75 +2408,75 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:10:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>IFK Goteborg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="G15" t="n">
-        <v>4.9</v>
+        <v>2.78</v>
       </c>
       <c r="H15" t="n">
-        <v>2.04</v>
+        <v>2.68</v>
       </c>
       <c r="I15" t="n">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>2.7</v>
+        <v>3.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="U15" t="n">
-        <v>1.78</v>
+        <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>1.26</v>
+        <v>1.56</v>
       </c>
       <c r="X15" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y15" t="n">
         <v>980</v>
@@ -2488,10 +2488,10 @@
         <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2509,22 +2509,22 @@
         <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
         <v>980</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,75 +2543,75 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.34</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>2.74</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2.72</v>
+        <v>2.04</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>2.28</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.36</v>
+        <v>2.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="P16" t="n">
-        <v>2.36</v>
+        <v>1.57</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.53</v>
+        <v>2.34</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>1.53</v>
+        <v>4.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.38</v>
+        <v>2.02</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="V16" t="n">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="W16" t="n">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y16" t="n">
         <v>980</v>
@@ -2620,13 +2620,13 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
         <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AD16" t="n">
         <v>980</v>
@@ -2638,31 +2638,31 @@
         <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
         <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="H17" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="I17" t="n">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>2.36</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.54</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.34</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="V17" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ17" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AK17" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.06</v>
+        <v>2.6</v>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>2.42</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>2.82</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,88 +2851,88 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>2.66</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.49</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.38</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>2.06</v>
       </c>
       <c r="G19" t="n">
-        <v>8.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
-        <v>1.44</v>
+        <v>3.05</v>
       </c>
       <c r="I19" t="n">
-        <v>1.53</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>2.66</v>
       </c>
       <c r="O19" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>3.3</v>
+        <v>2.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="R19" t="n">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="S19" t="n">
-        <v>1.73</v>
+        <v>2.16</v>
       </c>
       <c r="T19" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="U19" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
-        <v>2.84</v>
+        <v>1.38</v>
       </c>
       <c r="W19" t="n">
-        <v>1.13</v>
+        <v>1.76</v>
       </c>
       <c r="X19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH19" t="n">
         <v>21</v>
       </c>
-      <c r="Z19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AI19" t="n">
         <v>48</v>
       </c>
-      <c r="AC19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>28</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="n">
         <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.24</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>2.34</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>1.44</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>1.53</v>
       </c>
       <c r="J20" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.62</v>
+        <v>1.19</v>
       </c>
       <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.13</v>
       </c>
-      <c r="N20" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S20" t="n">
-        <v>6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.74</v>
-      </c>
       <c r="X20" t="n">
-        <v>8.199999999999999</v>
+        <v>60</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="Z20" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>17.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
         <v>80</v>
       </c>
-      <c r="AF20" t="n">
-        <v>13</v>
-      </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AH20" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AK20" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM20" t="n">
         <v>75</v>
       </c>
-      <c r="AM20" t="n">
-        <v>280</v>
-      </c>
       <c r="AN20" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="G21" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="I21" t="n">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="J21" t="n">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="K21" t="n">
-        <v>980</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>1.54</v>
+        <v>2.66</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>2.08</v>
+        <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V21" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="W21" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.7</v>
+        <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>5.6</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
-        <v>1.23</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.44</v>
+        <v>4.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>980</v>
+        <v>3.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>1.5</v>
+        <v>2.42</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="P22" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q22" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6</v>
+      </c>
+      <c r="T22" t="n">
         <v>2.22</v>
       </c>
-      <c r="R22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V22" t="n">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="W22" t="n">
-        <v>1.21</v>
+        <v>1.74</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.72</v>
+        <v>3.15</v>
       </c>
       <c r="G23" t="n">
-        <v>1.87</v>
+        <v>4.6</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>2.04</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>2.92</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>3.3</v>
+        <v>1.54</v>
       </c>
       <c r="O23" t="n">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="P23" t="n">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>3.7</v>
+        <v>2.06</v>
       </c>
       <c r="T23" t="n">
-        <v>1.78</v>
+        <v>1.03</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="V23" t="n">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="W23" t="n">
-        <v>2.16</v>
+        <v>1.28</v>
       </c>
       <c r="X23" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>St Patricks</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>1.72</v>
       </c>
       <c r="G24" t="n">
-        <v>2.92</v>
+        <v>1.87</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="P24" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R24" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>1.52</v>
+        <v>2.16</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>St Patricks</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S25" t="n">
         <v>3.35</v>
       </c>
-      <c r="G25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4.6</v>
-      </c>
       <c r="T25" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="U25" t="n">
-        <v>1.94</v>
+        <v>1.03</v>
       </c>
       <c r="V25" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="X25" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.12</v>
+        <v>3.35</v>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.84</v>
+        <v>2.5</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>2.52</v>
       </c>
       <c r="J26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.3</v>
       </c>
-      <c r="K26" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>1.79</v>
+        <v>3.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P26" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.87</v>
+        <v>2.38</v>
       </c>
       <c r="R26" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
-        <v>1.87</v>
+        <v>4.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>1.29</v>
+        <v>1.65</v>
       </c>
       <c r="W26" t="n">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="G27" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="H27" t="n">
         <v>2.96</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>3.9</v>
+        <v>1.77</v>
       </c>
       <c r="O27" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="S27" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.77</v>
+        <v>1.03</v>
       </c>
       <c r="U27" t="n">
-        <v>2.22</v>
+        <v>1.03</v>
       </c>
       <c r="V27" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="X27" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="G28" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>2.98</v>
       </c>
       <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
         <v>3.9</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.82</v>
-      </c>
       <c r="O28" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.6</v>
+        <v>2.04</v>
       </c>
       <c r="R28" t="n">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="S28" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="T28" t="n">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="U28" t="n">
-        <v>1.82</v>
+        <v>2.22</v>
       </c>
       <c r="V28" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="W28" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="X28" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB28" t="n">
         <v>11</v>
       </c>
-      <c r="Z28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC28" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF28" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>12.5</v>
       </c>
       <c r="AG28" t="n">
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="n">
         <v>85</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>180</v>
-      </c>
       <c r="AN28" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AO28" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Racing Club (Uru)</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Juventud De Las Piedras</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="G29" t="n">
-        <v>2.92</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
-        <v>2.96</v>
+        <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
-        <v>2.4</v>
+        <v>3.15</v>
       </c>
       <c r="K29" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N29" t="n">
-        <v>1.55</v>
+        <v>2.82</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P29" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="R29" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S29" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V29" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W29" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Icelandic Urvalsdeild</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,72 +4433,72 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Racing Club (Uru)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O30" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="P30" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.12</v>
+        <v>2.24</v>
       </c>
       <c r="R30" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S30" t="n">
-        <v>1.12</v>
+        <v>3.7</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V30" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Icelandic Urvalsdeild</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,72 +4568,72 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="P31" t="n">
         <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.92</v>
+        <v>1.12</v>
       </c>
       <c r="R31" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="S31" t="n">
-        <v>1.92</v>
+        <v>1.12</v>
       </c>
       <c r="T31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.01</v>
       </c>
-      <c r="U31" t="n">
+      <c r="W31" t="n">
         <v>1.01</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2.5</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4720,7 +4720,7 @@
         <v>1.81</v>
       </c>
       <c r="G32" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>5.1</v>
@@ -4729,13 +4729,13 @@
         <v>6.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K32" t="n">
         <v>3.7</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
@@ -4759,7 +4759,7 @@
         <v>3.55</v>
       </c>
       <c r="T32" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="U32" t="n">
         <v>1.7</v>
@@ -4768,13 +4768,13 @@
         <v>1.2</v>
       </c>
       <c r="W32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X32" t="n">
         <v>11.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Z32" t="n">
         <v>55</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,126 +4838,126 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.7</v>
+        <v>1.44</v>
       </c>
       <c r="G33" t="n">
-        <v>2.86</v>
+        <v>1.56</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="O33" t="n">
-        <v>1.73</v>
+        <v>1.06</v>
       </c>
       <c r="P33" t="n">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.2</v>
+        <v>1.92</v>
       </c>
       <c r="R33" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>7.2</v>
+        <v>2.98</v>
       </c>
       <c r="T33" t="n">
-        <v>2.14</v>
+        <v>1.87</v>
       </c>
       <c r="U33" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="V33" t="n">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="W33" t="n">
-        <v>1.54</v>
+        <v>2.56</v>
       </c>
       <c r="X33" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AD33" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AG33" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AH33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK33" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL33" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.04</v>
+        <v>2.68</v>
       </c>
       <c r="G34" t="n">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
       <c r="H34" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="K34" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="L34" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N34" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="O34" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P34" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X34" t="n">
         <v>6.8</v>
       </c>
-      <c r="T34" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X34" t="n">
+      <c r="Y34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB34" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y34" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AC34" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AE34" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AF34" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AG34" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AI34" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AJ34" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AL34" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AM34" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="AN34" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AO34" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.92</v>
+        <v>2.04</v>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>2.12</v>
       </c>
       <c r="H35" t="n">
-        <v>2.66</v>
+        <v>4.7</v>
       </c>
       <c r="I35" t="n">
-        <v>2.82</v>
+        <v>5.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="L35" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="N35" t="n">
-        <v>2.98</v>
+        <v>2.26</v>
       </c>
       <c r="O35" t="n">
-        <v>1.34</v>
+        <v>1.67</v>
       </c>
       <c r="P35" t="n">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.18</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="S35" t="n">
-        <v>3.55</v>
+        <v>6.8</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="V35" t="n">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="W35" t="n">
-        <v>1.48</v>
+        <v>1.89</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Y35" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AA35" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AB35" t="n">
-        <v>15</v>
+        <v>6.8</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AE35" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AF35" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>27</v>
       </c>
-      <c r="AI35" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>80</v>
-      </c>
       <c r="AK35" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AL35" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.8</v>
+        <v>2.96</v>
       </c>
       <c r="G36" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>1.97</v>
+        <v>2.66</v>
       </c>
       <c r="I36" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="J36" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="K36" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>1.54</v>
+        <v>3.05</v>
       </c>
       <c r="O36" t="n">
         <v>1.41</v>
       </c>
       <c r="P36" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R36" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S36" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V36" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="W36" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,72 +5378,72 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.73</v>
+        <v>3.9</v>
       </c>
       <c r="G37" t="n">
-        <v>2.52</v>
+        <v>4.9</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>2.04</v>
       </c>
       <c r="I37" t="n">
-        <v>5.2</v>
+        <v>2.26</v>
       </c>
       <c r="J37" t="n">
-        <v>2.44</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W37" t="n">
         <v>1.25</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.65</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G38" t="n">
         <v>3.15</v>
@@ -5536,7 +5536,7 @@
         <v>2.66</v>
       </c>
       <c r="I38" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="J38" t="n">
         <v>3.1</v>
@@ -5551,7 +5551,7 @@
         <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="O38" t="n">
         <v>1.48</v>
@@ -5560,31 +5560,31 @@
         <v>1.6</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R38" t="n">
         <v>1.21</v>
       </c>
       <c r="S38" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T38" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="V38" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W38" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X38" t="n">
         <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z38" t="n">
         <v>21</v>
@@ -5593,13 +5593,13 @@
         <v>60</v>
       </c>
       <c r="AB38" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE38" t="n">
         <v>48</v>
@@ -5608,16 +5608,16 @@
         <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH38" t="n">
         <v>26</v>
       </c>
       <c r="AI38" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="n">
         <v>55</v>
@@ -5629,7 +5629,7 @@
         <v>190</v>
       </c>
       <c r="AN38" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO38" t="n">
         <v>55</v>
@@ -5638,136 +5638,811 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Ferroviaria</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>2025-10-20</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>La Equidad</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Tolima</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="F40" t="n">
         <v>5</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G40" t="n">
         <v>6.2</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H40" t="n">
         <v>1.82</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I40" t="n">
         <v>1.99</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J40" t="n">
         <v>3.2</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K40" t="n">
         <v>3.7</v>
       </c>
-      <c r="L39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M39" t="n">
+      <c r="L40" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M40" t="n">
         <v>1.1</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N40" t="n">
         <v>2.7</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O40" t="n">
         <v>1.48</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P40" t="n">
         <v>1.58</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q40" t="n">
         <v>2.4</v>
       </c>
-      <c r="R39" t="n">
+      <c r="R40" t="n">
         <v>1.21</v>
       </c>
-      <c r="S39" t="n">
+      <c r="S40" t="n">
         <v>4.8</v>
       </c>
-      <c r="T39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U39" t="n">
+      <c r="T40" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U40" t="n">
         <v>1.73</v>
       </c>
-      <c r="V39" t="n">
+      <c r="V40" t="n">
         <v>2</v>
       </c>
-      <c r="W39" t="n">
+      <c r="W40" t="n">
         <v>1.2</v>
       </c>
-      <c r="X39" t="n">
+      <c r="X40" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Y40" t="n">
         <v>7.8</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="Z40" t="n">
         <v>11</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AA40" t="n">
         <v>27</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AB40" t="n">
         <v>15</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AC40" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AD40" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AE40" t="n">
         <v>32</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AF40" t="n">
         <v>44</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AG40" t="n">
         <v>24</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AH40" t="n">
         <v>32</v>
       </c>
-      <c r="AI39" t="n">
+      <c r="AI40" t="n">
         <v>60</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AJ40" t="n">
         <v>200</v>
       </c>
-      <c r="AK39" t="n">
+      <c r="AK40" t="n">
         <v>120</v>
       </c>
-      <c r="AL39" t="n">
+      <c r="AL40" t="n">
         <v>140</v>
       </c>
-      <c r="AM39" t="n">
+      <c r="AM40" t="n">
         <v>240</v>
       </c>
-      <c r="AN39" t="n">
+      <c r="AN40" t="n">
         <v>200</v>
       </c>
-      <c r="AO39" t="n">
+      <c r="AO40" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>El Nacional</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X41" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S42" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>380</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>EC Vitoria Salvador</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="X43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>22:10:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Ind Medellin</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,19 +691,19 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.25</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.24</v>
-      </c>
       <c r="Q2" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.1</v>
@@ -715,7 +715,7 @@
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -811,34 +811,34 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
         <v>3.25</v>
@@ -850,52 +850,52 @@
         <v>1.59</v>
       </c>
       <c r="V3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AL3" t="n">
         <v>55</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="G4" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.34</v>
@@ -982,7 +982,7 @@
         <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
         <v>1.21</v>
@@ -1003,10 +1003,10 @@
         <v>170</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1018,7 +1018,7 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1075,10 +1075,10 @@
         <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
         <v>3.4</v>
@@ -1087,13 +1087,13 @@
         <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
         <v>1.48</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
         <v>3.2</v>
@@ -1102,43 +1102,43 @@
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
         <v>1.42</v>
       </c>
       <c r="W5" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="X5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
         <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC5" t="n">
         <v>7.8</v>
@@ -1147,37 +1147,37 @@
         <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AO5" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I6" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1240,13 +1240,13 @@
         <v>1.93</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R6" t="n">
         <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
         <v>1.71</v>
@@ -1255,16 +1255,16 @@
         <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
         <v>22</v>
@@ -1273,7 +1273,7 @@
         <v>48</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
@@ -1285,13 +1285,13 @@
         <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
         <v>15.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>48</v>
@@ -1312,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -1348,7 +1348,7 @@
         <v>1.58</v>
       </c>
       <c r="H7" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="I7" t="n">
         <v>9</v>
@@ -1378,7 +1378,7 @@
         <v>1.61</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S7" t="n">
         <v>2.54</v>
@@ -1390,7 +1390,7 @@
         <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
         <v>2.72</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>4.4</v>
@@ -1636,22 +1636,22 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" t="n">
         <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
         <v>1.86</v>
@@ -1666,13 +1666,13 @@
         <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
         <v>120</v>
@@ -1684,10 +1684,10 @@
         <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="n">
         <v>12.5</v>
@@ -1702,13 +1702,13 @@
         <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
         <v>4.1</v>
@@ -1771,43 +1771,43 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
         <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W10" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="X10" t="n">
         <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="n">
         <v>80</v>
@@ -1822,7 +1822,7 @@
         <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="n">
         <v>14</v>
@@ -1837,22 +1837,22 @@
         <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
         <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -1885,16 +1885,16 @@
         <v>1.49</v>
       </c>
       <c r="G11" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="H11" t="n">
         <v>5.2</v>
       </c>
       <c r="I11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
         <v>6.4</v>
@@ -1906,13 +1906,13 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
         <v>1.52</v>
@@ -1921,64 +1921,64 @@
         <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T11" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
         <v>1.14</v>
       </c>
       <c r="W11" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="n">
         <v>70</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AC11" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
         <v>90</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>100</v>
@@ -2026,7 +2026,7 @@
         <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2050,10 +2050,10 @@
         <v>2.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S12" t="n">
         <v>2.52</v>
@@ -2065,7 +2065,7 @@
         <v>2.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
         <v>2.08</v>
@@ -2113,16 +2113,16 @@
         <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
         <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.43</v>
@@ -2179,34 +2179,34 @@
         <v>2.88</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
         <v>2.24</v>
       </c>
       <c r="R13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
         <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2290,7 +2290,7 @@
         <v>5.1</v>
       </c>
       <c r="G14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
         <v>1.55</v>
@@ -2311,25 +2311,25 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S14" t="n">
         <v>2.54</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
         <v>2.02</v>
@@ -2341,46 +2341,46 @@
         <v>1.14</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AA14" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AF14" t="n">
         <v>65</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL14" t="n">
         <v>95</v>
@@ -2389,7 +2389,7 @@
         <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO14" t="n">
         <v>9.6</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G15" t="n">
         <v>2.78</v>
       </c>
       <c r="H15" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J15" t="n">
         <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2455,10 +2455,10 @@
         <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
         <v>3.15</v>
@@ -2467,7 +2467,7 @@
         <v>1.69</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
         <v>1.53</v>
@@ -2479,13 +2479,13 @@
         <v>19.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AB15" t="n">
         <v>12.5</v>
@@ -2494,40 +2494,40 @@
         <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
         <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I16" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2584,70 +2584,70 @@
         <v>2.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
         <v>1.57</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="R16" t="n">
         <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V16" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X16" t="n">
         <v>11.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="n">
         <v>90</v>
@@ -2662,7 +2662,7 @@
         <v>130</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.74</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.72</v>
-      </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2725,16 +2725,16 @@
         <v>2.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R17" t="n">
         <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="T17" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="U17" t="n">
         <v>2.02</v>
@@ -2743,55 +2743,55 @@
         <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
         <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
         <v>13.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF17" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AG17" t="n">
         <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
         <v>1000</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="I18" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="J18" t="n">
         <v>3.85</v>
@@ -2857,13 +2857,13 @@
         <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q18" t="n">
         <v>1.54</v>
       </c>
       <c r="R18" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
         <v>2.34</v>
@@ -2872,13 +2872,13 @@
         <v>1.51</v>
       </c>
       <c r="U18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V18" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="W18" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X18" t="n">
         <v>32</v>
@@ -2893,22 +2893,22 @@
         <v>44</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH18" t="n">
         <v>18</v>
@@ -2917,7 +2917,7 @@
         <v>36</v>
       </c>
       <c r="AJ18" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
         <v>32</v>
@@ -2929,10 +2929,10 @@
         <v>65</v>
       </c>
       <c r="AN18" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="19">
@@ -2965,10 +2965,10 @@
         <v>2.06</v>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
         <v>3.6</v>
@@ -2977,7 +2977,7 @@
         <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2998,7 +2998,7 @@
         <v>1.49</v>
       </c>
       <c r="R19" t="n">
-        <v>1.59</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
         <v>2.16</v>
@@ -3013,7 +3013,7 @@
         <v>1.38</v>
       </c>
       <c r="W19" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3103,16 +3103,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I20" t="n">
         <v>1.53</v>
       </c>
       <c r="J20" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K20" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
         <v>1.19</v>
@@ -3127,7 +3127,7 @@
         <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q20" t="n">
         <v>1.35</v>
@@ -3145,7 +3145,7 @@
         <v>2.52</v>
       </c>
       <c r="V20" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="W20" t="n">
         <v>1.13</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="G21" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H21" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I21" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="J21" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="K21" t="n">
         <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
@@ -3259,46 +3259,46 @@
         <v>2.66</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
         <v>1.56</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R21" t="n">
         <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T21" t="n">
         <v>2.02</v>
       </c>
       <c r="U21" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V21" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="W21" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="X21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AA21" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC21" t="n">
         <v>8.800000000000001</v>
@@ -3307,37 +3307,37 @@
         <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AF21" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AM21" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN21" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AO21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3370,19 +3370,19 @@
         <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I22" t="n">
         <v>4.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L22" t="n">
         <v>1.62</v>
@@ -3418,7 +3418,7 @@
         <v>1.31</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X22" t="n">
         <v>8.199999999999999</v>
@@ -3427,7 +3427,7 @@
         <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA22" t="n">
         <v>130</v>
@@ -3436,10 +3436,10 @@
         <v>7</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AE22" t="n">
         <v>80</v>
@@ -3451,16 +3451,16 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
         <v>130</v>
       </c>
       <c r="AJ22" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK22" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL22" t="n">
         <v>75</v>
@@ -3469,7 +3469,7 @@
         <v>280</v>
       </c>
       <c r="AN22" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AO22" t="n">
         <v>150</v>
@@ -3502,46 +3502,46 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="G23" t="n">
         <v>4.6</v>
       </c>
       <c r="H23" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="I23" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="J23" t="n">
-        <v>2.92</v>
+        <v>2.54</v>
       </c>
       <c r="K23" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="O23" t="n">
         <v>1.02</v>
       </c>
       <c r="P23" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
         <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
         <v>1.03</v>
@@ -3550,10 +3550,10 @@
         <v>1.03</v>
       </c>
       <c r="V23" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W23" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3640,16 +3640,16 @@
         <v>1.72</v>
       </c>
       <c r="G24" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
         <v>4.5</v>
@@ -3667,16 +3667,16 @@
         <v>1.35</v>
       </c>
       <c r="P24" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R24" t="n">
         <v>1.3</v>
       </c>
       <c r="S24" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T24" t="n">
         <v>1.78</v>
@@ -3685,7 +3685,7 @@
         <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W24" t="n">
         <v>2.16</v>
@@ -3694,10 +3694,10 @@
         <v>16</v>
       </c>
       <c r="Y24" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z24" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA24" t="n">
         <v>190</v>
@@ -3709,31 +3709,31 @@
         <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
         <v>110</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI24" t="n">
         <v>110</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
         <v>170</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="G25" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="H25" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3802,16 +3802,16 @@
         <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S25" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T25" t="n">
         <v>1.03</v>
@@ -3820,10 +3820,10 @@
         <v>1.03</v>
       </c>
       <c r="V25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W25" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3832,31 +3832,31 @@
         <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3865,7 +3865,7 @@
         <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
@@ -3913,10 +3913,10 @@
         <v>3.4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I26" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J26" t="n">
         <v>3.25</v>
@@ -3931,7 +3931,7 @@
         <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O26" t="n">
         <v>1.45</v>
@@ -3955,7 +3955,7 @@
         <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W26" t="n">
         <v>1.41</v>
@@ -3964,7 +3964,7 @@
         <v>10</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z26" t="n">
         <v>14.5</v>
@@ -3976,7 +3976,7 @@
         <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
         <v>12</v>
@@ -3991,7 +3991,7 @@
         <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
         <v>55</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="G27" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="H27" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="I27" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K27" t="n">
         <v>3.75</v>
@@ -4063,70 +4063,70 @@
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>1.77</v>
+        <v>2.98</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q27" t="n">
         <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T27" t="n">
-        <v>1.03</v>
+        <v>1.78</v>
       </c>
       <c r="U27" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="V27" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W27" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
@@ -4144,10 +4144,10 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -4180,10 +4180,10 @@
         <v>2.6</v>
       </c>
       <c r="G28" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H28" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -4207,7 +4207,7 @@
         <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q28" t="n">
         <v>2.04</v>
@@ -4222,7 +4222,7 @@
         <v>1.78</v>
       </c>
       <c r="U28" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V28" t="n">
         <v>1.5</v>
@@ -4261,7 +4261,7 @@
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI28" t="n">
         <v>44</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G29" t="n">
         <v>2.38</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
@@ -4363,10 +4363,10 @@
         <v>1.34</v>
       </c>
       <c r="W29" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X29" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y29" t="n">
         <v>11</v>
@@ -4381,7 +4381,7 @@
         <v>7.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD29" t="n">
         <v>16.5</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G30" t="n">
         <v>2.84</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
         <v>3.8</v>
       </c>
       <c r="J30" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,22 +4471,22 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="O30" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P30" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T30" t="n">
         <v>1.03</v>
@@ -4495,7 +4495,7 @@
         <v>1.03</v>
       </c>
       <c r="V30" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W30" t="n">
         <v>1.54</v>
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H32" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I32" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J32" t="n">
         <v>3.25</v>
       </c>
       <c r="K32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L32" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="O32" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P32" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
         <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U32" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V32" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W32" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X32" t="n">
         <v>11.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA32" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE32" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG32" t="n">
         <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI32" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ32" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL32" t="n">
         <v>70</v>
       </c>
       <c r="AM32" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO32" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
@@ -4855,7 +4855,7 @@
         <v>1.44</v>
       </c>
       <c r="G33" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="H33" t="n">
         <v>3.3</v>
@@ -4864,13 +4864,13 @@
         <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
         <v>5.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
@@ -4888,7 +4888,7 @@
         <v>1.92</v>
       </c>
       <c r="R33" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S33" t="n">
         <v>2.98</v>
@@ -4906,7 +4906,7 @@
         <v>2.56</v>
       </c>
       <c r="X33" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="Y33" t="n">
         <v>1000</v>
@@ -4918,10 +4918,10 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AC33" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4930,10 +4930,10 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AG33" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AH33" t="n">
         <v>1000</v>
@@ -4942,10 +4942,10 @@
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AK33" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G34" t="n">
         <v>2.88</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I34" t="n">
         <v>3.6</v>
@@ -5005,7 +5005,7 @@
         <v>2.86</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="M34" t="n">
         <v>1.17</v>
@@ -5017,16 +5017,16 @@
         <v>1.73</v>
       </c>
       <c r="P34" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R34" t="n">
         <v>1.13</v>
       </c>
       <c r="S34" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="T34" t="n">
         <v>2.4</v>
@@ -5041,10 +5041,10 @@
         <v>1.53</v>
       </c>
       <c r="X34" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z34" t="n">
         <v>21</v>
@@ -5074,7 +5074,7 @@
         <v>32</v>
       </c>
       <c r="AI34" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ34" t="n">
         <v>55</v>
@@ -5092,7 +5092,7 @@
         <v>75</v>
       </c>
       <c r="AO34" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -5140,16 +5140,16 @@
         <v>3.15</v>
       </c>
       <c r="L35" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M35" t="n">
         <v>1.15</v>
       </c>
       <c r="N35" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O35" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P35" t="n">
         <v>1.42</v>
@@ -5185,19 +5185,19 @@
         <v>40</v>
       </c>
       <c r="AA35" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AB35" t="n">
         <v>6.8</v>
       </c>
       <c r="AC35" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD35" t="n">
         <v>27</v>
       </c>
       <c r="AE35" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF35" t="n">
         <v>12</v>
@@ -5263,13 +5263,13 @@
         <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
         <v>3.45</v>
@@ -5308,19 +5308,19 @@
         <v>1.59</v>
       </c>
       <c r="W36" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="Z36" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AA36" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AB36" t="n">
         <v>10.5</v>
@@ -5332,25 +5332,25 @@
         <v>13</v>
       </c>
       <c r="AE36" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF36" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AG36" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AH36" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AI36" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ36" t="n">
         <v>55</v>
       </c>
       <c r="AK36" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="n">
         <v>55</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G37" t="n">
         <v>4.9</v>
@@ -5404,7 +5404,7 @@
         <v>2.26</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K37" t="n">
         <v>3.6</v>
@@ -5419,13 +5419,13 @@
         <v>1.63</v>
       </c>
       <c r="O37" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="G38" t="n">
         <v>3.15</v>
       </c>
       <c r="H38" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I38" t="n">
         <v>2.86</v>
@@ -5551,7 +5551,7 @@
         <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O38" t="n">
         <v>1.48</v>
@@ -5581,10 +5581,10 @@
         <v>1.47</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z38" t="n">
         <v>21</v>
@@ -5593,13 +5593,13 @@
         <v>60</v>
       </c>
       <c r="AB38" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD38" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE38" t="n">
         <v>48</v>
@@ -5608,7 +5608,7 @@
         <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH38" t="n">
         <v>26</v>
@@ -5617,7 +5617,7 @@
         <v>65</v>
       </c>
       <c r="AJ38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK38" t="n">
         <v>55</v>
@@ -5629,7 +5629,7 @@
         <v>190</v>
       </c>
       <c r="AN38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO38" t="n">
         <v>55</v>
@@ -5713,7 +5713,7 @@
         <v>1.34</v>
       </c>
       <c r="W39" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X39" t="n">
         <v>12.5</v>
@@ -5749,7 +5749,7 @@
         <v>24</v>
       </c>
       <c r="AI39" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="n">
         <v>36</v>
@@ -5767,7 +5767,7 @@
         <v>26</v>
       </c>
       <c r="AO39" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -5797,40 +5797,40 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G40" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H40" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="I40" t="n">
         <v>1.99</v>
       </c>
       <c r="J40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K40" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M40" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O40" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P40" t="n">
         <v>1.58</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R40" t="n">
         <v>1.21</v>
@@ -5839,16 +5839,16 @@
         <v>4.8</v>
       </c>
       <c r="T40" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U40" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V40" t="n">
         <v>2</v>
       </c>
       <c r="W40" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X40" t="n">
         <v>10.5</v>
@@ -5857,10 +5857,10 @@
         <v>7.8</v>
       </c>
       <c r="Z40" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB40" t="n">
         <v>15</v>
@@ -5875,16 +5875,16 @@
         <v>32</v>
       </c>
       <c r="AF40" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH40" t="n">
         <v>32</v>
       </c>
       <c r="AI40" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ40" t="n">
         <v>200</v>
@@ -5893,13 +5893,13 @@
         <v>120</v>
       </c>
       <c r="AL40" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM40" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN40" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AO40" t="n">
         <v>25</v>
@@ -5935,19 +5935,19 @@
         <v>2.92</v>
       </c>
       <c r="G41" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H41" t="n">
         <v>2.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K41" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5962,7 +5962,7 @@
         <v>1.41</v>
       </c>
       <c r="P41" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q41" t="n">
         <v>2.22</v>
@@ -5971,7 +5971,7 @@
         <v>1.24</v>
       </c>
       <c r="S41" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T41" t="n">
         <v>1.88</v>
@@ -6094,16 +6094,16 @@
         <v>2.16</v>
       </c>
       <c r="O42" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="P42" t="n">
         <v>1.38</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S42" t="n">
         <v>7.2</v>
@@ -6166,7 +6166,7 @@
         <v>120</v>
       </c>
       <c r="AM42" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AN42" t="n">
         <v>1000</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G43" t="n">
         <v>1.69</v>
@@ -6214,7 +6214,7 @@
         <v>7.4</v>
       </c>
       <c r="J43" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
         <v>4.4</v>
@@ -6241,10 +6241,10 @@
         <v>1.28</v>
       </c>
       <c r="S43" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T43" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U43" t="n">
         <v>1.79</v>
@@ -6256,19 +6256,19 @@
         <v>2.44</v>
       </c>
       <c r="X43" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y43" t="n">
         <v>23</v>
       </c>
       <c r="Z43" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA43" t="n">
         <v>280</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC43" t="n">
         <v>11</v>
@@ -6280,10 +6280,10 @@
         <v>150</v>
       </c>
       <c r="AF43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH43" t="n">
         <v>32</v>
@@ -6292,10 +6292,10 @@
         <v>140</v>
       </c>
       <c r="AJ43" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL43" t="n">
         <v>55</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G44" t="n">
         <v>1.97</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -679,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
@@ -703,7 +703,7 @@
         <v>1.09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S2" t="n">
         <v>1.1</v>
@@ -808,16 +808,16 @@
         <v>1.49</v>
       </c>
       <c r="H3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
         <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.32</v>
@@ -832,19 +832,19 @@
         <v>1.31</v>
       </c>
       <c r="P3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.89</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
         <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
         <v>1.59</v>
@@ -853,7 +853,7 @@
         <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -874,7 +874,7 @@
         <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -943,7 +943,7 @@
         <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
         <v>5.9</v>
@@ -952,7 +952,7 @@
         <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.34</v>
@@ -985,7 +985,7 @@
         <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
         <v>2.16</v>
@@ -1087,7 +1087,7 @@
         <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
         <v>1.48</v>
@@ -1174,7 +1174,7 @@
         <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>46</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G6" t="n">
         <v>3.1</v>
@@ -1216,7 +1216,7 @@
         <v>2.46</v>
       </c>
       <c r="I6" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
@@ -1240,7 +1240,7 @@
         <v>1.93</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R6" t="n">
         <v>1.35</v>
@@ -1255,13 +1255,13 @@
         <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W6" t="n">
         <v>1.48</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
         <v>14</v>
@@ -1273,7 +1273,7 @@
         <v>48</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
@@ -1285,7 +1285,7 @@
         <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
         <v>15.5</v>
@@ -1378,7 +1378,7 @@
         <v>1.61</v>
       </c>
       <c r="R7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
         <v>2.54</v>
@@ -1618,7 +1618,7 @@
         <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
         <v>4.4</v>
@@ -1684,7 +1684,7 @@
         <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>18.5</v>
+        <v>960</v>
       </c>
       <c r="AE9" t="n">
         <v>75</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G10" t="n">
         <v>2.2</v>
@@ -1756,16 +1756,16 @@
         <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J10" t="n">
         <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1795,7 +1795,7 @@
         <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W10" t="n">
         <v>1.83</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
         <v>5.2</v>
@@ -1933,7 +1933,7 @@
         <v>1.14</v>
       </c>
       <c r="W11" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X11" t="n">
         <v>34</v>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.29</v>
@@ -2047,22 +2047,22 @@
         <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
         <v>1.55</v>
       </c>
       <c r="S12" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T12" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
         <v>1.27</v>
@@ -2155,7 +2155,7 @@
         <v>2.12</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
         <v>3.65</v>
@@ -2176,7 +2176,7 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O13" t="n">
         <v>1.43</v>
@@ -2203,7 +2203,7 @@
         <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
@@ -2296,13 +2296,13 @@
         <v>1.55</v>
       </c>
       <c r="I14" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.23</v>
@@ -2335,10 +2335,10 @@
         <v>2.02</v>
       </c>
       <c r="V14" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X14" t="n">
         <v>24</v>
@@ -2425,7 +2425,7 @@
         <v>2.64</v>
       </c>
       <c r="G15" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="H15" t="n">
         <v>2.74</v>
@@ -2473,7 +2473,7 @@
         <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X15" t="n">
         <v>19.5</v>
@@ -2563,13 +2563,13 @@
         <v>4.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I16" t="n">
         <v>2.24</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
         <v>3.25</v>
@@ -2581,16 +2581,16 @@
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O16" t="n">
         <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
         <v>1.21</v>
@@ -2608,7 +2608,7 @@
         <v>1.81</v>
       </c>
       <c r="W16" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
         <v>11.5</v>
@@ -2620,7 +2620,7 @@
         <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="n">
         <v>970</v>
@@ -2641,13 +2641,13 @@
         <v>19.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI16" t="n">
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="n">
         <v>90</v>
@@ -2662,7 +2662,7 @@
         <v>130</v>
       </c>
       <c r="AO16" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2707,7 +2707,7 @@
         <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2725,19 +2725,19 @@
         <v>2.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="S17" t="n">
-        <v>1.55</v>
+        <v>2.24</v>
       </c>
       <c r="T17" t="n">
         <v>1.4</v>
       </c>
       <c r="U17" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V17" t="n">
         <v>1.47</v>
@@ -2830,7 +2830,7 @@
         <v>2.66</v>
       </c>
       <c r="G18" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>2.36</v>
@@ -2866,7 +2866,7 @@
         <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="T18" t="n">
         <v>1.51</v>
@@ -2875,10 +2875,10 @@
         <v>2.62</v>
       </c>
       <c r="V18" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="W18" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
         <v>32</v>
@@ -2890,7 +2890,7 @@
         <v>25</v>
       </c>
       <c r="AA18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB18" t="n">
         <v>22</v>
@@ -2905,7 +2905,7 @@
         <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>16.5</v>
@@ -2968,16 +2968,16 @@
         <v>2.26</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I19" t="n">
         <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -3001,7 +3001,7 @@
         <v>1.28</v>
       </c>
       <c r="S19" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
         <v>1.33</v>
@@ -3040,7 +3040,7 @@
         <v>46</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
         <v>17.5</v>
@@ -3121,7 +3121,7 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.11</v>
@@ -3133,10 +3133,10 @@
         <v>1.35</v>
       </c>
       <c r="R20" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="S20" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="T20" t="n">
         <v>1.54</v>
@@ -3145,7 +3145,7 @@
         <v>2.52</v>
       </c>
       <c r="V20" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="W20" t="n">
         <v>1.13</v>
@@ -3154,7 +3154,7 @@
         <v>60</v>
       </c>
       <c r="Y20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
         <v>17</v>
@@ -3235,7 +3235,7 @@
         <v>3.65</v>
       </c>
       <c r="G21" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="H21" t="n">
         <v>2.16</v>
@@ -3259,7 +3259,7 @@
         <v>2.66</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P21" t="n">
         <v>1.56</v>
@@ -3271,7 +3271,7 @@
         <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T21" t="n">
         <v>2.02</v>
@@ -3376,10 +3376,10 @@
         <v>3.95</v>
       </c>
       <c r="I22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
         <v>3.15</v>
@@ -3469,7 +3469,7 @@
         <v>280</v>
       </c>
       <c r="AN22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO22" t="n">
         <v>150</v>
@@ -3532,7 +3532,7 @@
         <v>1.02</v>
       </c>
       <c r="P23" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q23" t="n">
         <v>2.08</v>
@@ -3640,7 +3640,7 @@
         <v>1.72</v>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H24" t="n">
         <v>5.2</v>
@@ -3649,10 +3649,10 @@
         <v>6.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3688,7 +3688,7 @@
         <v>1.19</v>
       </c>
       <c r="W24" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X24" t="n">
         <v>16</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G25" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>3.05</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J25" t="n">
         <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,16 +3796,16 @@
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>2.9</v>
+        <v>1.74</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R25" t="n">
         <v>1.21</v>
@@ -3814,16 +3814,16 @@
         <v>3.55</v>
       </c>
       <c r="T25" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="U25" t="n">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="W25" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3913,7 +3913,7 @@
         <v>3.4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I26" t="n">
         <v>2.54</v>
@@ -3955,7 +3955,7 @@
         <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W26" t="n">
         <v>1.41</v>
@@ -4048,7 +4048,7 @@
         <v>2.58</v>
       </c>
       <c r="H27" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
         <v>3.6</v>
@@ -4060,13 +4060,13 @@
         <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
         <v>1.34</v>
@@ -4081,7 +4081,7 @@
         <v>1.3</v>
       </c>
       <c r="S27" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="T27" t="n">
         <v>1.78</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G28" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="H28" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I28" t="n">
         <v>2.96</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
       </c>
       <c r="J28" t="n">
         <v>3.5</v>
@@ -4210,7 +4210,7 @@
         <v>1.95</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R28" t="n">
         <v>1.37</v>
@@ -4225,13 +4225,13 @@
         <v>2.2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W28" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
         <v>12</v>
@@ -4243,7 +4243,7 @@
         <v>46</v>
       </c>
       <c r="AB28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC28" t="n">
         <v>7.6</v>
@@ -4270,10 +4270,10 @@
         <v>38</v>
       </c>
       <c r="AK28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL28" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM28" t="n">
         <v>85</v>
@@ -4282,7 +4282,7 @@
         <v>24</v>
       </c>
       <c r="AO28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G29" t="n">
         <v>2.38</v>
@@ -4324,10 +4324,10 @@
         <v>3.9</v>
       </c>
       <c r="J29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.2</v>
       </c>
       <c r="L29" t="n">
         <v>1.58</v>
@@ -4342,7 +4342,7 @@
         <v>1.53</v>
       </c>
       <c r="P29" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q29" t="n">
         <v>2.62</v>
@@ -4363,7 +4363,7 @@
         <v>1.34</v>
       </c>
       <c r="W29" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X29" t="n">
         <v>8.800000000000001</v>
@@ -4450,19 +4450,19 @@
         <v>2.34</v>
       </c>
       <c r="G30" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I30" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,19 +4471,19 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O30" t="n">
         <v>1.08</v>
       </c>
       <c r="P30" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R30" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S30" t="n">
         <v>3.75</v>
@@ -4495,10 +4495,10 @@
         <v>1.03</v>
       </c>
       <c r="V30" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G32" t="n">
         <v>1.89</v>
       </c>
       <c r="H32" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="I32" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J32" t="n">
         <v>3.25</v>
@@ -4735,13 +4735,13 @@
         <v>3.75</v>
       </c>
       <c r="L32" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="O32" t="n">
         <v>1.48</v>
@@ -4750,28 +4750,28 @@
         <v>1.57</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R32" t="n">
         <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="T32" t="n">
         <v>2.18</v>
       </c>
       <c r="U32" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V32" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W32" t="n">
         <v>2.12</v>
       </c>
       <c r="X32" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="n">
         <v>15.5</v>
@@ -4798,7 +4798,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH32" t="n">
         <v>34</v>
@@ -4858,7 +4858,7 @@
         <v>1.64</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="I33" t="n">
         <v>1000</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G34" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H34" t="n">
         <v>3.45</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J34" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K34" t="n">
         <v>2.86</v>
@@ -5008,13 +5008,13 @@
         <v>1.72</v>
       </c>
       <c r="M34" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N34" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="O34" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="P34" t="n">
         <v>1.38</v>
@@ -5026,37 +5026,37 @@
         <v>1.13</v>
       </c>
       <c r="S34" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="T34" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="U34" t="n">
         <v>1.62</v>
       </c>
       <c r="V34" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W34" t="n">
         <v>1.53</v>
       </c>
       <c r="X34" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z34" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA34" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD34" t="n">
         <v>18</v>
@@ -5065,7 +5065,7 @@
         <v>70</v>
       </c>
       <c r="AF34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG34" t="n">
         <v>15.5</v>
@@ -5092,7 +5092,7 @@
         <v>75</v>
       </c>
       <c r="AO34" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G35" t="n">
         <v>2.12</v>
@@ -5131,10 +5131,10 @@
         <v>4.7</v>
       </c>
       <c r="I35" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
         <v>3.15</v>
@@ -5143,67 +5143,67 @@
         <v>1.57</v>
       </c>
       <c r="M35" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N35" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="O35" t="n">
         <v>1.68</v>
       </c>
       <c r="P35" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R35" t="n">
         <v>1.14</v>
       </c>
       <c r="S35" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T35" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="V35" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W35" t="n">
         <v>1.89</v>
       </c>
       <c r="X35" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="n">
         <v>160</v>
       </c>
       <c r="AB35" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE35" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH35" t="n">
         <v>38</v>
@@ -5221,13 +5221,13 @@
         <v>95</v>
       </c>
       <c r="AM35" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AN35" t="n">
         <v>36</v>
       </c>
       <c r="AO35" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36">
@@ -5299,7 +5299,7 @@
         <v>4.2</v>
       </c>
       <c r="T36" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U36" t="n">
         <v>1.98</v>
@@ -5398,13 +5398,13 @@
         <v>4.9</v>
       </c>
       <c r="H37" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I37" t="n">
         <v>2.26</v>
       </c>
       <c r="J37" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
         <v>3.6</v>
@@ -5416,7 +5416,7 @@
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="O37" t="n">
         <v>1.42</v>
@@ -5431,7 +5431,7 @@
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T37" t="n">
         <v>1.03</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G38" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I38" t="n">
         <v>2.86</v>
@@ -5551,19 +5551,19 @@
         <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O38" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P38" t="n">
         <v>1.6</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R38" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S38" t="n">
         <v>4.9</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G39" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J39" t="n">
         <v>3.25</v>
@@ -5710,7 +5710,7 @@
         <v>1.98</v>
       </c>
       <c r="V39" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W39" t="n">
         <v>1.76</v>
@@ -5809,13 +5809,13 @@
         <v>1.99</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K40" t="n">
         <v>3.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M40" t="n">
         <v>1.11</v>
@@ -5851,7 +5851,7 @@
         <v>1.21</v>
       </c>
       <c r="X40" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y40" t="n">
         <v>7.8</v>
@@ -5941,10 +5941,10 @@
         <v>2.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="J41" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
         <v>3.5</v>
@@ -5956,7 +5956,7 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O41" t="n">
         <v>1.41</v>
@@ -5992,7 +5992,7 @@
         <v>11</v>
       </c>
       <c r="Z41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA41" t="n">
         <v>55</v>
@@ -6028,7 +6028,7 @@
         <v>55</v>
       </c>
       <c r="AL41" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM41" t="n">
         <v>160</v>
@@ -6208,7 +6208,7 @@
         <v>1.69</v>
       </c>
       <c r="H43" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I43" t="n">
         <v>7.4</v>
@@ -6217,7 +6217,7 @@
         <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L43" t="n">
         <v>1.48</v>
@@ -6229,13 +6229,13 @@
         <v>3.25</v>
       </c>
       <c r="O43" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R43" t="n">
         <v>1.28</v>
@@ -6250,10 +6250,10 @@
         <v>1.79</v>
       </c>
       <c r="V43" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W43" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X43" t="n">
         <v>13.5</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="G44" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K44" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6367,10 +6367,10 @@
         <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="R44" t="n">
         <v>1.18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -703,13 +703,13 @@
         <v>1.09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
         <v>1.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="U2" t="n">
         <v>1.03</v>
@@ -817,7 +817,7 @@
         <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.32</v>
@@ -835,7 +835,7 @@
         <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
         <v>1.35</v>
@@ -847,7 +847,7 @@
         <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V3" t="n">
         <v>1.1</v>
@@ -874,7 +874,7 @@
         <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -949,7 +949,7 @@
         <v>5.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
         <v>3.75</v>
@@ -967,10 +967,10 @@
         <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
         <v>1.33</v>
@@ -979,7 +979,7 @@
         <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U4" t="n">
         <v>1.94</v>
@@ -1126,7 +1126,7 @@
         <v>1.63</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
         <v>11.5</v>
@@ -1141,10 +1141,10 @@
         <v>9.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>42</v>
@@ -1156,13 +1156,13 @@
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1177,7 +1177,7 @@
         <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I6" t="n">
         <v>2.78</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>1.38</v>
@@ -1237,7 +1237,7 @@
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
         <v>1.87</v>
@@ -1246,7 +1246,7 @@
         <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
         <v>1.71</v>
@@ -1258,25 +1258,25 @@
         <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="n">
         <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>14.5</v>
@@ -1285,13 +1285,13 @@
         <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>15.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
         <v>48</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="G7" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="H7" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1372,7 +1372,7 @@
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q7" t="n">
         <v>1.61</v>
@@ -1381,19 +1381,19 @@
         <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="X7" t="n">
         <v>28</v>
@@ -1408,7 +1408,7 @@
         <v>230</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
         <v>13.5</v>
@@ -1420,19 +1420,19 @@
         <v>110</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>95</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK7" t="n">
         <v>18.5</v>
@@ -1444,7 +1444,7 @@
         <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO7" t="n">
         <v>120</v>
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>610</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="I8" t="n">
-        <v>870</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1510,13 +1510,13 @@
         <v>1.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.32</v>
+        <v>1.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
         <v>1.03</v>
@@ -1525,13 +1525,13 @@
         <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
@@ -1618,7 +1618,7 @@
         <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>4.4</v>
@@ -1666,7 +1666,7 @@
         <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         <v>960</v>
       </c>
       <c r="AE9" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
         <v>12.5</v>
@@ -1717,7 +1717,7 @@
         <v>17.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1756,13 +1756,13 @@
         <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
         <v>1.32</v>
@@ -1795,7 +1795,7 @@
         <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W10" t="n">
         <v>1.83</v>
@@ -1894,7 +1894,7 @@
         <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
         <v>6.4</v>
@@ -1912,13 +1912,13 @@
         <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q11" t="n">
         <v>1.52</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
         <v>2.14</v>
@@ -1930,7 +1930,7 @@
         <v>2.18</v>
       </c>
       <c r="V11" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W11" t="n">
         <v>2.66</v>
@@ -1939,7 +1939,7 @@
         <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z11" t="n">
         <v>70</v>
@@ -1966,7 +1966,7 @@
         <v>960</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>80</v>
@@ -2035,7 +2035,7 @@
         <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2053,10 +2053,10 @@
         <v>1.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T12" t="n">
         <v>1.64</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H13" t="n">
         <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
         <v>3.5</v>
@@ -2176,7 +2176,7 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="O13" t="n">
         <v>1.43</v>
@@ -2194,16 +2194,16 @@
         <v>4.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U13" t="n">
         <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
@@ -2296,13 +2296,13 @@
         <v>1.55</v>
       </c>
       <c r="I14" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.23</v>
@@ -2335,7 +2335,7 @@
         <v>2.02</v>
       </c>
       <c r="V14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W14" t="n">
         <v>1.16</v>
@@ -2344,7 +2344,7 @@
         <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z14" t="n">
         <v>970</v>
@@ -2422,40 +2422,40 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G15" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="H15" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="J15" t="n">
         <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
         <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
         <v>1.41</v>
@@ -2467,25 +2467,25 @@
         <v>1.69</v>
       </c>
       <c r="U15" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W15" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X15" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>960</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
         <v>960</v>
       </c>
       <c r="AA15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB15" t="n">
         <v>12.5</v>
@@ -2494,10 +2494,10 @@
         <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>960</v>
+        <v>12.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
         <v>960</v>
@@ -2512,13 +2512,13 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="n">
         <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
         <v>100</v>
@@ -2527,7 +2527,7 @@
         <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -2707,7 +2707,7 @@
         <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2725,13 +2725,13 @@
         <v>2.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="R17" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>2.24</v>
+        <v>1.52</v>
       </c>
       <c r="T17" t="n">
         <v>1.4</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I18" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,22 +2851,22 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O18" t="n">
         <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q18" t="n">
         <v>1.54</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S18" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="T18" t="n">
         <v>1.51</v>
@@ -2875,34 +2875,34 @@
         <v>2.62</v>
       </c>
       <c r="V18" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X18" t="n">
         <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="n">
         <v>22</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
         <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF18" t="n">
         <v>29</v>
@@ -2914,7 +2914,7 @@
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
         <v>55</v>
@@ -2932,7 +2932,7 @@
         <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -2965,31 +2965,31 @@
         <v>2.06</v>
       </c>
       <c r="G19" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H19" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
         <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>2.66</v>
+        <v>5.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P19" t="n">
         <v>2.66</v>
@@ -2998,16 +2998,16 @@
         <v>1.49</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.62</v>
       </c>
       <c r="V19" t="n">
         <v>1.38</v>
@@ -3016,58 +3016,58 @@
         <v>1.79</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Z19" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO19" t="n">
         <v>23</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3100,7 +3100,7 @@
         <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
         <v>1.45</v>
@@ -3130,16 +3130,16 @@
         <v>3.35</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R20" t="n">
         <v>1.95</v>
       </c>
       <c r="S20" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="T20" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U20" t="n">
         <v>2.52</v>
@@ -3148,7 +3148,7 @@
         <v>2.92</v>
       </c>
       <c r="W20" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X20" t="n">
         <v>60</v>
@@ -3196,7 +3196,7 @@
         <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN20" t="n">
         <v>55</v>
@@ -3235,7 +3235,7 @@
         <v>3.65</v>
       </c>
       <c r="G21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H21" t="n">
         <v>2.16</v>
@@ -3244,13 +3244,13 @@
         <v>2.44</v>
       </c>
       <c r="J21" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
@@ -3283,13 +3283,13 @@
         <v>1.69</v>
       </c>
       <c r="W21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z21" t="n">
         <v>14</v>
@@ -3298,7 +3298,7 @@
         <v>34</v>
       </c>
       <c r="AB21" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
         <v>8.800000000000001</v>
@@ -3325,7 +3325,7 @@
         <v>110</v>
       </c>
       <c r="AK21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL21" t="n">
         <v>90</v>
@@ -3373,7 +3373,7 @@
         <v>2.36</v>
       </c>
       <c r="H22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
         <v>4.3</v>
@@ -3427,7 +3427,7 @@
         <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
         <v>130</v>
@@ -3502,94 +3502,94 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="G23" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H23" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="J23" t="n">
-        <v>2.54</v>
+        <v>2.82</v>
       </c>
       <c r="K23" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>1.56</v>
+        <v>2.88</v>
       </c>
       <c r="O23" t="n">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="P23" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>3.85</v>
       </c>
       <c r="T23" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="U23" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="V23" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="W23" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
@@ -3598,7 +3598,7 @@
         <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -3640,7 +3640,7 @@
         <v>1.72</v>
       </c>
       <c r="G24" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
         <v>5.2</v>
@@ -3649,13 +3649,13 @@
         <v>6.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K24" t="n">
         <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
@@ -3685,10 +3685,10 @@
         <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X24" t="n">
         <v>16</v>
@@ -3721,7 +3721,7 @@
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>110</v>
@@ -3730,7 +3730,7 @@
         <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL24" t="n">
         <v>55</v>
@@ -3739,7 +3739,7 @@
         <v>170</v>
       </c>
       <c r="AN24" t="n">
-        <v>16</v>
+        <v>960</v>
       </c>
       <c r="AO24" t="n">
         <v>140</v>
@@ -3775,13 +3775,13 @@
         <v>2.44</v>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H25" t="n">
         <v>3.05</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
         <v>3.15</v>
@@ -3790,13 +3790,13 @@
         <v>3.55</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>1.74</v>
+        <v>3.15</v>
       </c>
       <c r="O25" t="n">
         <v>1.39</v>
@@ -3808,76 +3808,76 @@
         <v>2.14</v>
       </c>
       <c r="R25" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>1.41</v>
       </c>
       <c r="W25" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH25" t="n">
         <v>23</v>
       </c>
-      <c r="AG25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>28</v>
-      </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK25" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3913,16 +3913,16 @@
         <v>3.4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I26" t="n">
         <v>2.54</v>
       </c>
       <c r="J26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.51</v>
@@ -3934,7 +3934,7 @@
         <v>3.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P26" t="n">
         <v>1.68</v>
@@ -3949,7 +3949,7 @@
         <v>4.6</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U26" t="n">
         <v>1.94</v>
@@ -3976,7 +3976,7 @@
         <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD26" t="n">
         <v>12</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G27" t="n">
         <v>2.58</v>
@@ -4072,7 +4072,7 @@
         <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q27" t="n">
         <v>2</v>
@@ -4087,22 +4087,22 @@
         <v>1.78</v>
       </c>
       <c r="U27" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W27" t="n">
         <v>1.63</v>
       </c>
       <c r="X27" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
@@ -4117,7 +4117,7 @@
         <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF27" t="n">
         <v>16</v>
@@ -4147,7 +4147,7 @@
         <v>24</v>
       </c>
       <c r="AO27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -4177,58 +4177,58 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="G28" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I28" t="n">
         <v>2.96</v>
       </c>
       <c r="J28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.5</v>
       </c>
-      <c r="K28" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O28" t="n">
         <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R28" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S28" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T28" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U28" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V28" t="n">
         <v>1.51</v>
       </c>
       <c r="W28" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X28" t="n">
         <v>14.5</v>
@@ -4240,22 +4240,22 @@
         <v>19</v>
       </c>
       <c r="AA28" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB28" t="n">
         <v>11.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE28" t="n">
         <v>32</v>
       </c>
       <c r="AF28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
         <v>12</v>
@@ -4264,25 +4264,25 @@
         <v>16.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ28" t="n">
         <v>38</v>
       </c>
       <c r="AK28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL28" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="n">
         <v>85</v>
       </c>
       <c r="AN28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G29" t="n">
         <v>2.38</v>
@@ -4321,7 +4321,7 @@
         <v>3.85</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
@@ -4342,10 +4342,10 @@
         <v>1.53</v>
       </c>
       <c r="P29" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R29" t="n">
         <v>1.21</v>
@@ -4366,7 +4366,7 @@
         <v>1.72</v>
       </c>
       <c r="X29" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y29" t="n">
         <v>11</v>
@@ -4393,7 +4393,7 @@
         <v>12.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
         <v>23</v>
@@ -4447,25 +4447,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94</v>
+        <v>2.68</v>
       </c>
       <c r="H30" t="n">
         <v>3.15</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="J30" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
         <v>3.55</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -4483,7 +4483,7 @@
         <v>2.26</v>
       </c>
       <c r="R30" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
         <v>3.75</v>
@@ -4495,10 +4495,10 @@
         <v>1.03</v>
       </c>
       <c r="V30" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="W30" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4720,7 +4720,7 @@
         <v>1.75</v>
       </c>
       <c r="G32" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="H32" t="n">
         <v>5.6</v>
@@ -4735,7 +4735,7 @@
         <v>3.75</v>
       </c>
       <c r="L32" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
@@ -4744,7 +4744,7 @@
         <v>2.68</v>
       </c>
       <c r="O32" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="P32" t="n">
         <v>1.57</v>
@@ -4768,7 +4768,7 @@
         <v>1.17</v>
       </c>
       <c r="W32" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X32" t="n">
         <v>10</v>
@@ -4813,7 +4813,7 @@
         <v>30</v>
       </c>
       <c r="AL32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM32" t="n">
         <v>270</v>
@@ -4855,13 +4855,13 @@
         <v>1.44</v>
       </c>
       <c r="G33" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="J33" t="n">
         <v>3.65</v>
@@ -4870,37 +4870,37 @@
         <v>5.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>1.75</v>
+        <v>2.88</v>
       </c>
       <c r="O33" t="n">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
         <v>1.64</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="R33" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S33" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="U33" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="V33" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W33" t="n">
         <v>2.56</v>
@@ -4945,7 +4945,7 @@
         <v>960</v>
       </c>
       <c r="AK33" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
@@ -4993,13 +4993,13 @@
         <v>2.86</v>
       </c>
       <c r="H34" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
         <v>3.55</v>
       </c>
       <c r="J34" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="K34" t="n">
         <v>2.86</v>
@@ -5035,7 +5035,7 @@
         <v>1.62</v>
       </c>
       <c r="V34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W34" t="n">
         <v>1.53</v>
@@ -5044,13 +5044,13 @@
         <v>6.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z34" t="n">
         <v>25</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB34" t="n">
         <v>7</v>
@@ -5146,7 +5146,7 @@
         <v>1.16</v>
       </c>
       <c r="N35" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O35" t="n">
         <v>1.68</v>
@@ -5164,10 +5164,10 @@
         <v>7</v>
       </c>
       <c r="T35" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U35" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V35" t="n">
         <v>1.24</v>
@@ -5179,7 +5179,7 @@
         <v>7.2</v>
       </c>
       <c r="Y35" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
         <v>34</v>
@@ -5206,7 +5206,7 @@
         <v>13.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI35" t="n">
         <v>180</v>
@@ -5215,7 +5215,7 @@
         <v>27</v>
       </c>
       <c r="AK35" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AL35" t="n">
         <v>95</v>
@@ -5275,31 +5275,31 @@
         <v>3.45</v>
       </c>
       <c r="L36" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
         <v>3.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P36" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R36" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U36" t="n">
         <v>1.98</v>
@@ -5314,7 +5314,7 @@
         <v>13.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>960</v>
+        <v>9.4</v>
       </c>
       <c r="Z36" t="n">
         <v>960</v>
@@ -5332,10 +5332,10 @@
         <v>13</v>
       </c>
       <c r="AE36" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF36" t="n">
-        <v>960</v>
+        <v>24</v>
       </c>
       <c r="AG36" t="n">
         <v>960</v>
@@ -5344,16 +5344,16 @@
         <v>960</v>
       </c>
       <c r="AI36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ36" t="n">
         <v>55</v>
       </c>
       <c r="AK36" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AL36" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM36" t="n">
         <v>150</v>
@@ -5398,31 +5398,31 @@
         <v>4.9</v>
       </c>
       <c r="H37" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I37" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
         <v>3.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="O37" t="n">
         <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q37" t="n">
         <v>2.28</v>
@@ -5431,7 +5431,7 @@
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="T37" t="n">
         <v>1.03</v>
@@ -5440,10 +5440,10 @@
         <v>1.03</v>
       </c>
       <c r="V37" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="W37" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5545,7 +5545,7 @@
         <v>3.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M38" t="n">
         <v>1.11</v>
@@ -5554,7 +5554,7 @@
         <v>2.78</v>
       </c>
       <c r="O38" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P38" t="n">
         <v>1.6</v>
@@ -5575,7 +5575,7 @@
         <v>1.86</v>
       </c>
       <c r="V38" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W38" t="n">
         <v>1.47</v>
@@ -5584,34 +5584,34 @@
         <v>11.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="n">
         <v>60</v>
       </c>
       <c r="AB38" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD38" t="n">
         <v>16</v>
       </c>
       <c r="AE38" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG38" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI38" t="n">
         <v>65</v>
@@ -5620,7 +5620,7 @@
         <v>55</v>
       </c>
       <c r="AK38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL38" t="n">
         <v>80</v>
@@ -5632,7 +5632,7 @@
         <v>55</v>
       </c>
       <c r="AO38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
@@ -5665,19 +5665,19 @@
         <v>2.12</v>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H39" t="n">
         <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L39" t="n">
         <v>1.46</v>
@@ -5692,7 +5692,7 @@
         <v>1.39</v>
       </c>
       <c r="P39" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q39" t="n">
         <v>2.14</v>
@@ -5710,13 +5710,13 @@
         <v>1.98</v>
       </c>
       <c r="V39" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W39" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X39" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y39" t="n">
         <v>15</v>
@@ -5731,16 +5731,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE39" t="n">
         <v>65</v>
       </c>
       <c r="AF39" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG39" t="n">
         <v>13</v>
@@ -5749,7 +5749,7 @@
         <v>24</v>
       </c>
       <c r="AI39" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ39" t="n">
         <v>36</v>
@@ -5842,7 +5842,7 @@
         <v>2.16</v>
       </c>
       <c r="U40" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V40" t="n">
         <v>2</v>
@@ -5854,28 +5854,28 @@
         <v>10</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z40" t="n">
         <v>10.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB40" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD40" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE40" t="n">
         <v>32</v>
       </c>
       <c r="AF40" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG40" t="n">
         <v>23</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G41" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I41" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J41" t="n">
         <v>3</v>
@@ -5956,34 +5956,34 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P41" t="n">
         <v>1.64</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R41" t="n">
         <v>1.24</v>
       </c>
       <c r="S41" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U41" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V41" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W41" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X41" t="n">
         <v>13</v>
@@ -6010,7 +6010,7 @@
         <v>42</v>
       </c>
       <c r="AF41" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG41" t="n">
         <v>17</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G42" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J42" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="K42" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
         <v>1.6</v>
@@ -6112,10 +6112,10 @@
         <v>2.42</v>
       </c>
       <c r="U42" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V42" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W42" t="n">
         <v>1.5</v>
@@ -6124,7 +6124,7 @@
         <v>6.8</v>
       </c>
       <c r="Y42" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Z42" t="n">
         <v>24</v>
@@ -6133,10 +6133,10 @@
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC42" t="n">
         <v>8.6</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>8.4</v>
       </c>
       <c r="AD42" t="n">
         <v>20</v>
@@ -6151,7 +6151,7 @@
         <v>18</v>
       </c>
       <c r="AH42" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
         <v>130</v>
@@ -6205,19 +6205,19 @@
         <v>1.63</v>
       </c>
       <c r="G43" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H43" t="n">
         <v>6.4</v>
       </c>
       <c r="I43" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J43" t="n">
         <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L43" t="n">
         <v>1.48</v>
@@ -6238,13 +6238,13 @@
         <v>2.1</v>
       </c>
       <c r="R43" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S43" t="n">
         <v>3.85</v>
       </c>
       <c r="T43" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U43" t="n">
         <v>1.79</v>
@@ -6256,31 +6256,31 @@
         <v>2.46</v>
       </c>
       <c r="X43" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y43" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="n">
         <v>60</v>
       </c>
       <c r="AA43" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AC43" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE43" t="n">
         <v>150</v>
       </c>
       <c r="AF43" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG43" t="n">
         <v>10.5</v>
@@ -6292,19 +6292,19 @@
         <v>140</v>
       </c>
       <c r="AJ43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK43" t="n">
         <v>20</v>
       </c>
       <c r="AL43" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM43" t="n">
         <v>210</v>
       </c>
       <c r="AN43" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO43" t="n">
         <v>220</v>
@@ -6340,7 +6340,7 @@
         <v>1.82</v>
       </c>
       <c r="G44" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H44" t="n">
         <v>5.1</v>
@@ -6358,13 +6358,13 @@
         <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O44" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P44" t="n">
         <v>1.64</v>
@@ -6373,16 +6373,16 @@
         <v>2.32</v>
       </c>
       <c r="R44" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S44" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V44" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
         <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
@@ -715,7 +715,7 @@
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -805,16 +805,16 @@
         <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
@@ -835,7 +835,7 @@
         <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
         <v>1.35</v>
@@ -850,16 +850,16 @@
         <v>1.6</v>
       </c>
       <c r="V3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
         <v>110</v>
@@ -868,13 +868,13 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,10 +883,10 @@
         <v>970</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H4" t="n">
         <v>5.1</v>
@@ -952,7 +952,7 @@
         <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.34</v>
@@ -967,7 +967,7 @@
         <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" t="n">
         <v>1.95</v>
@@ -988,7 +988,7 @@
         <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>170</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC4" t="n">
         <v>1000</v>
@@ -1081,13 +1081,13 @@
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.45</v>
       </c>
       <c r="L5" t="n">
         <v>1.48</v>
@@ -1099,19 +1099,19 @@
         <v>3.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
         <v>1.76</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
         <v>1.86</v>
@@ -1141,7 +1141,7 @@
         <v>9.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
         <v>14</v>
@@ -1162,7 +1162,7 @@
         <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1171,10 +1171,10 @@
         <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
         <v>44</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G6" t="n">
         <v>3.05</v>
@@ -1216,52 +1216,52 @@
         <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
         <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
         <v>13.5</v>
@@ -1270,13 +1270,13 @@
         <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="n">
         <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>14.5</v>
@@ -1294,16 +1294,16 @@
         <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1378,7 +1378,7 @@
         <v>1.61</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S7" t="n">
         <v>2.52</v>
@@ -1393,7 +1393,7 @@
         <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="X7" t="n">
         <v>28</v>
@@ -1402,13 +1402,13 @@
         <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="n">
         <v>230</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
         <v>13.5</v>
@@ -1420,25 +1420,25 @@
         <v>110</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="n">
         <v>16.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>120</v>
@@ -1447,7 +1447,7 @@
         <v>7.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
         <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
@@ -1519,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
         <v>1.03</v>
@@ -1615,64 +1615,64 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I9" t="n">
         <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V9" t="n">
         <v>1.29</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AA9" t="n">
         <v>120</v>
@@ -1681,16 +1681,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>960</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>450</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -1705,16 +1705,16 @@
         <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AL9" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO9" t="n">
         <v>70</v>
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H10" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.29</v>
@@ -1780,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
         <v>1.39</v>
@@ -1789,37 +1789,37 @@
         <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V10" t="n">
         <v>1.33</v>
       </c>
       <c r="W10" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="X10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA10" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="n">
         <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>48</v>
@@ -1834,10 +1834,10 @@
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK10" t="n">
         <v>22</v>
@@ -1849,10 +1849,10 @@
         <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>15.5</v>
+        <v>960</v>
       </c>
       <c r="AO10" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1921,10 +1921,10 @@
         <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U11" t="n">
         <v>2.18</v>
@@ -1936,10 +1936,10 @@
         <v>2.66</v>
       </c>
       <c r="X11" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
         <v>70</v>
@@ -1948,13 +1948,13 @@
         <v>190</v>
       </c>
       <c r="AB11" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD11" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
         <v>90</v>
@@ -1963,10 +1963,10 @@
         <v>960</v>
       </c>
       <c r="AG11" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
         <v>80</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.85</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.91</v>
-      </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
         <v>4.7</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
         <v>4.4</v>
@@ -2041,61 +2041,61 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
         <v>1.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S12" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
         <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="n">
         <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -2107,22 +2107,22 @@
         <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
         <v>3.65</v>
@@ -2164,10 +2164,10 @@
         <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
         <v>1.43</v>
@@ -2176,13 +2176,13 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O13" t="n">
         <v>1.43</v>
       </c>
       <c r="P13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
         <v>2.24</v>
@@ -2194,22 +2194,22 @@
         <v>4.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
         <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2251,7 +2251,7 @@
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
@@ -2302,37 +2302,37 @@
         <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="S14" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
         <v>2.52</v>
@@ -2341,7 +2341,7 @@
         <v>1.16</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
         <v>11.5</v>
@@ -2353,13 +2353,13 @@
         <v>970</v>
       </c>
       <c r="AB14" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
         <v>960</v>
@@ -2368,13 +2368,13 @@
         <v>65</v>
       </c>
       <c r="AG14" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
@@ -2383,16 +2383,16 @@
         <v>100</v>
       </c>
       <c r="AL14" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
         <v>110</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H15" t="n">
         <v>2.68</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.7</v>
       </c>
       <c r="I15" t="n">
         <v>2.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.35</v>
@@ -2446,34 +2446,34 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
         <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
         <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U15" t="n">
         <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W15" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X15" t="n">
         <v>16.5</v>
@@ -2503,10 +2503,10 @@
         <v>960</v>
       </c>
       <c r="AG15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
         <v>40</v>
@@ -2560,10 +2560,10 @@
         <v>4.2</v>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I16" t="n">
         <v>2.24</v>
@@ -2575,7 +2575,7 @@
         <v>3.25</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
@@ -2587,10 +2587,10 @@
         <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="R16" t="n">
         <v>1.21</v>
@@ -2608,28 +2608,28 @@
         <v>1.81</v>
       </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X16" t="n">
         <v>11.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="Z16" t="n">
         <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -2638,7 +2638,7 @@
         <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
         <v>28</v>
@@ -2650,7 +2650,7 @@
         <v>140</v>
       </c>
       <c r="AK16" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="n">
         <v>110</v>
@@ -2695,109 +2695,109 @@
         <v>2.36</v>
       </c>
       <c r="G17" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="H17" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>2.36</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q17" t="n">
         <v>1.52</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="S17" t="n">
-        <v>1.52</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="U17" t="n">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="V17" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W17" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y17" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF17" t="n">
         <v>23</v>
       </c>
-      <c r="Z17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>960</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>28</v>
-      </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>48</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>50</v>
-      </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G18" t="n">
         <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I18" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
         <v>3.9</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2866,22 +2866,22 @@
         <v>1.63</v>
       </c>
       <c r="S18" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T18" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U18" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="V18" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y18" t="n">
         <v>19.5</v>
@@ -2929,10 +2929,10 @@
         <v>65</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="19">
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G19" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J19" t="n">
         <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -2992,13 +2992,13 @@
         <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S19" t="n">
         <v>2.2</v>
@@ -3013,10 +3013,10 @@
         <v>1.38</v>
       </c>
       <c r="W19" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="n">
         <v>25</v>
@@ -3046,7 +3046,7 @@
         <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
         <v>36</v>
@@ -3061,7 +3061,7 @@
         <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN19" t="n">
         <v>11.5</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I20" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="J20" t="n">
         <v>5.3</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.19</v>
@@ -3121,19 +3121,19 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R20" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>1.89</v>
@@ -3142,25 +3142,25 @@
         <v>1.55</v>
       </c>
       <c r="U20" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="V20" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X20" t="n">
         <v>60</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
         <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB20" t="n">
         <v>48</v>
@@ -3172,19 +3172,19 @@
         <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF20" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG20" t="n">
         <v>32</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
         <v>180</v>
@@ -3196,13 +3196,13 @@
         <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN20" t="n">
         <v>55</v>
       </c>
       <c r="AO20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="21">
@@ -3232,88 +3232,88 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="G21" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="H21" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="T21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V21" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="W21" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA21" t="n">
         <v>34</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE21" t="n">
         <v>32</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
         <v>24</v>
@@ -3322,10 +3322,10 @@
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="n">
         <v>90</v>
@@ -3334,10 +3334,10 @@
         <v>190</v>
       </c>
       <c r="AN21" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AO21" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G22" t="n">
         <v>2.36</v>
@@ -3376,7 +3376,7 @@
         <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
@@ -3388,31 +3388,31 @@
         <v>1.62</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N22" t="n">
         <v>2.42</v>
       </c>
       <c r="O22" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="P22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="R22" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T22" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
         <v>1.31</v>
@@ -3421,10 +3421,10 @@
         <v>1.73</v>
       </c>
       <c r="X22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
         <v>29</v>
@@ -3433,13 +3433,13 @@
         <v>130</v>
       </c>
       <c r="AB22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC22" t="n">
         <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE22" t="n">
         <v>80</v>
@@ -3451,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
         <v>130</v>
@@ -3502,91 +3502,91 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G23" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I23" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="J23" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
         <v>3.65</v>
       </c>
       <c r="L23" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.43</v>
       </c>
       <c r="P23" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R23" t="n">
         <v>1.24</v>
       </c>
       <c r="S23" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U23" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V23" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="W23" t="n">
         <v>1.33</v>
       </c>
       <c r="X23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB23" t="n">
         <v>13</v>
       </c>
-      <c r="Y23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC23" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>60</v>
@@ -3595,16 +3595,16 @@
         <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
         <v>80</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>32</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H24" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
         <v>4.2</v>
@@ -3658,91 +3658,91 @@
         <v>1.36</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S24" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="V24" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="W24" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="X24" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Y24" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA24" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>960</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK24" t="n">
         <v>23</v>
       </c>
-      <c r="AK24" t="n">
-        <v>24</v>
-      </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
         <v>170</v>
       </c>
       <c r="AN24" t="n">
-        <v>960</v>
+        <v>16.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
@@ -3775,13 +3775,13 @@
         <v>2.44</v>
       </c>
       <c r="G25" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H25" t="n">
         <v>3.05</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
         <v>3.15</v>
@@ -3811,7 +3811,7 @@
         <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
         <v>1.84</v>
@@ -3820,7 +3820,7 @@
         <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
         <v>1.6</v>
@@ -3835,7 +3835,7 @@
         <v>27</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="n">
         <v>11.5</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I26" t="n">
         <v>2.52</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.54</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
@@ -3928,19 +3928,19 @@
         <v>1.51</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
         <v>3.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P26" t="n">
         <v>1.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R26" t="n">
         <v>1.25</v>
@@ -3949,22 +3949,22 @@
         <v>4.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U26" t="n">
         <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W26" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X26" t="n">
         <v>10</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z26" t="n">
         <v>14.5</v>
@@ -4042,37 +4042,37 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="G27" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="I27" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O27" t="n">
         <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q27" t="n">
         <v>2</v>
@@ -4090,19 +4090,19 @@
         <v>2.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="W27" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="X27" t="n">
         <v>13.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
@@ -4117,13 +4117,13 @@
         <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>19</v>
@@ -4135,7 +4135,7 @@
         <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
@@ -4144,10 +4144,10 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO27" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -4177,70 +4177,70 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I28" t="n">
         <v>2.92</v>
       </c>
-      <c r="I28" t="n">
-        <v>2.96</v>
-      </c>
       <c r="J28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.42</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O28" t="n">
         <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
         <v>1.38</v>
       </c>
       <c r="S28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U28" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V28" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W28" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X28" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y28" t="n">
         <v>12</v>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB28" t="n">
         <v>11.5</v>
@@ -4249,7 +4249,7 @@
         <v>7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>32</v>
@@ -4258,7 +4258,7 @@
         <v>17</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
         <v>16.5</v>
@@ -4270,16 +4270,16 @@
         <v>38</v>
       </c>
       <c r="AK28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL28" t="n">
         <v>40</v>
       </c>
       <c r="AM28" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO28" t="n">
         <v>27</v>
@@ -4315,19 +4315,19 @@
         <v>2.34</v>
       </c>
       <c r="G29" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I29" t="n">
         <v>3.85</v>
       </c>
-      <c r="I29" t="n">
-        <v>3.95</v>
-      </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L29" t="n">
         <v>1.58</v>
@@ -4342,7 +4342,7 @@
         <v>1.53</v>
       </c>
       <c r="P29" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Q29" t="n">
         <v>2.6</v>
@@ -4351,7 +4351,7 @@
         <v>1.21</v>
       </c>
       <c r="S29" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T29" t="n">
         <v>2.14</v>
@@ -4360,13 +4360,13 @@
         <v>1.82</v>
       </c>
       <c r="V29" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X29" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y29" t="n">
         <v>11</v>
@@ -4450,106 +4450,106 @@
         <v>2.38</v>
       </c>
       <c r="G30" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="H30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J30" t="n">
         <v>3.15</v>
       </c>
-      <c r="I30" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K30" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>1.65</v>
+        <v>2.98</v>
       </c>
       <c r="O30" t="n">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="P30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q30" t="n">
         <v>2.26</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S30" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="U30" t="n">
-        <v>1.03</v>
+        <v>1.93</v>
       </c>
       <c r="V30" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W30" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,22 +4606,22 @@
         <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="O31" t="n">
         <v>1.12</v>
       </c>
       <c r="P31" t="n">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="R31" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="S31" t="n">
-        <v>1.12</v>
+        <v>1.9</v>
       </c>
       <c r="T31" t="n">
         <v>1.03</v>
@@ -4630,10 +4630,10 @@
         <v>1.03</v>
       </c>
       <c r="V31" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4720,7 +4720,7 @@
         <v>1.75</v>
       </c>
       <c r="G32" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>5.6</v>
@@ -4744,7 +4744,7 @@
         <v>2.68</v>
       </c>
       <c r="O32" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P32" t="n">
         <v>1.57</v>
@@ -4762,13 +4762,13 @@
         <v>2.18</v>
       </c>
       <c r="U32" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V32" t="n">
         <v>1.17</v>
       </c>
       <c r="W32" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="X32" t="n">
         <v>10</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H33" t="n">
         <v>7.6</v>
@@ -4870,43 +4870,43 @@
         <v>5.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O33" t="n">
         <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R33" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S33" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T33" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V33" t="n">
         <v>1.09</v>
       </c>
       <c r="W33" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X33" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y33" t="n">
         <v>1000</v>
@@ -4918,10 +4918,10 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC33" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4933,7 +4933,7 @@
         <v>960</v>
       </c>
       <c r="AG33" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH33" t="n">
         <v>1000</v>
@@ -4987,82 +4987,82 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="G34" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I34" t="n">
         <v>3.55</v>
       </c>
       <c r="J34" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="K34" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="M34" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N34" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="O34" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="P34" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S34" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="T34" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="U34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V34" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W34" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X34" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z34" t="n">
         <v>25</v>
       </c>
       <c r="AA34" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC34" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD34" t="n">
         <v>18</v>
       </c>
       <c r="AE34" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF34" t="n">
         <v>15</v>
@@ -5071,28 +5071,28 @@
         <v>15.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI34" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ34" t="n">
         <v>55</v>
       </c>
       <c r="AK34" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL34" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM34" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AN34" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AO34" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -5125,10 +5125,10 @@
         <v>2.06</v>
       </c>
       <c r="G35" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I35" t="n">
         <v>5.1</v>
@@ -5146,7 +5146,7 @@
         <v>1.16</v>
       </c>
       <c r="N35" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="O35" t="n">
         <v>1.68</v>
@@ -5161,10 +5161,10 @@
         <v>1.14</v>
       </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T35" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U35" t="n">
         <v>1.55</v>
@@ -5173,7 +5173,7 @@
         <v>1.24</v>
       </c>
       <c r="W35" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X35" t="n">
         <v>7.2</v>
@@ -5197,7 +5197,7 @@
         <v>25</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF35" t="n">
         <v>10.5</v>
@@ -5209,25 +5209,25 @@
         <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AJ35" t="n">
         <v>27</v>
       </c>
       <c r="AK35" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AL35" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AM35" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="AN35" t="n">
         <v>36</v>
       </c>
       <c r="AO35" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H36" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I36" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J36" t="n">
         <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L36" t="n">
         <v>1.5</v>
@@ -5281,40 +5281,40 @@
         <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="O36" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P36" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="R36" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S36" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U36" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V36" t="n">
         <v>1.59</v>
       </c>
       <c r="W36" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X36" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z36" t="n">
         <v>960</v>
@@ -5338,10 +5338,10 @@
         <v>24</v>
       </c>
       <c r="AG36" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH36" t="n">
-        <v>960</v>
+        <v>25</v>
       </c>
       <c r="AI36" t="n">
         <v>55</v>
@@ -5362,7 +5362,7 @@
         <v>50</v>
       </c>
       <c r="AO36" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H37" t="n">
         <v>2.04</v>
@@ -5404,55 +5404,55 @@
         <v>2.2</v>
       </c>
       <c r="J37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L37" t="n">
         <v>1.41</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>1.61</v>
+        <v>2.84</v>
       </c>
       <c r="O37" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R37" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S37" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="U37" t="n">
-        <v>1.03</v>
+        <v>1.81</v>
       </c>
       <c r="V37" t="n">
         <v>1.83</v>
       </c>
       <c r="W37" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
@@ -5461,7 +5461,7 @@
         <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
         <v>1000</v>
@@ -5473,7 +5473,7 @@
         <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH37" t="n">
         <v>1000</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G38" t="n">
         <v>3.1</v>
@@ -5536,13 +5536,13 @@
         <v>2.7</v>
       </c>
       <c r="I38" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J38" t="n">
         <v>3.1</v>
       </c>
       <c r="K38" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L38" t="n">
         <v>1.55</v>
@@ -5551,16 +5551,16 @@
         <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="O38" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P38" t="n">
         <v>1.6</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R38" t="n">
         <v>1.22</v>
@@ -5575,7 +5575,7 @@
         <v>1.86</v>
       </c>
       <c r="V38" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W38" t="n">
         <v>1.47</v>
@@ -5719,7 +5719,7 @@
         <v>14.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z39" t="n">
         <v>34</v>
@@ -5728,10 +5728,10 @@
         <v>100</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD39" t="n">
         <v>19.5</v>
@@ -5740,10 +5740,10 @@
         <v>65</v>
       </c>
       <c r="AF39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH39" t="n">
         <v>24</v>
@@ -5806,7 +5806,7 @@
         <v>1.86</v>
       </c>
       <c r="I40" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="J40" t="n">
         <v>3.3</v>
@@ -5815,7 +5815,7 @@
         <v>3.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="M40" t="n">
         <v>1.11</v>
@@ -5845,7 +5845,7 @@
         <v>1.74</v>
       </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W40" t="n">
         <v>1.21</v>
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Z40" t="n">
         <v>10.5</v>
@@ -5866,7 +5866,7 @@
         <v>14</v>
       </c>
       <c r="AC40" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD40" t="n">
         <v>11</v>
@@ -5878,7 +5878,7 @@
         <v>40</v>
       </c>
       <c r="AG40" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AH40" t="n">
         <v>32</v>
@@ -5935,13 +5935,13 @@
         <v>2.94</v>
       </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H41" t="n">
         <v>2.52</v>
       </c>
       <c r="I41" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="J41" t="n">
         <v>3</v>
@@ -5965,13 +5965,13 @@
         <v>1.64</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R41" t="n">
         <v>1.24</v>
       </c>
       <c r="S41" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T41" t="n">
         <v>1.89</v>
@@ -5980,10 +5980,10 @@
         <v>1.9</v>
       </c>
       <c r="V41" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="W41" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X41" t="n">
         <v>13</v>
@@ -6010,7 +6010,7 @@
         <v>42</v>
       </c>
       <c r="AF41" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG41" t="n">
         <v>17</v>
@@ -6079,7 +6079,7 @@
         <v>3.35</v>
       </c>
       <c r="J42" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="K42" t="n">
         <v>3</v>
@@ -6112,10 +6112,10 @@
         <v>2.42</v>
       </c>
       <c r="U42" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V42" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W42" t="n">
         <v>1.5</v>
@@ -6124,10 +6124,10 @@
         <v>6.8</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z42" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G43" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H43" t="n">
         <v>6.4</v>
@@ -6226,25 +6226,25 @@
         <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O43" t="n">
         <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q43" t="n">
         <v>2.1</v>
       </c>
       <c r="R43" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S43" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T43" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U43" t="n">
         <v>1.79</v>
@@ -6253,7 +6253,7 @@
         <v>1.16</v>
       </c>
       <c r="W43" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X43" t="n">
         <v>15</v>
@@ -6268,7 +6268,7 @@
         <v>270</v>
       </c>
       <c r="AB43" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC43" t="n">
         <v>9.4</v>
@@ -6280,25 +6280,25 @@
         <v>150</v>
       </c>
       <c r="AF43" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG43" t="n">
         <v>10.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI43" t="n">
         <v>140</v>
       </c>
       <c r="AJ43" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK43" t="n">
         <v>20</v>
       </c>
       <c r="AL43" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM43" t="n">
         <v>210</v>
@@ -6340,7 +6340,7 @@
         <v>1.82</v>
       </c>
       <c r="G44" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H44" t="n">
         <v>5.1</v>
@@ -6349,97 +6349,97 @@
         <v>6.8</v>
       </c>
       <c r="J44" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K44" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P44" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R44" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S44" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="U44" t="n">
-        <v>1.03</v>
+        <v>1.81</v>
       </c>
       <c r="V44" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W44" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,81 +653,81 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Levadia Tallinn II</t>
+          <t>Serik Belediyespor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nomme Kalju II</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.33</v>
+        <v>5.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>1.74</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.09</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.09</v>
+        <v>1.77</v>
       </c>
       <c r="R2" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>1.1</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.37</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="V2" t="n">
-        <v>1.1</v>
+        <v>2.34</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,13 +736,13 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Levadia Tallinn II</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Septemvri</t>
+          <t>Nomme Kalju II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>9.800000000000001</v>
+        <v>2.06</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.32</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.09</v>
-      </c>
       <c r="W3" t="n">
-        <v>3.2</v>
+        <v>1.61</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Septemvri</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="G4" t="n">
-        <v>1.84</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K4" t="n">
         <v>5.1</v>
       </c>
-      <c r="I4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.6</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="I5" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.4</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.42</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,39 +1193,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.72</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.76</v>
+        <v>5.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1234,91 +1234,91 @@
         <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
         <v>1.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN6" t="n">
         <v>55</v>
       </c>
-      <c r="AK6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>34</v>
-      </c>
       <c r="AO6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hammarby TFF</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Karlbergs BK</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="G7" t="n">
-        <v>1.54</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>6.8</v>
+        <v>1.26</v>
       </c>
       <c r="I7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.03</v>
       </c>
-      <c r="N7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.79</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>2.82</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,75 +1463,75 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>FK Kudrivka</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Metalist 1925</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>980</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>980</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.01</v>
       </c>
-      <c r="G8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.27</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P8" t="n">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.02</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
         <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>2.04</v>
       </c>
       <c r="W8" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
@@ -1546,7 +1546,7 @@
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1582,13 +1582,13 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Halmstads</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>2.56</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S9" t="n">
         <v>4.4</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.85</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V9" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>1.98</v>
+        <v>1.64</v>
       </c>
       <c r="X9" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>450</v>
+        <v>46</v>
       </c>
       <c r="AF9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG9" t="n">
         <v>12</v>
       </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.08</v>
+        <v>2.86</v>
       </c>
       <c r="G10" t="n">
-        <v>2.16</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>2.48</v>
       </c>
       <c r="I10" t="n">
-        <v>3.95</v>
+        <v>2.68</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z10" t="n">
         <v>20</v>
       </c>
-      <c r="Y10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>28</v>
-      </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
         <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>960</v>
+        <v>44</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Hammarby TFF</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Karlbergs BK</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J11" t="n">
         <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.54</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.52</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
         <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="AA11" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="AB11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>460</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>360</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL11" t="n">
         <v>980</v>
       </c>
-      <c r="AC11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>960</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>960</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>960</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Halmstads</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.83</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.4</v>
-      </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>2.58</v>
+        <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>1.99</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AA12" t="n">
-        <v>110</v>
+        <v>530</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>46</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,73 +2143,73 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.16</v>
+        <v>1.36</v>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>1.36</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>1.51</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.96</v>
+        <v>1.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.24</v>
+        <v>1.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.03</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2251,7 +2251,7 @@
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="I14" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
         <v>4.1</v>
@@ -2317,7 +2317,7 @@
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q14" t="n">
         <v>1.62</v>
@@ -2329,43 +2329,43 @@
         <v>2.58</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
         <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="W14" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AB14" t="n">
         <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD14" t="n">
         <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="AG14" t="n">
         <v>980</v>
@@ -2374,22 +2374,22 @@
         <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="AL14" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="AN14" t="n">
-        <v>110</v>
+        <v>530</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,39 +2408,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:10:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>IFK Goteborg</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.66</v>
+        <v>2.12</v>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>2.18</v>
       </c>
       <c r="H15" t="n">
-        <v>2.68</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2.8</v>
+        <v>3.95</v>
       </c>
       <c r="J15" t="n">
         <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2449,91 +2449,91 @@
         <v>3.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.55</v>
+        <v>1.84</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>960</v>
+        <v>85</v>
       </c>
       <c r="AA15" t="n">
-        <v>42</v>
+        <v>530</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>960</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI15" t="n">
         <v>980</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AJ15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO15" t="n">
         <v>980</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.2</v>
+        <v>1.48</v>
       </c>
       <c r="G16" t="n">
-        <v>4.7</v>
+        <v>1.59</v>
       </c>
       <c r="H16" t="n">
-        <v>2.12</v>
+        <v>5.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.24</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>2.72</v>
+        <v>5.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>1.56</v>
+        <v>2.56</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.48</v>
+        <v>1.52</v>
       </c>
       <c r="R16" t="n">
-        <v>1.21</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="T16" t="n">
-        <v>2.04</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
-        <v>1.79</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.81</v>
+        <v>1.15</v>
       </c>
       <c r="W16" t="n">
-        <v>1.28</v>
+        <v>2.68</v>
       </c>
       <c r="X16" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>970</v>
+        <v>220</v>
       </c>
       <c r="AA16" t="n">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AC16" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
         <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>30</v>
+        <v>380</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH16" t="n">
         <v>980</v>
       </c>
-      <c r="AH16" t="n">
-        <v>28</v>
-      </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AJ16" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN16" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,39 +2678,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.36</v>
+        <v>1.83</v>
       </c>
       <c r="G17" t="n">
-        <v>2.66</v>
+        <v>1.87</v>
       </c>
       <c r="H17" t="n">
-        <v>2.78</v>
+        <v>4.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -2719,91 +2719,91 @@
         <v>5.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.52</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.56</v>
-      </c>
       <c r="S17" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="T17" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="U17" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="V17" t="n">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="X17" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>60</v>
       </c>
-      <c r="AB17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>36</v>
-      </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ17" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AK17" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="G18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N18" t="n">
         <v>3.05</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.6</v>
-      </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>2.56</v>
+        <v>1.69</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.54</v>
+        <v>2.26</v>
       </c>
       <c r="R18" t="n">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>2.34</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.52</v>
+        <v>1.92</v>
       </c>
       <c r="U18" t="n">
-        <v>2.66</v>
+        <v>1.9</v>
       </c>
       <c r="V18" t="n">
-        <v>1.66</v>
+        <v>1.31</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="X18" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC18" t="n">
         <v>22</v>
       </c>
-      <c r="AC18" t="n">
-        <v>12</v>
-      </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>IFK Goteborg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.04</v>
+        <v>2.76</v>
       </c>
       <c r="G19" t="n">
-        <v>2.24</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.15</v>
+        <v>2.68</v>
       </c>
       <c r="I19" t="n">
-        <v>3.85</v>
+        <v>2.76</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.7</v>
+        <v>2.06</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="U19" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="W19" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="X19" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN19" t="n">
         <v>32</v>
       </c>
-      <c r="AM19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AO19" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="G20" t="n">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="H20" t="n">
-        <v>1.44</v>
+        <v>2.12</v>
       </c>
       <c r="I20" t="n">
-        <v>1.51</v>
+        <v>2.24</v>
       </c>
       <c r="J20" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S20" t="n">
         <v>5.3</v>
       </c>
-      <c r="K20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.89</v>
-      </c>
       <c r="T20" t="n">
-        <v>1.55</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="n">
-        <v>2.58</v>
+        <v>1.79</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="X20" t="n">
-        <v>60</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z20" t="n">
         <v>980</v>
       </c>
-      <c r="Z20" t="n">
-        <v>17</v>
-      </c>
       <c r="AA20" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>17.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="AJ20" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="AM20" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AO20" t="n">
-        <v>4.9</v>
+        <v>980</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.1</v>
       </c>
-      <c r="G21" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>1.58</v>
+        <v>2.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>1.63</v>
       </c>
       <c r="S21" t="n">
-        <v>4.7</v>
+        <v>2.36</v>
       </c>
       <c r="T21" t="n">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="U21" t="n">
-        <v>1.78</v>
+        <v>2.66</v>
       </c>
       <c r="V21" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="W21" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="X21" t="n">
-        <v>10.5</v>
+        <v>30</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.199999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI21" t="n">
         <v>34</v>
       </c>
-      <c r="AB21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AJ21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK21" t="n">
         <v>32</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AL21" t="n">
         <v>38</v>
       </c>
-      <c r="AG21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI21" t="n">
+      <c r="AM21" t="n">
         <v>65</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>190</v>
-      </c>
       <c r="AN21" t="n">
-        <v>130</v>
+        <v>18.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="G22" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="K22" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>2.42</v>
+        <v>5.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.62</v>
+        <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>1.48</v>
+        <v>2.68</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.84</v>
+        <v>1.51</v>
       </c>
       <c r="R22" t="n">
-        <v>1.17</v>
+        <v>1.69</v>
       </c>
       <c r="S22" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>2.24</v>
+        <v>1.49</v>
       </c>
       <c r="U22" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="V22" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="W22" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="Z22" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>29</v>
       </c>
-      <c r="AA22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>36</v>
-      </c>
       <c r="AK22" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>40</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO22" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.45</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X23" t="n">
+        <v>130</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>510</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>460</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO23" t="n">
         <v>4</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.77</v>
+        <v>2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>1.87</v>
+        <v>2.48</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="J24" t="n">
         <v>3.8</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>1.82</v>
+        <v>2.42</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.96</v>
+        <v>1.56</v>
       </c>
       <c r="U24" t="n">
-        <v>1.89</v>
+        <v>2.56</v>
       </c>
       <c r="V24" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>2.14</v>
+        <v>1.68</v>
       </c>
       <c r="X24" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL24" t="n">
         <v>980</v>
       </c>
-      <c r="Y24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>960</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO24" t="n">
         <v>23</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>St Patricks</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N25" t="n">
         <v>2.44</v>
       </c>
-      <c r="G25" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.15</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.39</v>
+        <v>1.62</v>
       </c>
       <c r="P25" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.14</v>
+        <v>2.84</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.84</v>
+        <v>2.24</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="V25" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="W25" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="X25" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AE25" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>540</v>
       </c>
       <c r="AJ25" t="n">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN25" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,78 +3893,78 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G26" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="I26" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="O26" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P26" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="R26" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="U26" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="V26" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="W26" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X26" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z26" t="n">
         <v>14.5</v>
@@ -3973,52 +3973,52 @@
         <v>38</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
         <v>12</v>
       </c>
       <c r="AE26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO26" t="n">
         <v>32</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.48</v>
+        <v>4.6</v>
       </c>
       <c r="G27" t="n">
-        <v>2.78</v>
+        <v>4.9</v>
       </c>
       <c r="H27" t="n">
-        <v>2.84</v>
+        <v>1.97</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>2.06</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.3</v>
+        <v>2.72</v>
       </c>
       <c r="O27" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="P27" t="n">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="R27" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="S27" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="T27" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.78</v>
       </c>
-      <c r="U27" t="n">
-        <v>2.04</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.45</v>
+        <v>1.94</v>
       </c>
       <c r="W27" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="X27" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z27" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>21</v>
-      </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB27" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>17.5</v>
+        <v>95</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="AO27" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.72</v>
+        <v>1.77</v>
       </c>
       <c r="G28" t="n">
-        <v>2.74</v>
+        <v>1.82</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
-        <v>2.92</v>
+        <v>5.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K28" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="O28" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.97</v>
       </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.76</v>
-      </c>
       <c r="U28" t="n">
-        <v>2.26</v>
+        <v>1.89</v>
       </c>
       <c r="V28" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="W28" t="n">
-        <v>1.57</v>
+        <v>2.16</v>
       </c>
       <c r="X28" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="Y28" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AA28" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AB28" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>32</v>
+        <v>380</v>
       </c>
       <c r="AF28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG28" t="n">
         <v>17</v>
       </c>
-      <c r="AG28" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH28" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AI28" t="n">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="AJ28" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AK28" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL28" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM28" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>St Patricks</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="G29" t="n">
-        <v>2.36</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="I29" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N29" t="n">
         <v>3.2</v>
       </c>
-      <c r="L29" t="n">
+      <c r="O29" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.58</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.73</v>
-      </c>
       <c r="X29" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AA29" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC29" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC29" t="n">
-        <v>7</v>
-      </c>
       <c r="AD29" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG29" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG29" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="AK29" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AL29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Racing Club (Uru)</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Juventud De Las Piedras</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="G30" t="n">
-        <v>2.58</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J30" t="n">
         <v>3.25</v>
       </c>
-      <c r="I30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K30" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O30" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q30" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.39</v>
-      </c>
       <c r="W30" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="X30" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD30" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK30" t="n">
         <v>46</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>34</v>
       </c>
       <c r="AL30" t="n">
         <v>65</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN30" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Icelandic Urvalsdeild</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.9</v>
+        <v>2.54</v>
       </c>
       <c r="G31" t="n">
-        <v>4.2</v>
+        <v>2.82</v>
       </c>
       <c r="H31" t="n">
-        <v>1.84</v>
+        <v>2.7</v>
       </c>
       <c r="I31" t="n">
-        <v>2.34</v>
+        <v>3.05</v>
       </c>
       <c r="J31" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="O31" t="n">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="P31" t="n">
-        <v>2.6</v>
+        <v>1.81</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="S31" t="n">
-        <v>1.9</v>
+        <v>3.55</v>
       </c>
       <c r="T31" t="n">
-        <v>1.03</v>
+        <v>1.78</v>
       </c>
       <c r="U31" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="W31" t="n">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>2.74</v>
       </c>
       <c r="H32" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="I32" t="n">
-        <v>6.8</v>
+        <v>2.94</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>2.68</v>
+        <v>3.95</v>
       </c>
       <c r="O32" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q32" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2.1</v>
-      </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>60</v>
+        <v>17.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AI32" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL32" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AM32" t="n">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO32" t="n">
-        <v>250</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.43</v>
+        <v>2.34</v>
       </c>
       <c r="G33" t="n">
-        <v>1.63</v>
+        <v>2.36</v>
       </c>
       <c r="H33" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB33" t="n">
         <v>7.6</v>
       </c>
-      <c r="I33" t="n">
+      <c r="AC33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF33" t="n">
         <v>12.5</v>
       </c>
-      <c r="J33" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X33" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>960</v>
-      </c>
       <c r="AG33" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ33" t="n">
-        <v>960</v>
+        <v>32</v>
       </c>
       <c r="AK33" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Racing Club (Uru)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.84</v>
+        <v>2.38</v>
       </c>
       <c r="G34" t="n">
-        <v>2.92</v>
+        <v>2.58</v>
       </c>
       <c r="H34" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.74</v>
+        <v>1.49</v>
       </c>
       <c r="M34" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>2.14</v>
+        <v>2.98</v>
       </c>
       <c r="O34" t="n">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="P34" t="n">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.5</v>
+        <v>2.26</v>
       </c>
       <c r="R34" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="T34" t="n">
-        <v>2.54</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="V34" t="n">
         <v>1.39</v>
       </c>
       <c r="W34" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="X34" t="n">
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA34" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG34" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ34" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL34" t="n">
         <v>55</v>
       </c>
-      <c r="AK34" t="n">
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO34" t="n">
         <v>60</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>360</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Icelandic Urvalsdeild</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S35" t="n">
         <v>2.06</v>
       </c>
-      <c r="G35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S35" t="n">
-        <v>7.2</v>
-      </c>
       <c r="T35" t="n">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="U35" t="n">
-        <v>1.55</v>
+        <v>2.74</v>
       </c>
       <c r="V35" t="n">
-        <v>1.24</v>
+        <v>1.86</v>
       </c>
       <c r="W35" t="n">
-        <v>1.9</v>
+        <v>1.37</v>
       </c>
       <c r="X35" t="n">
-        <v>7.2</v>
+        <v>110</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Z35" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AA35" t="n">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="AB35" t="n">
-        <v>6.2</v>
+        <v>29</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="AD35" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="AF35" t="n">
-        <v>10.5</v>
+        <v>95</v>
       </c>
       <c r="AG35" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AI35" t="n">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="AJ35" t="n">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="AK35" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="AN35" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AO35" t="n">
-        <v>220</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.05</v>
+        <v>1.75</v>
       </c>
       <c r="G36" t="n">
-        <v>3.2</v>
+        <v>1.87</v>
       </c>
       <c r="H36" t="n">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="J36" t="n">
         <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L36" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="O36" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P36" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S36" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="U36" t="n">
-        <v>1.94</v>
+        <v>1.69</v>
       </c>
       <c r="V36" t="n">
-        <v>1.59</v>
+        <v>1.17</v>
       </c>
       <c r="W36" t="n">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y36" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>960</v>
+        <v>60</v>
       </c>
       <c r="AA36" t="n">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AE36" t="n">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="AF36" t="n">
-        <v>24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG36" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AJ36" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AK36" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AL36" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM36" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AO36" t="n">
-        <v>36</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,90 +5378,90 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>1.43</v>
       </c>
       <c r="G37" t="n">
-        <v>4.7</v>
+        <v>1.54</v>
       </c>
       <c r="H37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q37" t="n">
         <v>2.04</v>
       </c>
-      <c r="I37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="R37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.1</v>
       </c>
-      <c r="N37" t="n">
+      <c r="W37" t="n">
         <v>2.84</v>
       </c>
-      <c r="O37" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.27</v>
-      </c>
       <c r="X37" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Y37" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD37" t="n">
         <v>1000</v>
@@ -5470,31 +5470,31 @@
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG37" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="H38" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="K38" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="L38" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="N38" t="n">
-        <v>2.98</v>
+        <v>2.14</v>
       </c>
       <c r="O38" t="n">
-        <v>1.49</v>
+        <v>1.81</v>
       </c>
       <c r="P38" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.44</v>
+        <v>3.55</v>
       </c>
       <c r="R38" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="S38" t="n">
-        <v>4.9</v>
+        <v>8</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="U38" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="V38" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="W38" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="X38" t="n">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="Y38" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="Z38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD38" t="n">
         <v>20</v>
       </c>
-      <c r="AA38" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>16</v>
-      </c>
       <c r="AE38" t="n">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="AF38" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AG38" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AI38" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AJ38" t="n">
         <v>55</v>
       </c>
       <c r="AK38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL38" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM38" t="n">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="AN38" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AO38" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G39" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="I39" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="L39" t="n">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="N39" t="n">
-        <v>3.15</v>
+        <v>2.34</v>
       </c>
       <c r="O39" t="n">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="P39" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.14</v>
+        <v>3.05</v>
       </c>
       <c r="R39" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.89</v>
+        <v>2.5</v>
       </c>
       <c r="U39" t="n">
-        <v>1.98</v>
+        <v>1.55</v>
       </c>
       <c r="V39" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="W39" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="X39" t="n">
-        <v>14.5</v>
+        <v>7.2</v>
       </c>
       <c r="Y39" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
         <v>34</v>
       </c>
       <c r="AA39" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AB39" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF39" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC39" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>16</v>
-      </c>
       <c r="AG39" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AI39" t="n">
-        <v>65</v>
+        <v>540</v>
       </c>
       <c r="AJ39" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK39" t="n">
         <v>36</v>
       </c>
-      <c r="AK39" t="n">
-        <v>32</v>
-      </c>
       <c r="AL39" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AM39" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="AN39" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AO39" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5.1</v>
+        <v>3.05</v>
       </c>
       <c r="G40" t="n">
-        <v>5.8</v>
+        <v>3.15</v>
       </c>
       <c r="H40" t="n">
-        <v>1.86</v>
+        <v>2.66</v>
       </c>
       <c r="I40" t="n">
-        <v>1.97</v>
+        <v>2.68</v>
       </c>
       <c r="J40" t="n">
         <v>3.3</v>
       </c>
       <c r="K40" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L40" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M40" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="O40" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P40" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R40" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T40" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="U40" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="V40" t="n">
-        <v>2.02</v>
+        <v>1.59</v>
       </c>
       <c r="W40" t="n">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="X40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z40" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="AB40" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE40" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AF40" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AG40" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI40" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AJ40" t="n">
+        <v>340</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL40" t="n">
         <v>200</v>
       </c>
-      <c r="AK40" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>130</v>
-      </c>
       <c r="AM40" t="n">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="AO40" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>El Nacional</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Deportivo Cuenca</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.94</v>
+        <v>4.2</v>
       </c>
       <c r="G41" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="H41" t="n">
-        <v>2.52</v>
+        <v>2.02</v>
       </c>
       <c r="I41" t="n">
-        <v>3.1</v>
+        <v>2.14</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K41" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="O41" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P41" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R41" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S41" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="T41" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="U41" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="V41" t="n">
-        <v>1.52</v>
+        <v>1.87</v>
       </c>
       <c r="W41" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="X41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y41" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="Z41" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AA41" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AB41" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD41" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AE41" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AH41" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="I42" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="J42" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L42" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="M42" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="N42" t="n">
-        <v>2.16</v>
+        <v>2.82</v>
       </c>
       <c r="O42" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="R42" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="S42" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="T42" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="U42" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="V42" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="W42" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X42" t="n">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z42" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF42" t="n">
         <v>22</v>
       </c>
-      <c r="AA42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>21</v>
-      </c>
       <c r="AG42" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI42" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL42" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AM42" t="n">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,126 +6188,126 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Paysandu</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.64</v>
+        <v>2.12</v>
       </c>
       <c r="G43" t="n">
-        <v>1.67</v>
+        <v>2.28</v>
       </c>
       <c r="H43" t="n">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="J43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S43" t="n">
         <v>4</v>
       </c>
-      <c r="K43" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N43" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3.9</v>
-      </c>
       <c r="T43" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="U43" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="V43" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="W43" t="n">
-        <v>2.48</v>
+        <v>1.78</v>
       </c>
       <c r="X43" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AA43" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="AB43" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD43" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AF43" t="n">
-        <v>9.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="AG43" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI43" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="AJ43" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AK43" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AL43" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM43" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AO43" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44">
@@ -6323,125 +6323,665 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>22:10:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.82</v>
+        <v>5.1</v>
       </c>
       <c r="G44" t="n">
-        <v>1.92</v>
+        <v>5.7</v>
       </c>
       <c r="H44" t="n">
-        <v>5.1</v>
+        <v>1.86</v>
       </c>
       <c r="I44" t="n">
-        <v>6.8</v>
+        <v>1.97</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K44" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M44" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="O44" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="P44" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="R44" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S44" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T44" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="U44" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="V44" t="n">
-        <v>1.17</v>
+        <v>2.02</v>
       </c>
       <c r="W44" t="n">
-        <v>1.89</v>
+        <v>1.21</v>
       </c>
       <c r="X44" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y44" t="n">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="Z44" t="n">
-        <v>55</v>
+        <v>10.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="AB44" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AC44" t="n">
         <v>9.4</v>
       </c>
       <c r="AD44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>190</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>El Nacional</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X45" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S46" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>360</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>EC Vitoria Salvador</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="X47" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>22:10:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Ind Medellin</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD48" t="n">
         <v>26</v>
       </c>
-      <c r="AE44" t="n">
+      <c r="AE48" t="n">
         <v>110</v>
       </c>
-      <c r="AF44" t="n">
+      <c r="AF48" t="n">
         <v>12</v>
       </c>
-      <c r="AG44" t="n">
+      <c r="AG48" t="n">
         <v>12</v>
       </c>
-      <c r="AH44" t="n">
+      <c r="AH48" t="n">
         <v>28</v>
       </c>
-      <c r="AI44" t="n">
+      <c r="AI48" t="n">
         <v>120</v>
       </c>
-      <c r="AJ44" t="n">
+      <c r="AJ48" t="n">
         <v>25</v>
       </c>
-      <c r="AK44" t="n">
+      <c r="AK48" t="n">
         <v>28</v>
       </c>
-      <c r="AL44" t="n">
+      <c r="AL48" t="n">
         <v>60</v>
       </c>
-      <c r="AM44" t="n">
+      <c r="AM48" t="n">
         <v>210</v>
       </c>
-      <c r="AN44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO44" t="n">
+      <c r="AN48" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO48" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="G2" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="I2" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -697,28 +697,28 @@
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
         <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="W2" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X2" t="n">
         <v>980</v>
@@ -727,7 +727,7 @@
         <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
         <v>40</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>1.84</v>
       </c>
       <c r="H3" t="n">
-        <v>2.06</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.1</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.09</v>
-      </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.1</v>
+        <v>1.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>1.43</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>2.84</v>
       </c>
       <c r="V3" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>1.61</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,46 +868,46 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L4" t="n">
         <v>1.41</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1024,7 +1024,7 @@
         <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ4" t="n">
         <v>980</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.46</v>
+        <v>2.82</v>
       </c>
       <c r="I5" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1156,7 +1156,7 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="G6" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.8</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.7</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
         <v>1.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X6" t="n">
         <v>32</v>
@@ -1285,13 +1285,13 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="n">
         <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1342,79 +1342,79 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.26</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.26</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>2.58</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>2.96</v>
       </c>
       <c r="T7" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1423,7 +1423,7 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1477,92 +1477,92 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="G8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH8" t="n">
         <v>980</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>980</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>250</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G9" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
@@ -1630,28 +1630,28 @@
         <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
         <v>1.43</v>
       </c>
       <c r="P9" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q9" t="n">
         <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
         <v>1.94</v>
@@ -1660,16 +1660,16 @@
         <v>1.97</v>
       </c>
       <c r="V9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W9" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
         <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
@@ -1678,16 +1678,16 @@
         <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF9" t="n">
         <v>15.5</v>
@@ -1699,7 +1699,7 @@
         <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
         <v>38</v>
@@ -1711,13 +1711,13 @@
         <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
         <v>32</v>
       </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1750,49 +1750,49 @@
         <v>2.86</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H10" t="n">
         <v>2.48</v>
       </c>
       <c r="I10" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
         <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
         <v>1.6</v>
@@ -1807,16 +1807,16 @@
         <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>12.5</v>
@@ -1828,16 +1828,16 @@
         <v>38</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
         <v>150</v>
       </c>
       <c r="AJ10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>44</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G11" t="n">
         <v>1.52</v>
       </c>
       <c r="H11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
         <v>8.800000000000001</v>
@@ -1897,10 +1897,10 @@
         <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -1912,28 +1912,28 @@
         <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
         <v>2.52</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="X11" t="n">
         <v>24</v>
@@ -2035,64 +2035,64 @@
         <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R12" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
         <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
         <v>530</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="n">
         <v>12</v>
@@ -2107,13 +2107,13 @@
         <v>170</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
@@ -2122,7 +2122,7 @@
         <v>17.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13">
@@ -2158,13 +2158,13 @@
         <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.36</v>
+        <v>2.38</v>
       </c>
       <c r="I13" t="n">
         <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="K13" t="n">
         <v>6</v>
@@ -2290,67 +2290,67 @@
         <v>6.4</v>
       </c>
       <c r="G14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I14" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="J14" t="n">
         <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="W14" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AB14" t="n">
         <v>980</v>
@@ -2359,7 +2359,7 @@
         <v>42</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AE14" t="n">
         <v>980</v>
@@ -2386,13 +2386,13 @@
         <v>360</v>
       </c>
       <c r="AM14" t="n">
-        <v>370</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>530</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R15" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
         <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AA15" t="n">
         <v>530</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
         <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
         <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -2557,46 +2557,46 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G16" t="n">
         <v>1.59</v>
       </c>
       <c r="H16" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="I16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S16" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T16" t="n">
         <v>1.67</v>
@@ -2605,10 +2605,10 @@
         <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W16" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2641,7 +2641,7 @@
         <v>20</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="n">
         <v>200</v>
@@ -2704,13 +2704,13 @@
         <v>4.7</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -2722,22 +2722,22 @@
         <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T17" t="n">
         <v>1.66</v>
       </c>
       <c r="U17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V17" t="n">
         <v>1.27</v>
@@ -2761,13 +2761,13 @@
         <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
         <v>18.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
         <v>13.5</v>
@@ -2776,10 +2776,10 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
         <v>21</v>
@@ -2788,16 +2788,16 @@
         <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -2827,58 +2827,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G18" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q18" t="n">
         <v>2.26</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T18" t="n">
         <v>1.92</v>
       </c>
       <c r="U18" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V18" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X18" t="n">
         <v>22</v>
@@ -2896,16 +2896,16 @@
         <v>16.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG18" t="n">
         <v>25</v>
@@ -2920,7 +2920,7 @@
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2965,22 +2965,22 @@
         <v>2.76</v>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="H19" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="I19" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J19" t="n">
         <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2989,22 +2989,22 @@
         <v>4.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
         <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U19" t="n">
         <v>2.28</v>
@@ -3013,22 +3013,22 @@
         <v>1.57</v>
       </c>
       <c r="W19" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
         <v>8.199999999999999</v>
@@ -3040,7 +3040,7 @@
         <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AG19" t="n">
         <v>12.5</v>
@@ -3049,7 +3049,7 @@
         <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="n">
         <v>980</v>
@@ -3058,16 +3058,16 @@
         <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO19" t="n">
         <v>32</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -3100,13 +3100,13 @@
         <v>4.2</v>
       </c>
       <c r="G20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H20" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I20" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J20" t="n">
         <v>2.96</v>
@@ -3115,61 +3115,61 @@
         <v>3.15</v>
       </c>
       <c r="L20" t="n">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="M20" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="O20" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P20" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="R20" t="n">
         <v>1.19</v>
       </c>
       <c r="S20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T20" t="n">
         <v>2.06</v>
       </c>
       <c r="U20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.79</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X20" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
         <v>7.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
         <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
         <v>980</v>
@@ -3199,7 +3199,7 @@
         <v>230</v>
       </c>
       <c r="AN20" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AO20" t="n">
         <v>980</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="G21" t="n">
         <v>3.05</v>
       </c>
       <c r="H21" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I21" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J21" t="n">
         <v>3.9</v>
@@ -3256,7 +3256,7 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.18</v>
@@ -3265,22 +3265,22 @@
         <v>2.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S21" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T21" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U21" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V21" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W21" t="n">
         <v>1.49</v>
@@ -3304,7 +3304,7 @@
         <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
@@ -3331,7 +3331,7 @@
         <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
         <v>18.5</v>
@@ -3367,55 +3367,55 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G22" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J22" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
         <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R22" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T22" t="n">
         <v>1.49</v>
       </c>
       <c r="U22" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V22" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W22" t="n">
         <v>1.8</v>
@@ -3430,7 +3430,7 @@
         <v>85</v>
       </c>
       <c r="AA22" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="AB22" t="n">
         <v>17</v>
@@ -3439,10 +3439,10 @@
         <v>11.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AF22" t="n">
         <v>19</v>
@@ -3454,7 +3454,7 @@
         <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -3472,7 +3472,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="G23" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="H23" t="n">
         <v>1.43</v>
@@ -3514,19 +3514,19 @@
         <v>1.47</v>
       </c>
       <c r="J23" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K23" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.11</v>
@@ -3535,13 +3535,13 @@
         <v>3.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R23" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S23" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="T23" t="n">
         <v>1.55</v>
@@ -3550,25 +3550,25 @@
         <v>2.58</v>
       </c>
       <c r="V23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W23" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X23" t="n">
         <v>130</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
         <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>15.5</v>
+        <v>46</v>
       </c>
       <c r="AB23" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AC23" t="n">
         <v>23</v>
@@ -3586,7 +3586,7 @@
         <v>980</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -3607,7 +3607,7 @@
         <v>980</v>
       </c>
       <c r="AO23" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="24">
@@ -3637,55 +3637,55 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G24" t="n">
         <v>2.48</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I24" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
         <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
         <v>2.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="U24" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W24" t="n">
         <v>1.68</v>
@@ -3700,7 +3700,7 @@
         <v>28</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB24" t="n">
         <v>18</v>
@@ -3709,7 +3709,7 @@
         <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>36</v>
@@ -3718,10 +3718,10 @@
         <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI24" t="n">
         <v>42</v>
@@ -3733,10 +3733,10 @@
         <v>28</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
         <v>17</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H25" t="n">
         <v>3.95</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
         <v>3.05</v>
@@ -3790,40 +3790,40 @@
         <v>3.15</v>
       </c>
       <c r="L25" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="M25" t="n">
         <v>1.14</v>
       </c>
       <c r="N25" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P25" t="n">
         <v>1.48</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="R25" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S25" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U25" t="n">
         <v>1.7</v>
       </c>
       <c r="V25" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X25" t="n">
         <v>8</v>
@@ -3853,7 +3853,7 @@
         <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
         <v>980</v>
@@ -3862,7 +3862,7 @@
         <v>540</v>
       </c>
       <c r="AJ25" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AK25" t="n">
         <v>140</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I26" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
@@ -3934,13 +3934,13 @@
         <v>2.88</v>
       </c>
       <c r="O26" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R26" t="n">
         <v>1.24</v>
@@ -3958,19 +3958,19 @@
         <v>1.71</v>
       </c>
       <c r="W26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X26" t="n">
         <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z26" t="n">
         <v>14.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AB26" t="n">
         <v>13</v>
@@ -3988,7 +3988,7 @@
         <v>29</v>
       </c>
       <c r="AG26" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH26" t="n">
         <v>23</v>
@@ -4000,16 +4000,16 @@
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="n">
         <v>32</v>
@@ -4048,25 +4048,25 @@
         <v>4.9</v>
       </c>
       <c r="H27" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I27" t="n">
         <v>2.06</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
         <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O27" t="n">
         <v>1.47</v>
@@ -4075,7 +4075,7 @@
         <v>1.59</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="R27" t="n">
         <v>1.21</v>
@@ -4093,13 +4093,13 @@
         <v>1.94</v>
       </c>
       <c r="W27" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X27" t="n">
         <v>10.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z27" t="n">
         <v>11.5</v>
@@ -4108,10 +4108,10 @@
         <v>65</v>
       </c>
       <c r="AB27" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
         <v>11</v>
@@ -4126,16 +4126,16 @@
         <v>22</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AJ27" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="AK27" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="n">
         <v>370</v>
@@ -4177,85 +4177,85 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G28" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="H28" t="n">
         <v>4.7</v>
       </c>
       <c r="I28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
         <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
         <v>1.31</v>
       </c>
       <c r="S28" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
         <v>1.97</v>
       </c>
       <c r="U28" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V28" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W28" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X28" t="n">
         <v>25</v>
       </c>
       <c r="Y28" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="Z28" t="n">
         <v>980</v>
       </c>
       <c r="AA28" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB28" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AC28" t="n">
         <v>14</v>
       </c>
       <c r="AD28" t="n">
-        <v>19.5</v>
+        <v>48</v>
       </c>
       <c r="AE28" t="n">
         <v>380</v>
       </c>
       <c r="AF28" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AG28" t="n">
         <v>17</v>
@@ -4267,19 +4267,19 @@
         <v>300</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AK28" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL28" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AM28" t="n">
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AO28" t="n">
         <v>530</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G29" t="n">
         <v>2.7</v>
       </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
         <v>3.35</v>
@@ -4336,16 +4336,16 @@
         <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O29" t="n">
         <v>1.39</v>
       </c>
       <c r="P29" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R29" t="n">
         <v>1.28</v>
@@ -4363,7 +4363,7 @@
         <v>1.43</v>
       </c>
       <c r="W29" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X29" t="n">
         <v>12</v>
@@ -4402,7 +4402,7 @@
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AK29" t="n">
         <v>95</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G30" t="n">
         <v>3.5</v>
       </c>
       <c r="H30" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I30" t="n">
         <v>2.48</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.5</v>
       </c>
       <c r="J30" t="n">
         <v>3.25</v>
@@ -4465,7 +4465,7 @@
         <v>3.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M30" t="n">
         <v>1.11</v>
@@ -4474,7 +4474,7 @@
         <v>3.05</v>
       </c>
       <c r="O30" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P30" t="n">
         <v>1.69</v>
@@ -4486,13 +4486,13 @@
         <v>1.26</v>
       </c>
       <c r="S30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T30" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V30" t="n">
         <v>1.67</v>
@@ -4501,10 +4501,10 @@
         <v>1.4</v>
       </c>
       <c r="X30" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z30" t="n">
         <v>14.5</v>
@@ -4513,7 +4513,7 @@
         <v>38</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC30" t="n">
         <v>7</v>
@@ -4582,40 +4582,40 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.54</v>
+        <v>2.7</v>
       </c>
       <c r="G31" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="H31" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="I31" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
         <v>3.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P31" t="n">
         <v>1.81</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R31" t="n">
         <v>1.31</v>
@@ -4630,22 +4630,22 @@
         <v>2.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="W31" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB31" t="n">
         <v>11.5</v>
@@ -4654,16 +4654,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG31" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>19</v>
@@ -4672,10 +4672,10 @@
         <v>350</v>
       </c>
       <c r="AJ31" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="n">
         <v>190</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AO31" t="n">
         <v>140</v>
@@ -4720,10 +4720,10 @@
         <v>2.7</v>
       </c>
       <c r="G32" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H32" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I32" t="n">
         <v>2.94</v>
@@ -4735,7 +4735,7 @@
         <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M32" t="n">
         <v>1.08</v>
@@ -4747,28 +4747,28 @@
         <v>1.33</v>
       </c>
       <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
       <c r="R32" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U32" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V32" t="n">
         <v>1.51</v>
       </c>
       <c r="W32" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X32" t="n">
         <v>13.5</v>
@@ -4777,7 +4777,7 @@
         <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA32" t="n">
         <v>42</v>
@@ -4792,7 +4792,7 @@
         <v>12.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF32" t="n">
         <v>17.5</v>
@@ -4801,13 +4801,13 @@
         <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ32" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="n">
         <v>28</v>
@@ -4858,7 +4858,7 @@
         <v>2.36</v>
       </c>
       <c r="H33" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
         <v>3.9</v>
@@ -4870,28 +4870,28 @@
         <v>3.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="M33" t="n">
         <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="O33" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P33" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="R33" t="n">
         <v>1.21</v>
       </c>
       <c r="S33" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T33" t="n">
         <v>2.14</v>
@@ -4906,7 +4906,7 @@
         <v>1.73</v>
       </c>
       <c r="X33" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y33" t="n">
         <v>11</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G34" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J34" t="n">
         <v>3.15</v>
@@ -5005,31 +5005,31 @@
         <v>3.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M34" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
         <v>2.98</v>
       </c>
       <c r="O34" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P34" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="R34" t="n">
         <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U34" t="n">
         <v>1.93</v>
@@ -5041,7 +5041,7 @@
         <v>1.64</v>
       </c>
       <c r="X34" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
         <v>11.5</v>
@@ -5050,10 +5050,10 @@
         <v>24</v>
       </c>
       <c r="AA34" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC34" t="n">
         <v>7.8</v>
@@ -5074,7 +5074,7 @@
         <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
         <v>170</v>
@@ -5092,7 +5092,7 @@
         <v>32</v>
       </c>
       <c r="AO34" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5122,58 +5122,58 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="G35" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="I35" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="J35" t="n">
         <v>4.2</v>
       </c>
       <c r="K35" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M35" t="n">
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="O35" t="n">
         <v>1.14</v>
       </c>
       <c r="P35" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R35" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S35" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="T35" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="U35" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="V35" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="W35" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X35" t="n">
         <v>110</v>
@@ -5185,16 +5185,16 @@
         <v>23</v>
       </c>
       <c r="AA35" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB35" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC35" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD35" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE35" t="n">
         <v>23</v>
@@ -5203,22 +5203,22 @@
         <v>95</v>
       </c>
       <c r="AG35" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AH35" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ35" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AL35" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="n">
         <v>60</v>
@@ -5227,7 +5227,7 @@
         <v>22</v>
       </c>
       <c r="AO35" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="36">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G36" t="n">
         <v>1.87</v>
@@ -5266,31 +5266,31 @@
         <v>5.6</v>
       </c>
       <c r="I36" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K36" t="n">
         <v>3.75</v>
       </c>
       <c r="L36" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
         <v>2.68</v>
       </c>
       <c r="O36" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P36" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="R36" t="n">
         <v>1.2</v>
@@ -5311,7 +5311,7 @@
         <v>2.14</v>
       </c>
       <c r="X36" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y36" t="n">
         <v>15.5</v>
@@ -5323,7 +5323,7 @@
         <v>250</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC36" t="n">
         <v>8.4</v>
@@ -5338,7 +5338,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG36" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
         <v>34</v>
@@ -5359,7 +5359,7 @@
         <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AO36" t="n">
         <v>250</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G37" t="n">
         <v>1.54</v>
@@ -5404,13 +5404,13 @@
         <v>12.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K37" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="M37" t="n">
         <v>1.07</v>
@@ -5425,19 +5425,19 @@
         <v>1.78</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S37" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T37" t="n">
         <v>2.22</v>
       </c>
       <c r="U37" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V37" t="n">
         <v>1.1</v>
@@ -5476,7 +5476,7 @@
         <v>980</v>
       </c>
       <c r="AH37" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
@@ -5485,7 +5485,7 @@
         <v>900</v>
       </c>
       <c r="AK37" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AL37" t="n">
         <v>350</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G38" t="n">
         <v>2.78</v>
@@ -5536,16 +5536,16 @@
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J38" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K38" t="n">
         <v>2.84</v>
       </c>
       <c r="L38" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="M38" t="n">
         <v>1.2</v>
@@ -5554,22 +5554,22 @@
         <v>2.14</v>
       </c>
       <c r="O38" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="P38" t="n">
         <v>1.35</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="R38" t="n">
         <v>1.12</v>
       </c>
       <c r="S38" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="T38" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="U38" t="n">
         <v>1.59</v>
@@ -5590,7 +5590,7 @@
         <v>22</v>
       </c>
       <c r="AA38" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB38" t="n">
         <v>6.6</v>
@@ -5602,7 +5602,7 @@
         <v>20</v>
       </c>
       <c r="AE38" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="n">
         <v>15</v>
@@ -5632,7 +5632,7 @@
         <v>90</v>
       </c>
       <c r="AO38" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39">
@@ -5680,22 +5680,22 @@
         <v>3.15</v>
       </c>
       <c r="L39" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="M39" t="n">
         <v>1.16</v>
       </c>
       <c r="N39" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="O39" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="P39" t="n">
         <v>1.43</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="R39" t="n">
         <v>1.14</v>
@@ -5710,7 +5710,7 @@
         <v>1.55</v>
       </c>
       <c r="V39" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W39" t="n">
         <v>1.9</v>
@@ -5821,28 +5821,28 @@
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O40" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P40" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R40" t="n">
         <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T40" t="n">
         <v>2.02</v>
       </c>
       <c r="U40" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V40" t="n">
         <v>1.59</v>
@@ -5851,43 +5851,43 @@
         <v>1.47</v>
       </c>
       <c r="X40" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z40" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD40" t="n">
         <v>13</v>
       </c>
       <c r="AE40" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AF40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG40" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH40" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI40" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AJ40" t="n">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="AK40" t="n">
         <v>48</v>
@@ -5902,7 +5902,7 @@
         <v>50</v>
       </c>
       <c r="AO40" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
     </row>
     <row r="41">
@@ -5935,7 +5935,7 @@
         <v>4.2</v>
       </c>
       <c r="G41" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
         <v>2.02</v>
@@ -5956,13 +5956,13 @@
         <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="O41" t="n">
         <v>1.44</v>
       </c>
       <c r="P41" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q41" t="n">
         <v>2.32</v>
@@ -5974,10 +5974,10 @@
         <v>4.4</v>
       </c>
       <c r="T41" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U41" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V41" t="n">
         <v>1.87</v>
@@ -6013,7 +6013,7 @@
         <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
         <v>1000</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G42" t="n">
         <v>2.98</v>
       </c>
-      <c r="G42" t="n">
-        <v>3.1</v>
-      </c>
       <c r="H42" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="I42" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J42" t="n">
         <v>3.15</v>
       </c>
       <c r="K42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L42" t="n">
         <v>1.55</v>
@@ -6091,88 +6091,88 @@
         <v>1.11</v>
       </c>
       <c r="N42" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="O42" t="n">
         <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R42" t="n">
         <v>1.22</v>
       </c>
       <c r="S42" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T42" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U42" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="V42" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="W42" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X42" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB42" t="n">
         <v>10</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AC42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF42" t="n">
         <v>20</v>
       </c>
-      <c r="AA42" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>22</v>
-      </c>
       <c r="AG42" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH42" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI42" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AJ42" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="AK42" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL42" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AM42" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN42" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AO42" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G43" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H43" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I43" t="n">
         <v>4.1</v>
@@ -6217,7 +6217,7 @@
         <v>3.3</v>
       </c>
       <c r="K43" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L43" t="n">
         <v>1.46</v>
@@ -6226,25 +6226,25 @@
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.15</v>
+        <v>2.46</v>
       </c>
       <c r="O43" t="n">
         <v>1.39</v>
       </c>
       <c r="P43" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R43" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="T43" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U43" t="n">
         <v>1.98</v>
@@ -6253,7 +6253,7 @@
         <v>1.32</v>
       </c>
       <c r="W43" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X43" t="n">
         <v>14.5</v>
@@ -6340,13 +6340,13 @@
         <v>5.1</v>
       </c>
       <c r="G44" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H44" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I44" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="J44" t="n">
         <v>3.3</v>
@@ -6355,19 +6355,19 @@
         <v>3.55</v>
       </c>
       <c r="L44" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="M44" t="n">
         <v>1.11</v>
       </c>
       <c r="N44" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O44" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P44" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q44" t="n">
         <v>2.46</v>
@@ -6376,13 +6376,13 @@
         <v>1.21</v>
       </c>
       <c r="S44" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T44" t="n">
         <v>2.16</v>
       </c>
       <c r="U44" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V44" t="n">
         <v>2.02</v>
@@ -6394,25 +6394,25 @@
         <v>10</v>
       </c>
       <c r="Y44" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z44" t="n">
         <v>10.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB44" t="n">
         <v>14</v>
       </c>
       <c r="AC44" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD44" t="n">
         <v>11</v>
       </c>
       <c r="AE44" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF44" t="n">
         <v>980</v>
@@ -6442,7 +6442,7 @@
         <v>190</v>
       </c>
       <c r="AO44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -6472,58 +6472,58 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="G45" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H45" t="n">
         <v>2.52</v>
       </c>
       <c r="I45" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="n">
         <v>3.45</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M45" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O45" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P45" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="R45" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S45" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T45" t="n">
         <v>1.9</v>
       </c>
       <c r="U45" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V45" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="W45" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="X45" t="n">
         <v>13</v>
@@ -6532,10 +6532,10 @@
         <v>11</v>
       </c>
       <c r="Z45" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB45" t="n">
         <v>12.5</v>
@@ -6547,7 +6547,7 @@
         <v>15</v>
       </c>
       <c r="AE45" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF45" t="n">
         <v>22</v>
@@ -6559,7 +6559,7 @@
         <v>24</v>
       </c>
       <c r="AI45" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ45" t="n">
         <v>70</v>
@@ -6577,7 +6577,7 @@
         <v>60</v>
       </c>
       <c r="AO45" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I46" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J46" t="n">
         <v>2.9</v>
@@ -6625,37 +6625,37 @@
         <v>3</v>
       </c>
       <c r="L46" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="M46" t="n">
         <v>1.17</v>
       </c>
       <c r="N46" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="P46" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R46" t="n">
         <v>1.13</v>
       </c>
       <c r="S46" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="T46" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="U46" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V46" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W46" t="n">
         <v>1.5</v>
@@ -6664,34 +6664,34 @@
         <v>6.8</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z46" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="n">
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD46" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AE46" t="n">
         <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI46" t="n">
         <v>130</v>
@@ -6709,7 +6709,7 @@
         <v>360</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6742,112 +6742,112 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G47" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="H47" t="n">
         <v>6.6</v>
       </c>
       <c r="I47" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K47" t="n">
         <v>4</v>
       </c>
-      <c r="K47" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L47" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M47" t="n">
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R47" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T47" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U47" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="V47" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W47" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="X47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Z47" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AA47" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="AB47" t="n">
         <v>7.2</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD47" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF47" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG47" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH47" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI47" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ47" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK47" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL47" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM47" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN47" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48">
@@ -6880,58 +6880,58 @@
         <v>1.82</v>
       </c>
       <c r="G48" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H48" t="n">
         <v>5.1</v>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K48" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M48" t="n">
         <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P48" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="R48" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S48" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T48" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U48" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V48" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W48" t="n">
         <v>2.08</v>
       </c>
       <c r="X48" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
@@ -6940,46 +6940,46 @@
         <v>55</v>
       </c>
       <c r="AA48" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB48" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC48" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD48" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE48" t="n">
         <v>110</v>
       </c>
       <c r="AF48" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG48" t="n">
         <v>12</v>
       </c>
       <c r="AH48" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI48" t="n">
         <v>120</v>
       </c>
       <c r="AJ48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK48" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL48" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM48" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN48" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="I2" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>1.38</v>
@@ -691,70 +691,70 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
         <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V2" t="n">
-        <v>2.44</v>
+        <v>2.8</v>
       </c>
       <c r="W2" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="X2" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
         <v>980</v>
       </c>
-      <c r="Y2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="G3" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K3" t="n">
         <v>5.1</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.8</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
-        <v>1.74</v>
+        <v>2.04</v>
       </c>
       <c r="T3" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="U3" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="Y3" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
         <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G4" t="n">
         <v>1.48</v>
       </c>
       <c r="H4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
         <v>4.8</v>
@@ -958,25 +958,25 @@
         <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
         <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
         <v>2.18</v>
@@ -991,7 +991,7 @@
         <v>3.05</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
         <v>980</v>
@@ -1000,49 +1000,49 @@
         <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>8.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>24</v>
+        <v>8.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.46</v>
+        <v>2.98</v>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>2.64</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>3.75</v>
@@ -1096,7 +1096,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1105,31 +1105,31 @@
         <v>1.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
         <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="W5" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="X5" t="n">
         <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
         <v>14</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
         <v>1.81</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="J6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.41</v>
@@ -1231,7 +1231,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
@@ -1246,13 +1246,13 @@
         <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
         <v>1.21</v>
@@ -1261,10 +1261,10 @@
         <v>2.22</v>
       </c>
       <c r="X6" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,7 +1273,7 @@
         <v>170</v>
       </c>
       <c r="AB6" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
@@ -1285,10 +1285,10 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>22</v>
@@ -1297,10 +1297,10 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,91 +1342,91 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="I7" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
         <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="Q7" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U7" t="n">
         <v>2</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="Z7" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,73 +1477,73 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="G8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" t="n">
         <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="W8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AB8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="n">
         <v>8.6</v>
@@ -1558,13 +1558,13 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
@@ -1630,46 +1630,46 @@
         <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W9" t="n">
         <v>1.62</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
@@ -1678,10 +1678,10 @@
         <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
         <v>14</v>
@@ -1699,25 +1699,25 @@
         <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
         <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -1753,16 +1753,16 @@
         <v>2.98</v>
       </c>
       <c r="H10" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1777,37 +1777,37 @@
         <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
         <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W10" t="n">
         <v>1.5</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
         <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1828,10 +1828,10 @@
         <v>38</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
         <v>150</v>
@@ -1840,7 +1840,7 @@
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>44</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
         <v>42</v>
@@ -1882,76 +1882,76 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="G11" t="n">
         <v>1.52</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I11" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
         <v>5.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="S11" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
         <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Z11" t="n">
         <v>290</v>
       </c>
       <c r="AA11" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
         <v>80</v>
@@ -1966,7 +1966,7 @@
         <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="n">
         <v>360</v>
@@ -1975,7 +1975,7 @@
         <v>14</v>
       </c>
       <c r="AK11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
@@ -1984,10 +1984,10 @@
         <v>300</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AO11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2020,109 +2020,109 @@
         <v>2.02</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H12" t="n">
         <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V12" t="n">
         <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>2.38</v>
+        <v>1.68</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="J13" t="n">
-        <v>1.43</v>
+        <v>2.52</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>1.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P13" t="n">
         <v>1.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="U13" t="n">
         <v>1.03</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2221,7 +2221,7 @@
         <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2290,73 +2290,73 @@
         <v>6.4</v>
       </c>
       <c r="G14" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="I14" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="n">
         <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="W14" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB14" t="n">
         <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AD14" t="n">
         <v>40</v>
@@ -2377,7 +2377,7 @@
         <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK14" t="n">
         <v>460</v>
@@ -2392,7 +2392,7 @@
         <v>530</v>
       </c>
       <c r="AO14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
         <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
         <v>3.75</v>
@@ -2464,28 +2464,28 @@
         <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U15" t="n">
         <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X15" t="n">
         <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
         <v>30</v>
       </c>
       <c r="AA15" t="n">
-        <v>530</v>
+        <v>170</v>
       </c>
       <c r="AB15" t="n">
         <v>11</v>
@@ -2497,7 +2497,7 @@
         <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="AF15" t="n">
         <v>13.5</v>
@@ -2509,25 +2509,25 @@
         <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
         <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G16" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="H16" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="K16" t="n">
         <v>5.4</v>
@@ -2581,34 +2581,34 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
         <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W16" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2626,7 +2626,7 @@
         <v>25</v>
       </c>
       <c r="AC16" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AD16" t="n">
         <v>980</v>
@@ -2650,7 +2650,7 @@
         <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
@@ -2659,7 +2659,7 @@
         <v>300</v>
       </c>
       <c r="AN16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO16" t="n">
         <v>150</v>
@@ -2692,64 +2692,64 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.83</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.87</v>
-      </c>
       <c r="H17" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S17" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="T17" t="n">
         <v>1.66</v>
       </c>
       <c r="U17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W17" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z17" t="n">
         <v>38</v>
@@ -2758,46 +2758,46 @@
         <v>530</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
         <v>21</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G18" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
         <v>3.5</v>
@@ -2851,19 +2851,19 @@
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
         <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q18" t="n">
         <v>2.26</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
         <v>4.2</v>
@@ -2878,13 +2878,13 @@
         <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="X18" t="n">
         <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2902,13 +2902,13 @@
         <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2962,46 +2962,46 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="G19" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="H19" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="I19" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R19" t="n">
         <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T19" t="n">
         <v>1.72</v>
@@ -3010,64 +3010,64 @@
         <v>2.28</v>
       </c>
       <c r="V19" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="W19" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="n">
         <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -3100,19 +3100,19 @@
         <v>4.2</v>
       </c>
       <c r="G20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I20" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J20" t="n">
         <v>2.96</v>
       </c>
       <c r="K20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.58</v>
@@ -3121,55 +3121,55 @@
         <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O20" t="n">
         <v>1.53</v>
       </c>
       <c r="P20" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R20" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S20" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U20" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.78</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.79</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X20" t="n">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="Y20" t="n">
         <v>7.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
         <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
         <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>980</v>
@@ -3187,7 +3187,7 @@
         <v>150</v>
       </c>
       <c r="AJ20" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK20" t="n">
         <v>200</v>
@@ -3196,10 +3196,10 @@
         <v>260</v>
       </c>
       <c r="AM20" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="AO20" t="n">
         <v>980</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G21" t="n">
         <v>3.05</v>
@@ -3244,55 +3244,55 @@
         <v>2.46</v>
       </c>
       <c r="J21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K21" t="n">
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O21" t="n">
         <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R21" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S21" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T21" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="U21" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="V21" t="n">
         <v>1.68</v>
       </c>
       <c r="W21" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X21" t="n">
         <v>30</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
         <v>40</v>
@@ -3316,7 +3316,7 @@
         <v>16.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>34</v>
@@ -3325,16 +3325,16 @@
         <v>55</v>
       </c>
       <c r="AK21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL21" t="n">
         <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN21" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO21" t="n">
         <v>14.5</v>
@@ -3367,43 +3367,43 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="G22" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I22" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q22" t="n">
         <v>1.52</v>
       </c>
       <c r="R22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S22" t="n">
         <v>2.28</v>
@@ -3412,19 +3412,19 @@
         <v>1.49</v>
       </c>
       <c r="U22" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W22" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="X22" t="n">
         <v>75</v>
       </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
         <v>85</v>
@@ -3436,10 +3436,10 @@
         <v>17</v>
       </c>
       <c r="AC22" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>85</v>
@@ -3451,13 +3451,13 @@
         <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>85</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>29</v>
       </c>
       <c r="AK22" t="n">
         <v>21</v>
@@ -3469,10 +3469,10 @@
         <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="G23" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H23" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I23" t="n">
         <v>1.47</v>
       </c>
       <c r="J23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K23" t="n">
         <v>6</v>
@@ -3526,52 +3526,52 @@
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
         <v>1.11</v>
       </c>
       <c r="P23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q23" t="n">
         <v>1.35</v>
       </c>
       <c r="R23" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S23" t="n">
         <v>1.89</v>
       </c>
       <c r="T23" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U23" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="V23" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="W23" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X23" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AA23" t="n">
-        <v>46</v>
+        <v>15.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AC23" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AD23" t="n">
         <v>11.5</v>
@@ -3598,7 +3598,7 @@
         <v>460</v>
       </c>
       <c r="AL23" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
         <v>160</v>
@@ -3637,58 +3637,58 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G24" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H24" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
         <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="S24" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T24" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U24" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V24" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="W24" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X24" t="n">
         <v>28</v>
@@ -3700,7 +3700,7 @@
         <v>28</v>
       </c>
       <c r="AA24" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="AB24" t="n">
         <v>18</v>
@@ -3709,40 +3709,40 @@
         <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
         <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
         <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -3772,31 +3772,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G25" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H25" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J25" t="n">
         <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M25" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N25" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O25" t="n">
         <v>1.63</v>
@@ -3805,79 +3805,79 @@
         <v>1.48</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S25" t="n">
         <v>6.4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V25" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Y25" t="n">
         <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC25" t="n">
         <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
-        <v>540</v>
+        <v>120</v>
       </c>
       <c r="AJ25" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AK25" t="n">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="n">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="AM25" t="n">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="AN25" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AO25" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -3910,13 +3910,13 @@
         <v>3.4</v>
       </c>
       <c r="G26" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H26" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I26" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
@@ -3925,22 +3925,22 @@
         <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
         <v>1.24</v>
@@ -3961,10 +3961,10 @@
         <v>1.36</v>
       </c>
       <c r="X26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z26" t="n">
         <v>14.5</v>
@@ -3976,7 +3976,7 @@
         <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD26" t="n">
         <v>12</v>
@@ -3985,16 +3985,16 @@
         <v>95</v>
       </c>
       <c r="AF26" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AG26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
         <v>32</v>
@@ -4042,40 +4042,40 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G27" t="n">
         <v>4.9</v>
       </c>
       <c r="H27" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="I27" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
         <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O27" t="n">
         <v>1.47</v>
       </c>
       <c r="P27" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="R27" t="n">
         <v>1.21</v>
@@ -4084,13 +4084,13 @@
         <v>4.7</v>
       </c>
       <c r="T27" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V27" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="W27" t="n">
         <v>1.26</v>
@@ -4144,10 +4144,10 @@
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -4180,13 +4180,13 @@
         <v>1.78</v>
       </c>
       <c r="G28" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
@@ -4207,10 +4207,10 @@
         <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R28" t="n">
         <v>1.31</v>
@@ -4219,70 +4219,70 @@
         <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U28" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V28" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W28" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="X28" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB28" t="n">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
         <v>48</v>
       </c>
       <c r="AE28" t="n">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="AF28" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AJ28" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="AM28" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN28" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
-        <v>530</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G29" t="n">
         <v>2.7</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I29" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
         <v>3.25</v>
@@ -4330,43 +4330,43 @@
         <v>3.35</v>
       </c>
       <c r="L29" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P29" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T29" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="U29" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V29" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W29" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y29" t="n">
         <v>11.5</v>
@@ -4378,13 +4378,13 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC29" t="n">
         <v>7.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
@@ -4393,10 +4393,10 @@
         <v>17</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>50</v>
+        <v>18.5</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4408,7 +4408,7 @@
         <v>95</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
@@ -4453,67 +4453,67 @@
         <v>3.5</v>
       </c>
       <c r="H30" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I30" t="n">
         <v>2.46</v>
       </c>
-      <c r="I30" t="n">
-        <v>2.48</v>
-      </c>
       <c r="J30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.25</v>
       </c>
-      <c r="K30" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M30" t="n">
         <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="O30" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="P30" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="R30" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S30" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U30" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V30" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W30" t="n">
         <v>1.4</v>
       </c>
       <c r="X30" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA30" t="n">
         <v>38</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC30" t="n">
         <v>7</v>
@@ -4525,34 +4525,34 @@
         <v>32</v>
       </c>
       <c r="AF30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH30" t="n">
         <v>21</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>20</v>
       </c>
       <c r="AI30" t="n">
         <v>55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK30" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM30" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN30" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G31" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H31" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="J31" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
         <v>3.7</v>
@@ -4612,16 +4612,16 @@
         <v>1.35</v>
       </c>
       <c r="P31" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R31" t="n">
         <v>1.31</v>
       </c>
       <c r="S31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T31" t="n">
         <v>1.78</v>
@@ -4630,61 +4630,61 @@
         <v>2.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W31" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="X31" t="n">
         <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA31" t="n">
         <v>280</v>
       </c>
       <c r="AB31" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC31" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AF31" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>19</v>
       </c>
       <c r="AI31" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK31" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO31" t="n">
         <v>140</v>
@@ -4717,34 +4717,34 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G32" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H32" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I32" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
         <v>3.95</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -4756,7 +4756,7 @@
         <v>1.39</v>
       </c>
       <c r="S32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T32" t="n">
         <v>1.76</v>
@@ -4765,10 +4765,10 @@
         <v>2.26</v>
       </c>
       <c r="V32" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W32" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X32" t="n">
         <v>13.5</v>
@@ -4801,13 +4801,13 @@
         <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="n">
         <v>28</v>
@@ -4861,52 +4861,52 @@
         <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J33" t="n">
         <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L33" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="M33" t="n">
         <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="P33" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="R33" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="T33" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V33" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W33" t="n">
         <v>1.73</v>
       </c>
       <c r="X33" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="Y33" t="n">
         <v>11</v>
@@ -4924,7 +4924,7 @@
         <v>7</v>
       </c>
       <c r="AD33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE33" t="n">
         <v>60</v>
@@ -4957,7 +4957,7 @@
         <v>32</v>
       </c>
       <c r="AO33" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -4987,31 +4987,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G34" t="n">
         <v>2.56</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>3.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
         <v>1.45</v>
@@ -5026,16 +5026,16 @@
         <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T34" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U34" t="n">
         <v>1.93</v>
       </c>
       <c r="V34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W34" t="n">
         <v>1.64</v>
@@ -5053,7 +5053,7 @@
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC34" t="n">
         <v>7.8</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H35" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="I35" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="J35" t="n">
         <v>4.2</v>
@@ -5155,7 +5155,7 @@
         <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R35" t="n">
         <v>1.82</v>
@@ -5164,40 +5164,40 @@
         <v>2.12</v>
       </c>
       <c r="T35" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U35" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="V35" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="W35" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X35" t="n">
         <v>110</v>
       </c>
       <c r="Y35" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z35" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="n">
         <v>26</v>
       </c>
       <c r="AB35" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD35" t="n">
         <v>12</v>
       </c>
-      <c r="AD35" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF35" t="n">
         <v>95</v>
@@ -5212,22 +5212,22 @@
         <v>32</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL35" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AM35" t="n">
         <v>60</v>
       </c>
       <c r="AN35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO35" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -5257,85 +5257,85 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="G36" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="H36" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="I36" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="O36" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="P36" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="R36" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S36" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="T36" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="U36" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="V36" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W36" t="n">
-        <v>2.14</v>
+        <v>2.42</v>
       </c>
       <c r="X36" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Z36" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AA36" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AE36" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
@@ -5344,13 +5344,13 @@
         <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AJ36" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AK36" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AL36" t="n">
         <v>150</v>
@@ -5359,10 +5359,10 @@
         <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37">
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="G37" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="I37" t="n">
         <v>12.5</v>
@@ -5407,7 +5407,7 @@
         <v>4.1</v>
       </c>
       <c r="K37" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L37" t="n">
         <v>1.45</v>
@@ -5416,22 +5416,22 @@
         <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O37" t="n">
         <v>1.36</v>
       </c>
       <c r="P37" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R37" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S37" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T37" t="n">
         <v>2.22</v>
@@ -5443,7 +5443,7 @@
         <v>1.1</v>
       </c>
       <c r="W37" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="X37" t="n">
         <v>980</v>
@@ -5458,7 +5458,7 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC37" t="n">
         <v>42</v>
@@ -5470,10 +5470,10 @@
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AG37" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH37" t="n">
         <v>1000</v>
@@ -5485,16 +5485,16 @@
         <v>900</v>
       </c>
       <c r="AK37" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5536,55 +5536,55 @@
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J38" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="K38" t="n">
         <v>2.84</v>
       </c>
       <c r="L38" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="M38" t="n">
         <v>1.2</v>
       </c>
       <c r="N38" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="O38" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="P38" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="R38" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="S38" t="n">
         <v>8.6</v>
       </c>
       <c r="T38" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="U38" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="V38" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W38" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X38" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z38" t="n">
         <v>22</v>
@@ -5593,16 +5593,16 @@
         <v>85</v>
       </c>
       <c r="AB38" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD38" t="n">
         <v>20</v>
       </c>
       <c r="AE38" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF38" t="n">
         <v>15</v>
@@ -5611,10 +5611,10 @@
         <v>15.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AI38" t="n">
-        <v>150</v>
+        <v>540</v>
       </c>
       <c r="AJ38" t="n">
         <v>55</v>
@@ -5629,7 +5629,7 @@
         <v>360</v>
       </c>
       <c r="AN38" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="AO38" t="n">
         <v>400</v>
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H39" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I39" t="n">
         <v>5.1</v>
@@ -5677,7 +5677,7 @@
         <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L39" t="n">
         <v>1.69</v>
@@ -5713,7 +5713,7 @@
         <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X39" t="n">
         <v>7.2</v>
@@ -5731,10 +5731,10 @@
         <v>5.9</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AE39" t="n">
         <v>290</v>
@@ -5758,7 +5758,7 @@
         <v>36</v>
       </c>
       <c r="AL39" t="n">
-        <v>85</v>
+        <v>450</v>
       </c>
       <c r="AM39" t="n">
         <v>330</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>2.66</v>
       </c>
       <c r="I40" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J40" t="n">
         <v>3.3</v>
@@ -5821,67 +5821,67 @@
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P40" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="R40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S40" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T40" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="U40" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V40" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W40" t="n">
         <v>1.47</v>
       </c>
       <c r="X40" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z40" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AC40" t="n">
         <v>7.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AF40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH40" t="n">
         <v>21</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>23</v>
       </c>
       <c r="AI40" t="n">
         <v>60</v>
@@ -5890,7 +5890,7 @@
         <v>130</v>
       </c>
       <c r="AK40" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AL40" t="n">
         <v>200</v>
@@ -5899,10 +5899,10 @@
         <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO40" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -5935,10 +5935,10 @@
         <v>4.2</v>
       </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H41" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I41" t="n">
         <v>2.14</v>
@@ -5950,7 +5950,7 @@
         <v>3.55</v>
       </c>
       <c r="L41" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
@@ -5959,19 +5959,19 @@
         <v>2.92</v>
       </c>
       <c r="O41" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P41" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R41" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S41" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T41" t="n">
         <v>1.96</v>
@@ -5983,7 +5983,7 @@
         <v>1.87</v>
       </c>
       <c r="W41" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X41" t="n">
         <v>11</v>
@@ -6010,7 +6010,7 @@
         <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AG41" t="n">
         <v>1000</v>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G42" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I42" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J42" t="n">
         <v>3.15</v>
@@ -6085,46 +6085,46 @@
         <v>3.2</v>
       </c>
       <c r="L42" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M42" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N42" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P42" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R42" t="n">
         <v>1.22</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U42" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="V42" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W42" t="n">
         <v>1.5</v>
       </c>
       <c r="X42" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z42" t="n">
         <v>19.5</v>
@@ -6133,10 +6133,10 @@
         <v>50</v>
       </c>
       <c r="AB42" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC42" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD42" t="n">
         <v>14.5</v>
@@ -6145,34 +6145,34 @@
         <v>42</v>
       </c>
       <c r="AF42" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG42" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI42" t="n">
         <v>65</v>
       </c>
       <c r="AJ42" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK42" t="n">
         <v>46</v>
       </c>
       <c r="AL42" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM42" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN42" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO42" t="n">
         <v>46</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="43">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G43" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H43" t="n">
         <v>3.8</v>
@@ -6217,7 +6217,7 @@
         <v>3.3</v>
       </c>
       <c r="K43" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.46</v>
@@ -6226,22 +6226,22 @@
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>2.46</v>
+        <v>3.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R43" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S43" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T43" t="n">
         <v>1.87</v>
@@ -6250,16 +6250,16 @@
         <v>1.98</v>
       </c>
       <c r="V43" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W43" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X43" t="n">
         <v>14.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z43" t="n">
         <v>34</v>
@@ -6268,10 +6268,10 @@
         <v>100</v>
       </c>
       <c r="AB43" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD43" t="n">
         <v>19.5</v>
@@ -6283,13 +6283,13 @@
         <v>16</v>
       </c>
       <c r="AG43" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH43" t="n">
         <v>24</v>
       </c>
       <c r="AI43" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="AJ43" t="n">
         <v>36</v>
@@ -6307,7 +6307,7 @@
         <v>26</v>
       </c>
       <c r="AO43" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44">
@@ -6340,109 +6340,109 @@
         <v>5.1</v>
       </c>
       <c r="G44" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H44" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="I44" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J44" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O44" t="n">
         <v>1.54</v>
       </c>
-      <c r="M44" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.5</v>
-      </c>
       <c r="P44" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="R44" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S44" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="T44" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="U44" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="V44" t="n">
         <v>2.02</v>
       </c>
       <c r="W44" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X44" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z44" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AA44" t="n">
         <v>26</v>
       </c>
       <c r="AB44" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC44" t="n">
         <v>9</v>
       </c>
       <c r="AD44" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE44" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF44" t="n">
         <v>980</v>
       </c>
       <c r="AG44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH44" t="n">
         <v>980</v>
       </c>
-      <c r="AH44" t="n">
-        <v>32</v>
-      </c>
       <c r="AI44" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ44" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AK44" t="n">
         <v>120</v>
       </c>
       <c r="AL44" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM44" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AN44" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AO44" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G45" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I45" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J45" t="n">
         <v>3.1</v>
       </c>
       <c r="K45" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L45" t="n">
         <v>1.51</v>
@@ -6496,19 +6496,19 @@
         <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O45" t="n">
         <v>1.43</v>
       </c>
       <c r="P45" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q45" t="n">
         <v>2.32</v>
       </c>
       <c r="R45" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S45" t="n">
         <v>4.4</v>
@@ -6517,10 +6517,10 @@
         <v>1.9</v>
       </c>
       <c r="U45" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V45" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W45" t="n">
         <v>1.41</v>
@@ -6544,7 +6544,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD45" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE45" t="n">
         <v>40</v>
@@ -6556,28 +6556,28 @@
         <v>17</v>
       </c>
       <c r="AH45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI45" t="n">
         <v>55</v>
       </c>
       <c r="AJ45" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK45" t="n">
         <v>55</v>
       </c>
       <c r="AL45" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM45" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN45" t="n">
         <v>60</v>
       </c>
       <c r="AO45" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
@@ -6607,79 +6607,79 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G46" t="n">
         <v>2.98</v>
       </c>
       <c r="H46" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="L46" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="M46" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N46" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="O46" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="P46" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R46" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S46" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T46" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="U46" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V46" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W46" t="n">
         <v>1.5</v>
       </c>
       <c r="X46" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB46" t="n">
         <v>6.8</v>
       </c>
-      <c r="Y46" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>7</v>
-      </c>
       <c r="AC46" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD46" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AE46" t="n">
         <v>1000</v>
@@ -6709,7 +6709,7 @@
         <v>360</v>
       </c>
       <c r="AN46" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="G47" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="H47" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J47" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L47" t="n">
         <v>1.47</v>
@@ -6766,58 +6766,58 @@
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O47" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P47" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R47" t="n">
         <v>1.31</v>
       </c>
       <c r="S47" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T47" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U47" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V47" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W47" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="X47" t="n">
         <v>12.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z47" t="n">
         <v>55</v>
       </c>
       <c r="AA47" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AB47" t="n">
         <v>7.2</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD47" t="n">
         <v>27</v>
       </c>
       <c r="AE47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF47" t="n">
         <v>8.6</v>
@@ -6829,19 +6829,19 @@
         <v>25</v>
       </c>
       <c r="AI47" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ47" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL47" t="n">
         <v>44</v>
       </c>
       <c r="AM47" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN47" t="n">
         <v>11.5</v>
@@ -6877,73 +6877,73 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="G48" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H48" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I48" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J48" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K48" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L48" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="M48" t="n">
         <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="O48" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P48" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R48" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S48" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U48" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="V48" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W48" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="X48" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y48" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB48" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC48" t="n">
         <v>9.800000000000001</v>
@@ -6952,34 +6952,34 @@
         <v>24</v>
       </c>
       <c r="AE48" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AF48" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH48" t="n">
         <v>25</v>
       </c>
       <c r="AI48" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AJ48" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AN48" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="G2" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="I2" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="X2" t="n">
-        <v>38</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AA2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>11</v>
-      </c>
       <c r="AD2" t="n">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>2.48</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>6.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="P3" t="n">
-        <v>2.84</v>
+        <v>3.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="S3" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="U3" t="n">
-        <v>2.68</v>
+        <v>3.45</v>
       </c>
       <c r="V3" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="W3" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="X3" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z3" t="n">
         <v>36</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE3" t="n">
         <v>27</v>
       </c>
-      <c r="Z3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>70</v>
-      </c>
       <c r="AF3" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="AG3" t="n">
         <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AM3" t="n">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="AN3" t="n">
         <v>7.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,40 +937,40 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="H4" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
         <v>1.36</v>
@@ -979,70 +979,70 @@
         <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="V4" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W4" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="n">
-        <v>440</v>
+        <v>310</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
       </c>
       <c r="AK4" t="n">
         <v>16.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO4" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,37 +1072,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="I5" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" t="n">
         <v>2.02</v>
@@ -1111,55 +1111,55 @@
         <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
         <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="W5" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH5" t="n">
         <v>25</v>
       </c>
-      <c r="Z5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>60</v>
-      </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1168,7 +1168,7 @@
         <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
@@ -1231,10 +1231,10 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
         <v>1.94</v>
@@ -1246,73 +1246,73 @@
         <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
         <v>1.86</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
         <v>2.22</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA6" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
         <v>3.45</v>
       </c>
       <c r="H7" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="I7" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
         <v>3.7</v>
@@ -1375,79 +1375,79 @@
         <v>1.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R7" t="n">
         <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>50</v>
+        <v>9.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="AB7" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>210</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>290</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO7" t="n">
         <v>55</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,94 +1477,94 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="G8" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
         <v>1.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="W8" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA8" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AG8" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AH8" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="9">
@@ -1615,61 +1615,61 @@
         <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.15</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
@@ -1678,7 +1678,7 @@
         <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
@@ -1687,16 +1687,16 @@
         <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>55</v>
@@ -1705,19 +1705,19 @@
         <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.86</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.98</v>
-      </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
@@ -1765,7 +1765,7 @@
         <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1774,7 +1774,7 @@
         <v>3.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1786,34 +1786,34 @@
         <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
         <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
         <v>8.4</v>
@@ -1822,37 +1822,37 @@
         <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF10" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -1882,76 +1882,76 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="G11" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="H11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>5.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
         <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
         <v>290</v>
       </c>
       <c r="AA11" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB11" t="n">
         <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>80</v>
@@ -1960,13 +1960,13 @@
         <v>460</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
         <v>360</v>
@@ -1978,16 +1978,16 @@
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
         <v>300</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
@@ -2020,13 +2020,13 @@
         <v>2.02</v>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2035,7 +2035,7 @@
         <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
@@ -2044,52 +2044,52 @@
         <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
         <v>1.77</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
         <v>4.2</v>
       </c>
       <c r="T12" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.95</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W12" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC12" t="n">
         <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE12" t="n">
         <v>65</v>
@@ -2116,10 +2116,10 @@
         <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO12" t="n">
         <v>80</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
         <v>1.68</v>
@@ -2173,13 +2173,13 @@
         <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
         <v>1.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P13" t="n">
         <v>1.3</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="G14" t="n">
         <v>6.6</v>
@@ -2296,10 +2296,10 @@
         <v>1.62</v>
       </c>
       <c r="I14" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
         <v>4.7</v>
@@ -2317,7 +2317,7 @@
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q14" t="n">
         <v>1.69</v>
@@ -2329,40 +2329,40 @@
         <v>2.74</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="W14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Z14" t="n">
         <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>900</v>
+        <v>44</v>
       </c>
       <c r="AB14" t="n">
         <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
         <v>270</v>
@@ -2374,10 +2374,10 @@
         <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AK14" t="n">
         <v>460</v>
@@ -2392,7 +2392,7 @@
         <v>530</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -2431,7 +2431,7 @@
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
         <v>3.7</v>
@@ -2440,67 +2440,67 @@
         <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="X15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD15" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>16</v>
-      </c>
       <c r="AE15" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
         <v>10.5</v>
@@ -2509,25 +2509,25 @@
         <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -2560,106 +2560,106 @@
         <v>1.51</v>
       </c>
       <c r="G16" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J16" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
         <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="S16" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W16" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="n">
         <v>220</v>
       </c>
       <c r="AA16" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AE16" t="n">
         <v>380</v>
       </c>
       <c r="AF16" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI16" t="n">
         <v>200</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AK16" t="n">
         <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="n">
         <v>300</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AO16" t="n">
         <v>150</v>
@@ -2692,61 +2692,61 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G17" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I17" t="n">
         <v>4.8</v>
       </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R17" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S17" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T17" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
         <v>22</v>
@@ -2758,7 +2758,7 @@
         <v>530</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
         <v>9.4</v>
@@ -2767,37 +2767,37 @@
         <v>18</v>
       </c>
       <c r="AE17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK17" t="n">
         <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM17" t="n">
         <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO17" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G18" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
@@ -2854,37 +2854,37 @@
         <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
         <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U18" t="n">
         <v>1.92</v>
       </c>
       <c r="V18" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,46 +2893,46 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG18" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
@@ -2962,37 +2962,37 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.52</v>
       </c>
-      <c r="I19" t="n">
-        <v>2.6</v>
-      </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
         <v>1.89</v>
@@ -3001,43 +3001,43 @@
         <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="W19" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="X19" t="n">
         <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB19" t="n">
         <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
         <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -3049,10 +3049,10 @@
         <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK19" t="n">
         <v>32</v>
@@ -3064,10 +3064,10 @@
         <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="G20" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I20" t="n">
         <v>2.18</v>
       </c>
-      <c r="I20" t="n">
-        <v>2.28</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L20" t="n">
         <v>1.58</v>
@@ -3124,85 +3124,85 @@
         <v>2.72</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P20" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S20" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U20" t="n">
         <v>1.79</v>
       </c>
       <c r="V20" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="W20" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="X20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG20" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>980</v>
-      </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK20" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AM20" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN20" t="n">
         <v>600</v>
       </c>
       <c r="AO20" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3232,28 +3232,28 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="G21" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H21" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="I21" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="J21" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
         <v>5.8</v>
@@ -3262,82 +3262,82 @@
         <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R21" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T21" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U21" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="V21" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="W21" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X21" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y21" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="n">
         <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG21" t="n">
         <v>14</v>
       </c>
-      <c r="AE21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI21" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
         <v>55</v>
       </c>
       <c r="AK21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AN21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO21" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="22">
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K22" t="n">
         <v>4.3</v>
@@ -3397,82 +3397,82 @@
         <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R22" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
         <v>2.28</v>
       </c>
       <c r="T22" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U22" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="V22" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W22" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="X22" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="Y22" t="n">
         <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="AA22" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
         <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="23">
@@ -3505,19 +3505,19 @@
         <v>6.8</v>
       </c>
       <c r="G23" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H23" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="I23" t="n">
         <v>1.47</v>
       </c>
       <c r="J23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.21</v>
@@ -3532,7 +3532,7 @@
         <v>1.11</v>
       </c>
       <c r="P23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q23" t="n">
         <v>1.35</v>
@@ -3547,10 +3547,10 @@
         <v>1.54</v>
       </c>
       <c r="U23" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="V23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="W23" t="n">
         <v>1.15</v>
@@ -3559,19 +3559,19 @@
         <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
         <v>15.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AC23" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AD23" t="n">
         <v>11.5</v>
@@ -3583,13 +3583,13 @@
         <v>510</v>
       </c>
       <c r="AG23" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AH23" t="n">
         <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AJ23" t="n">
         <v>200</v>
@@ -3598,13 +3598,13 @@
         <v>460</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AM23" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="AN23" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AO23" t="n">
         <v>3.95</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G24" t="n">
         <v>2.42</v>
       </c>
       <c r="H24" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
         <v>1.3</v>
@@ -3661,88 +3661,88 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R24" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S24" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="T24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U24" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="V24" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="W24" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X24" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y24" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA24" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AB24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
         <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AG24" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AL24" t="n">
         <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3775,10 +3775,10 @@
         <v>2.28</v>
       </c>
       <c r="G25" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
         <v>4.3</v>
@@ -3790,16 +3790,16 @@
         <v>3.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="M25" t="n">
         <v>1.15</v>
       </c>
       <c r="N25" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="O25" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="P25" t="n">
         <v>1.48</v>
@@ -3811,19 +3811,19 @@
         <v>1.17</v>
       </c>
       <c r="S25" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T25" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="U25" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="V25" t="n">
         <v>1.3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="X25" t="n">
         <v>7.4</v>
@@ -3844,19 +3844,19 @@
         <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI25" t="n">
         <v>120</v>
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.22</v>
+        <v>2.58</v>
       </c>
       <c r="I26" t="n">
-        <v>2.42</v>
+        <v>2.82</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L26" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="P26" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="R26" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="T26" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U26" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V26" t="n">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="W26" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z26" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AA26" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AB26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD26" t="n">
         <v>13</v>
       </c>
-      <c r="AC26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12</v>
-      </c>
       <c r="AE26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL26" t="n">
         <v>95</v>
       </c>
-      <c r="AF26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G27" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="I27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L27" t="n">
         <v>1.54</v>
@@ -4066,58 +4066,58 @@
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O27" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T27" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U27" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V27" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W27" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="X27" t="n">
         <v>10.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="Z27" t="n">
         <v>11.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AB27" t="n">
         <v>14.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
         <v>95</v>
@@ -4129,13 +4129,13 @@
         <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="n">
         <v>340</v>
       </c>
       <c r="AK27" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL27" t="n">
         <v>370</v>
@@ -4147,7 +4147,7 @@
         <v>600</v>
       </c>
       <c r="AO27" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K28" t="n">
         <v>4.2</v>
@@ -4198,49 +4198,49 @@
         <v>1.45</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P28" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R28" t="n">
         <v>1.31</v>
       </c>
       <c r="S28" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U28" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V28" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="W28" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Z28" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AA28" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AB28" t="n">
         <v>7.6</v>
@@ -4249,13 +4249,13 @@
         <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AF28" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG28" t="n">
         <v>10</v>
@@ -4264,25 +4264,25 @@
         <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM28" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -4312,82 +4312,82 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H29" t="n">
         <v>3.05</v>
       </c>
       <c r="I29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J29" t="n">
         <v>3.2</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.46</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
         <v>3.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P29" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R29" t="n">
         <v>1.31</v>
       </c>
       <c r="S29" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U29" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V29" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W29" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF29" t="n">
         <v>17</v>
@@ -4399,25 +4399,25 @@
         <v>18.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ29" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AK29" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H30" t="n">
         <v>2.44</v>
@@ -4471,46 +4471,46 @@
         <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R30" t="n">
         <v>1.24</v>
       </c>
       <c r="S30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T30" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U30" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V30" t="n">
         <v>1.68</v>
       </c>
       <c r="W30" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X30" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y30" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z30" t="n">
         <v>13.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB30" t="n">
         <v>10.5</v>
@@ -4519,7 +4519,7 @@
         <v>7</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE30" t="n">
         <v>32</v>
@@ -4540,13 +4540,13 @@
         <v>70</v>
       </c>
       <c r="AK30" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL30" t="n">
         <v>70</v>
       </c>
       <c r="AM30" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN30" t="n">
         <v>60</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="G31" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="H31" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="I31" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>3.3</v>
@@ -4606,88 +4606,88 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P31" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R31" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S31" t="n">
         <v>3.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U31" t="n">
         <v>2.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="W31" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="X31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AA31" t="n">
         <v>280</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="AJ31" t="n">
         <v>200</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO31" t="n">
         <v>600</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G32" t="n">
         <v>2.72</v>
       </c>
-      <c r="G32" t="n">
-        <v>2.74</v>
-      </c>
       <c r="H32" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="I32" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="J32" t="n">
         <v>3.45</v>
@@ -4741,85 +4741,85 @@
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R32" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S32" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T32" t="n">
         <v>1.76</v>
       </c>
       <c r="U32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V32" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W32" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X32" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA32" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB32" t="n">
         <v>11.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF32" t="n">
         <v>17.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI32" t="n">
         <v>40</v>
       </c>
       <c r="AJ32" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL32" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN32" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO32" t="n">
         <v>27</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G33" t="n">
         <v>2.36</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I33" t="n">
         <v>3.85</v>
       </c>
       <c r="J33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
         <v>3.25</v>
@@ -4873,31 +4873,31 @@
         <v>1.58</v>
       </c>
       <c r="M33" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="P33" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="R33" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S33" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="T33" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V33" t="n">
         <v>1.35</v>
@@ -4906,10 +4906,10 @@
         <v>1.73</v>
       </c>
       <c r="X33" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
         <v>24</v>
@@ -4918,10 +4918,10 @@
         <v>80</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD33" t="n">
         <v>16</v>
@@ -4936,28 +4936,28 @@
         <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="n">
         <v>32</v>
       </c>
       <c r="AK33" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN33" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO33" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -4990,13 +4990,13 @@
         <v>2.42</v>
       </c>
       <c r="G34" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J34" t="n">
         <v>3.2</v>
@@ -5005,73 +5005,73 @@
         <v>3.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="O34" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P34" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="R34" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="T34" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="U34" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="V34" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W34" t="n">
         <v>1.64</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD34" t="n">
         <v>15.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF34" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG34" t="n">
         <v>12.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
@@ -5080,19 +5080,19 @@
         <v>170</v>
       </c>
       <c r="AK34" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AL34" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>32</v>
+        <v>600</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35">
@@ -5122,112 +5122,112 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G35" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H35" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="I35" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J35" t="n">
         <v>4.2</v>
       </c>
       <c r="K35" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M35" t="n">
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="R35" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="S35" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="T35" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="U35" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W35" t="n">
         <v>1.39</v>
       </c>
       <c r="X35" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="Y35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD35" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF35" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AG35" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN35" t="n">
         <v>17.5</v>
       </c>
-      <c r="AI35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>21</v>
-      </c>
       <c r="AO35" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="36">
@@ -5257,100 +5257,100 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="G36" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="H36" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I36" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J36" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="L36" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="P36" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R36" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S36" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T36" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="V36" t="n">
         <v>1.15</v>
       </c>
       <c r="W36" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="X36" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z36" t="n">
         <v>160</v>
       </c>
       <c r="AA36" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AE36" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF36" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="AL36" t="n">
         <v>150</v>
@@ -5359,10 +5359,10 @@
         <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AO36" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
@@ -5392,58 +5392,58 @@
         </is>
       </c>
       <c r="F37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+      <c r="I37" t="n">
+        <v>16</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L37" t="n">
         <v>1.43</v>
       </c>
-      <c r="G37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H37" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.45</v>
-      </c>
       <c r="M37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.07</v>
       </c>
-      <c r="N37" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.1</v>
-      </c>
       <c r="W37" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="X37" t="n">
         <v>980</v>
@@ -5458,7 +5458,7 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>21</v>
+        <v>6.8</v>
       </c>
       <c r="AC37" t="n">
         <v>42</v>
@@ -5470,7 +5470,7 @@
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>40</v>
+        <v>7.2</v>
       </c>
       <c r="AG37" t="n">
         <v>40</v>
@@ -5482,7 +5482,7 @@
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AK37" t="n">
         <v>75</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="G38" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I38" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="J38" t="n">
         <v>2.74</v>
       </c>
       <c r="K38" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="L38" t="n">
         <v>1.82</v>
@@ -5557,7 +5557,7 @@
         <v>1.85</v>
       </c>
       <c r="P38" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q38" t="n">
         <v>3.7</v>
@@ -5566,43 +5566,43 @@
         <v>1.11</v>
       </c>
       <c r="S38" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T38" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="U38" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V38" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W38" t="n">
         <v>1.57</v>
       </c>
       <c r="X38" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z38" t="n">
         <v>22</v>
       </c>
       <c r="AA38" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB38" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD38" t="n">
         <v>20</v>
       </c>
       <c r="AE38" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF38" t="n">
         <v>15</v>
@@ -5611,25 +5611,25 @@
         <v>15.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AI38" t="n">
-        <v>540</v>
+        <v>170</v>
       </c>
       <c r="AJ38" t="n">
         <v>55</v>
       </c>
       <c r="AK38" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL38" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM38" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="AN38" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AO38" t="n">
         <v>400</v>
@@ -5662,40 +5662,40 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G39" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H39" t="n">
         <v>4.8</v>
       </c>
       <c r="I39" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K39" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L39" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="M39" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N39" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O39" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="P39" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R39" t="n">
         <v>1.14</v>
@@ -5704,19 +5704,19 @@
         <v>7.2</v>
       </c>
       <c r="T39" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="U39" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="V39" t="n">
         <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="X39" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y39" t="n">
         <v>11</v>
@@ -5731,10 +5731,10 @@
         <v>5.9</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AE39" t="n">
         <v>290</v>
@@ -5749,7 +5749,7 @@
         <v>34</v>
       </c>
       <c r="AI39" t="n">
-        <v>540</v>
+        <v>180</v>
       </c>
       <c r="AJ39" t="n">
         <v>27</v>
@@ -5806,13 +5806,13 @@
         <v>2.66</v>
       </c>
       <c r="I40" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="J40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.35</v>
       </c>
       <c r="L40" t="n">
         <v>1.52</v>
@@ -5821,88 +5821,88 @@
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O40" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P40" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R40" t="n">
         <v>1.25</v>
       </c>
       <c r="S40" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T40" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U40" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V40" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W40" t="n">
         <v>1.47</v>
       </c>
       <c r="X40" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y40" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z40" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA40" t="n">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="AB40" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD40" t="n">
         <v>12.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF40" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AG40" t="n">
         <v>13.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL40" t="n">
         <v>60</v>
       </c>
-      <c r="AJ40" t="n">
+      <c r="AM40" t="n">
         <v>130</v>
       </c>
-      <c r="AK40" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>580</v>
-      </c>
       <c r="AN40" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO40" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
@@ -5941,85 +5941,85 @@
         <v>2.06</v>
       </c>
       <c r="I41" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J41" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K41" t="n">
         <v>3.55</v>
       </c>
       <c r="L41" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O41" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P41" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="R41" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S41" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T41" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V41" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W41" t="n">
         <v>1.28</v>
       </c>
       <c r="X41" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z41" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AB41" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AC41" t="n">
         <v>8</v>
       </c>
       <c r="AD41" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF41" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH41" t="n">
         <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ41" t="n">
         <v>1000</v>
@@ -6037,7 +6037,7 @@
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H42" t="n">
         <v>2.96</v>
       </c>
-      <c r="G42" t="n">
-        <v>3</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2.84</v>
-      </c>
       <c r="I42" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="J42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K42" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.2</v>
       </c>
       <c r="L42" t="n">
         <v>1.57</v>
@@ -6091,10 +6091,10 @@
         <v>1.12</v>
       </c>
       <c r="N42" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O42" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P42" t="n">
         <v>1.6</v>
@@ -6109,61 +6109,61 @@
         <v>5.3</v>
       </c>
       <c r="T42" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U42" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V42" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W42" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X42" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y42" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z42" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA42" t="n">
         <v>50</v>
       </c>
       <c r="AB42" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD42" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE42" t="n">
         <v>42</v>
       </c>
       <c r="AF42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG42" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH42" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL42" t="n">
         <v>65</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>70</v>
       </c>
       <c r="AM42" t="n">
         <v>160</v>
@@ -6172,7 +6172,7 @@
         <v>48</v>
       </c>
       <c r="AO42" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
@@ -6205,34 +6205,34 @@
         <v>2.18</v>
       </c>
       <c r="G43" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I43" t="n">
         <v>4.1</v>
       </c>
       <c r="J43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K43" t="n">
         <v>3.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O43" t="n">
         <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q43" t="n">
         <v>2.16</v>
@@ -6241,73 +6241,73 @@
         <v>1.29</v>
       </c>
       <c r="S43" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T43" t="n">
         <v>1.87</v>
       </c>
       <c r="U43" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W43" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X43" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y43" t="n">
         <v>13.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AA43" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB43" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD43" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AE43" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AF43" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH43" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="AJ43" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AK43" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AL43" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM43" t="n">
         <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AO43" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44">
@@ -6337,46 +6337,46 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="G44" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="H44" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="I44" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="M44" t="n">
         <v>1.12</v>
       </c>
       <c r="N44" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="O44" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="P44" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="R44" t="n">
         <v>1.2</v>
       </c>
       <c r="S44" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="T44" t="n">
         <v>2.24</v>
@@ -6385,40 +6385,40 @@
         <v>1.69</v>
       </c>
       <c r="V44" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="W44" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X44" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="Z44" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AA44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE44" t="n">
         <v>26</v>
       </c>
-      <c r="AB44" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>30</v>
-      </c>
       <c r="AF44" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AG44" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH44" t="n">
         <v>980</v>
@@ -6427,22 +6427,22 @@
         <v>60</v>
       </c>
       <c r="AJ44" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AK44" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL44" t="n">
         <v>140</v>
       </c>
       <c r="AM44" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN44" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AO44" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G45" t="n">
         <v>3.4</v>
@@ -6481,13 +6481,13 @@
         <v>2.56</v>
       </c>
       <c r="I45" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K45" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L45" t="n">
         <v>1.51</v>
@@ -6496,13 +6496,13 @@
         <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O45" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P45" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q45" t="n">
         <v>2.32</v>
@@ -6517,67 +6517,67 @@
         <v>1.9</v>
       </c>
       <c r="U45" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V45" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W45" t="n">
         <v>1.41</v>
       </c>
       <c r="X45" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z45" t="n">
         <v>19.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB45" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC45" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD45" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE45" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF45" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG45" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI45" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ45" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK45" t="n">
         <v>55</v>
       </c>
       <c r="AL45" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AM45" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="AN45" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO45" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
@@ -6607,40 +6607,40 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G46" t="n">
         <v>2.98</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J46" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="K46" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="L46" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O46" t="n">
         <v>1.8</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.81</v>
       </c>
       <c r="P46" t="n">
         <v>1.36</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="R46" t="n">
         <v>1.12</v>
@@ -6649,10 +6649,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="T46" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="U46" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V46" t="n">
         <v>1.43</v>
@@ -6664,49 +6664,49 @@
         <v>6.4</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA46" t="n">
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD46" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF46" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AG46" t="n">
         <v>16</v>
       </c>
       <c r="AH46" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
         <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL46" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AM46" t="n">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="AN46" t="n">
         <v>1000</v>
@@ -6742,13 +6742,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G47" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H47" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I47" t="n">
         <v>7.4</v>
@@ -6757,43 +6757,43 @@
         <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M47" t="n">
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O47" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q47" t="n">
         <v>2.12</v>
       </c>
       <c r="R47" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S47" t="n">
         <v>3.9</v>
       </c>
       <c r="T47" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U47" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V47" t="n">
         <v>1.16</v>
       </c>
       <c r="W47" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X47" t="n">
         <v>12.5</v>
@@ -6802,7 +6802,7 @@
         <v>21</v>
       </c>
       <c r="Z47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA47" t="n">
         <v>240</v>
@@ -6814,10 +6814,10 @@
         <v>9</v>
       </c>
       <c r="AD47" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE47" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF47" t="n">
         <v>8.6</v>
@@ -6826,10 +6826,10 @@
         <v>10</v>
       </c>
       <c r="AH47" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI47" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AJ47" t="n">
         <v>14.5</v>
@@ -6844,10 +6844,10 @@
         <v>180</v>
       </c>
       <c r="AN47" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO47" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48">
@@ -6877,82 +6877,82 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="G48" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H48" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I48" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J48" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N48" t="n">
         <v>3.65</v>
       </c>
-      <c r="K48" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N48" t="n">
-        <v>3.45</v>
-      </c>
       <c r="O48" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P48" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="R48" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S48" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="T48" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U48" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V48" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W48" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="X48" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
         <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AB48" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD48" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AF48" t="n">
         <v>10.5</v>
@@ -6961,25 +6961,25 @@
         <v>10.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="AJ48" t="n">
         <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL48" t="n">
         <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO48"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Serik Belediyespor</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.5</v>
+        <v>2.02</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>2.06</v>
       </c>
       <c r="H2" t="n">
-        <v>1.67</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1.71</v>
+        <v>4.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S2" t="n">
         <v>4.4</v>
       </c>
-      <c r="L2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.1</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>2.4</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>1.2</v>
+        <v>1.94</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
-        <v>16.5</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>90</v>
+        <v>18.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Levadia Tallinn II</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nomme Kalju II</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.22</v>
+        <v>2.96</v>
       </c>
       <c r="G3" t="n">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="I3" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.19</v>
+        <v>1.69</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB3" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="AC3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>55</v>
       </c>
-      <c r="Y3" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>27</v>
-      </c>
       <c r="AF3" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL3" t="n">
         <v>70</v>
       </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>22</v>
-      </c>
       <c r="AM3" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.6</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Hammarby TFF</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Septemvri</t>
+          <t>Karlbergs BK</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="I4" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>2.56</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>1.81</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
         <v>70</v>
       </c>
       <c r="AA4" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG4" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL4" t="n">
         <v>32</v>
       </c>
-      <c r="AE4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>44</v>
-      </c>
       <c r="AM4" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Halmstads</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.2</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>2.84</v>
       </c>
       <c r="O5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.35</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.68</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="X5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD5" t="n">
         <v>16.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>50</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.1</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="W6" t="n">
-        <v>2.22</v>
+        <v>1.28</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>410</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AA6" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.6</v>
+        <v>110</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>990</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>95</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>380</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>290</v>
       </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>910</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="AO6" t="n">
-        <v>95</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.3</v>
+        <v>2.56</v>
       </c>
       <c r="G7" t="n">
-        <v>3.45</v>
+        <v>2.58</v>
       </c>
       <c r="H7" t="n">
-        <v>2.26</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>2.42</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>1.78</v>
+        <v>1.59</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.14</v>
+        <v>2.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>3.95</v>
+        <v>5.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="W7" t="n">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="X7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG7" t="n">
         <v>13</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>27</v>
-      </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK7" t="n">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FK Kudrivka</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Metalist 1925</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1.73</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>2.78</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.17</v>
-      </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.199999999999999</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD8" t="n">
         <v>18.5</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AE8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>25</v>
       </c>
-      <c r="AC8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>29</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AK8" t="n">
         <v>32</v>
       </c>
-      <c r="AI8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="n">
-        <v>12.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>1.52</v>
       </c>
       <c r="G9" t="n">
-        <v>2.64</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>4.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>2.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>2.34</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="V9" t="n">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>1.61</v>
+        <v>2.84</v>
       </c>
       <c r="X9" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF9" t="n">
         <v>12</v>
       </c>
-      <c r="Y9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>16</v>
-      </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>5.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.74</v>
+        <v>1.83</v>
       </c>
       <c r="G10" t="n">
-        <v>2.86</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>2.64</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U10" t="n">
         <v>2.76</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.56</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>23</v>
       </c>
-      <c r="AI10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO10" t="n">
         <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hammarby TFF</t>
+          <t>Puszcza Niepolomice</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Karlbergs BK</t>
+          <t>Wisla Krakow</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.42</v>
+        <v>13.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1.48</v>
+        <v>16.5</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>1.23</v>
       </c>
       <c r="I11" t="n">
-        <v>8.4</v>
+        <v>1.26</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="K11" t="n">
-        <v>5.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="P11" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="S11" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.13</v>
+        <v>4.8</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="X11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="AD11" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="AE11" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI11" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2003,30 +2003,30 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:10:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>IFK Goteborg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Halmstads</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.02</v>
+        <v>3.15</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>2.48</v>
       </c>
       <c r="I12" t="n">
-        <v>4.6</v>
+        <v>2.52</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2035,100 +2035,100 @@
         <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="W12" t="n">
-        <v>1.96</v>
+        <v>1.46</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AA12" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AF12" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.36</v>
+        <v>4.9</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>5.7</v>
+        <v>2.02</v>
       </c>
       <c r="J13" t="n">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>5.4</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>1.3</v>
+        <v>2.74</v>
       </c>
       <c r="O13" t="n">
-        <v>1.06</v>
+        <v>1.54</v>
       </c>
       <c r="P13" t="n">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.32</v>
+        <v>2.66</v>
       </c>
       <c r="R13" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S13" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.05</v>
+        <v>2.22</v>
       </c>
       <c r="U13" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.98</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Puszcza Niepolomice</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wisla Krakow</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.9</v>
+        <v>2.82</v>
       </c>
       <c r="G14" t="n">
-        <v>6.6</v>
+        <v>2.94</v>
       </c>
       <c r="H14" t="n">
-        <v>1.62</v>
+        <v>2.34</v>
       </c>
       <c r="I14" t="n">
-        <v>1.66</v>
+        <v>2.46</v>
       </c>
       <c r="J14" t="n">
         <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="S14" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.66</v>
       </c>
       <c r="V14" t="n">
-        <v>2.48</v>
+        <v>1.72</v>
       </c>
       <c r="W14" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG14" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>270</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>980</v>
-      </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="AK14" t="n">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="n">
-        <v>360</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>530</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.06</v>
+        <v>2.48</v>
       </c>
       <c r="H15" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J15" t="n">
         <v>4.1</v>
       </c>
-      <c r="I15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.04</v>
+        <v>2.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="S15" t="n">
-        <v>3.2</v>
+        <v>2.26</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.84</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="W15" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AA15" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG15" t="n">
         <v>13</v>
       </c>
-      <c r="AG15" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH15" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="AJ15" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AM15" t="n">
         <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>46</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.51</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.53</v>
       </c>
-      <c r="H16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.7</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.26</v>
+        <v>2.72</v>
       </c>
       <c r="V16" t="n">
-        <v>1.16</v>
+        <v>3.2</v>
       </c>
       <c r="W16" t="n">
-        <v>2.88</v>
+        <v>1.14</v>
       </c>
       <c r="X16" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK16" t="n">
         <v>75</v>
       </c>
-      <c r="Y16" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>220</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN16" t="n">
         <v>48</v>
       </c>
-      <c r="AE16" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AO16" t="n">
-        <v>150</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.82</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>1.84</v>
+        <v>2.36</v>
       </c>
       <c r="H17" t="n">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="R17" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="U17" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="V17" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="W17" t="n">
-        <v>2.18</v>
+        <v>1.74</v>
       </c>
       <c r="X17" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Y17" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>530</v>
+        <v>130</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
         <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>28</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="G18" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="L18" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="P18" t="n">
-        <v>1.77</v>
+        <v>1.47</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
       <c r="U18" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="V18" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W18" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>7.2</v>
       </c>
       <c r="Y18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH18" t="n">
         <v>27</v>
       </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD18" t="n">
+      <c r="AI18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN18" t="n">
         <v>38</v>
       </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>370</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>55</v>
-      </c>
       <c r="AO18" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:10:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>IFK Goteborg</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="G19" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I19" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O19" t="n">
         <v>1.4</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S19" t="n">
         <v>4</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.3</v>
-      </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="U19" t="n">
-        <v>2.26</v>
+        <v>1.99</v>
       </c>
       <c r="V19" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="W19" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO19" t="n">
         <v>50</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="I20" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="J20" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="O20" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="R20" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U20" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X20" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z20" t="n">
         <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AB20" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AG20" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
         <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="AK20" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AL20" t="n">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="AM20" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
         <v>600</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.98</v>
+        <v>3.6</v>
       </c>
       <c r="G21" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="I21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>5.8</v>
+        <v>3.05</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="P21" t="n">
-        <v>2.66</v>
+        <v>1.69</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.54</v>
+        <v>2.44</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>2.34</v>
+        <v>4.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.52</v>
+        <v>2.02</v>
       </c>
       <c r="U21" t="n">
-        <v>2.72</v>
+        <v>1.95</v>
       </c>
       <c r="V21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W21" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z21" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
         <v>11.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AL21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO21" t="n">
         <v>32</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>11.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.28</v>
+        <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>2.38</v>
+        <v>1.71</v>
       </c>
       <c r="H22" t="n">
-        <v>2.94</v>
+        <v>5.8</v>
       </c>
       <c r="I22" t="n">
-        <v>3.15</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>4.1</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="P22" t="n">
-        <v>2.82</v>
+        <v>1.89</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.51</v>
+        <v>2.04</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="S22" t="n">
-        <v>2.28</v>
+        <v>3.85</v>
       </c>
       <c r="T22" t="n">
-        <v>1.5</v>
+        <v>2.06</v>
       </c>
       <c r="U22" t="n">
-        <v>2.78</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="X22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL22" t="n">
         <v>42</v>
       </c>
-      <c r="Y22" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>44</v>
-      </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>16.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>St Patricks</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6.8</v>
+        <v>2.66</v>
       </c>
       <c r="G23" t="n">
-        <v>7.8</v>
+        <v>2.74</v>
       </c>
       <c r="H23" t="n">
-        <v>1.43</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.47</v>
       </c>
-      <c r="J23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>9</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V23" t="n">
-        <v>3.1</v>
-      </c>
       <c r="W23" t="n">
-        <v>1.15</v>
+        <v>1.58</v>
       </c>
       <c r="X23" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z23" t="n">
         <v>21</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF23" t="n">
         <v>17</v>
       </c>
-      <c r="AA23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>160</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>510</v>
-      </c>
       <c r="AG23" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
         <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
-        <v>3.95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.34</v>
+        <v>2.66</v>
       </c>
       <c r="G24" t="n">
-        <v>2.42</v>
+        <v>2.92</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="J24" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>2.52</v>
+        <v>1.84</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
       <c r="R24" t="n">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="S24" t="n">
-        <v>2.54</v>
+        <v>3.75</v>
       </c>
       <c r="T24" t="n">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="U24" t="n">
-        <v>2.6</v>
+        <v>2.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="X24" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Y24" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AA24" t="n">
         <v>130</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF24" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="AJ24" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AK24" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AO24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.28</v>
+        <v>2.7</v>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.72</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>2.96</v>
       </c>
       <c r="I25" t="n">
-        <v>4.3</v>
+        <v>2.98</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="M25" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>2.46</v>
+        <v>3.95</v>
       </c>
       <c r="O25" t="n">
-        <v>1.65</v>
+        <v>1.32</v>
       </c>
       <c r="P25" t="n">
-        <v>1.48</v>
+        <v>1.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>2.02</v>
       </c>
       <c r="R25" t="n">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.36</v>
+        <v>1.78</v>
       </c>
       <c r="U25" t="n">
-        <v>1.69</v>
+        <v>2.26</v>
       </c>
       <c r="V25" t="n">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="W25" t="n">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="X25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC25" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z25" t="n">
+      <c r="AD25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO25" t="n">
         <v>28</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.8</v>
+        <v>2.24</v>
       </c>
       <c r="G26" t="n">
-        <v>3.2</v>
+        <v>2.26</v>
       </c>
       <c r="H26" t="n">
-        <v>2.58</v>
+        <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>2.82</v>
+        <v>3.95</v>
       </c>
       <c r="J26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K26" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="P26" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="R26" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="X26" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AA26" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AK26" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AL26" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN26" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="AO26" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Racing Club (Uru)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.7</v>
+        <v>2.38</v>
       </c>
       <c r="G27" t="n">
-        <v>5.5</v>
+        <v>2.48</v>
       </c>
       <c r="H27" t="n">
-        <v>1.92</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>2.06</v>
+        <v>3.65</v>
       </c>
       <c r="J27" t="n">
         <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L27" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O27" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P27" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R27" t="n">
         <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="U27" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="V27" t="n">
-        <v>1.94</v>
+        <v>1.37</v>
       </c>
       <c r="W27" t="n">
-        <v>1.22</v>
+        <v>1.68</v>
       </c>
       <c r="X27" t="n">
         <v>10.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>11.5</v>
+        <v>65</v>
       </c>
       <c r="AA27" t="n">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="AB27" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="AF27" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="AG27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH27" t="n">
         <v>22</v>
       </c>
-      <c r="AH27" t="n">
-        <v>25</v>
-      </c>
       <c r="AI27" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ27" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="AK27" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AL27" t="n">
-        <v>370</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Icelandic Urvalsdeild</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.72</v>
+        <v>3.35</v>
       </c>
       <c r="G28" t="n">
-        <v>1.77</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>2.06</v>
       </c>
       <c r="I28" t="n">
-        <v>5.9</v>
+        <v>2.14</v>
       </c>
       <c r="J28" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="P28" t="n">
-        <v>1.81</v>
+        <v>3.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.14</v>
+        <v>1.41</v>
       </c>
       <c r="R28" t="n">
-        <v>1.31</v>
+        <v>1.93</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>2.02</v>
       </c>
       <c r="T28" t="n">
-        <v>2.02</v>
+        <v>1.41</v>
       </c>
       <c r="U28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.87</v>
       </c>
-      <c r="V28" t="n">
-        <v>1.21</v>
-      </c>
       <c r="W28" t="n">
-        <v>2.28</v>
+        <v>1.4</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="Y28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z28" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="AB28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO28" t="n">
         <v>7.6</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>St Patricks</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.7</v>
+        <v>1.33</v>
       </c>
       <c r="G29" t="n">
-        <v>2.74</v>
+        <v>1.37</v>
       </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>11</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>16</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="K29" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S29" t="n">
         <v>3.5</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
       <c r="T29" t="n">
-        <v>1.85</v>
+        <v>2.46</v>
       </c>
       <c r="U29" t="n">
-        <v>2.14</v>
+        <v>1.56</v>
       </c>
       <c r="V29" t="n">
-        <v>1.47</v>
+        <v>1.06</v>
       </c>
       <c r="W29" t="n">
-        <v>1.57</v>
+        <v>3.65</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
         <v>11</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AC29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG29" t="n">
         <v>21</v>
       </c>
-      <c r="AA29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>12</v>
-      </c>
       <c r="AH29" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL29" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>70</v>
+        <v>7.4</v>
       </c>
       <c r="AO29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.5</v>
+        <v>1.56</v>
       </c>
       <c r="G30" t="n">
-        <v>3.6</v>
+        <v>1.63</v>
       </c>
       <c r="H30" t="n">
-        <v>2.44</v>
+        <v>7.2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.46</v>
+        <v>8.6</v>
       </c>
       <c r="J30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
         <v>3.2</v>
       </c>
-      <c r="K30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3</v>
-      </c>
       <c r="O30" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="R30" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S30" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="U30" t="n">
-        <v>1.94</v>
+        <v>1.74</v>
       </c>
       <c r="V30" t="n">
-        <v>1.68</v>
+        <v>1.14</v>
       </c>
       <c r="W30" t="n">
-        <v>1.38</v>
+        <v>2.58</v>
       </c>
       <c r="X30" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.199999999999999</v>
+        <v>21</v>
       </c>
       <c r="Z30" t="n">
-        <v>13.5</v>
+        <v>160</v>
       </c>
       <c r="AA30" t="n">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="AB30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG30" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>15</v>
-      </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AJ30" t="n">
-        <v>70</v>
+        <v>15.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AM30" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>32</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="G31" t="n">
-        <v>2.94</v>
+        <v>2.14</v>
       </c>
       <c r="H31" t="n">
-        <v>2.66</v>
+        <v>4.9</v>
       </c>
       <c r="I31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J31" t="n">
         <v>3</v>
       </c>
-      <c r="J31" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="N31" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="O31" t="n">
-        <v>1.34</v>
+        <v>1.72</v>
       </c>
       <c r="P31" t="n">
-        <v>1.89</v>
+        <v>1.41</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.02</v>
+        <v>3.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="S31" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.77</v>
+        <v>2.56</v>
       </c>
       <c r="U31" t="n">
-        <v>2.04</v>
+        <v>1.59</v>
       </c>
       <c r="V31" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="W31" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="X31" t="n">
-        <v>14.5</v>
+        <v>6.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AA31" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="AB31" t="n">
-        <v>11.5</v>
+        <v>6.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AF31" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="AJ31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL31" t="n">
         <v>200</v>
       </c>
-      <c r="AK31" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>190</v>
-      </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN31" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="n">
-        <v>600</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.68</v>
+        <v>4.3</v>
       </c>
       <c r="G32" t="n">
-        <v>2.72</v>
+        <v>4.7</v>
       </c>
       <c r="H32" t="n">
-        <v>2.94</v>
+        <v>2.04</v>
       </c>
       <c r="I32" t="n">
-        <v>2.96</v>
+        <v>2.12</v>
       </c>
       <c r="J32" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L32" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.94</v>
+        <v>2.34</v>
       </c>
       <c r="R32" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="S32" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="U32" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="V32" t="n">
-        <v>1.51</v>
+        <v>1.89</v>
       </c>
       <c r="W32" t="n">
-        <v>1.58</v>
+        <v>1.27</v>
       </c>
       <c r="X32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB32" t="n">
         <v>14</v>
       </c>
-      <c r="Y32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB32" t="n">
+      <c r="AC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD32" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC32" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>13</v>
-      </c>
       <c r="AE32" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF32" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH32" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="G33" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="H33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="K33" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="L33" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="P33" t="n">
-        <v>1.64</v>
+        <v>1.35</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.52</v>
+        <v>3.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T33" t="n">
-        <v>2.04</v>
+        <v>2.66</v>
       </c>
       <c r="U33" t="n">
-        <v>1.91</v>
+        <v>1.54</v>
       </c>
       <c r="V33" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W33" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="X33" t="n">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z33" t="n">
         <v>24</v>
       </c>
       <c r="AA33" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD33" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE33" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AI33" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN33" t="n">
         <v>75</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>29</v>
-      </c>
       <c r="AO33" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Racing Club (Uru)</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Juventud De Las Piedras</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>2.54</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J34" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>3.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P34" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="R34" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S34" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="T34" t="n">
         <v>1.98</v>
       </c>
       <c r="U34" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="V34" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="W34" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="X34" t="n">
         <v>10.5</v>
       </c>
       <c r="Y34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB34" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>8.4</v>
       </c>
       <c r="AC34" t="n">
         <v>7.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI34" t="n">
         <v>55</v>
       </c>
-      <c r="AF34" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ34" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="n">
         <v>60</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>600</v>
+        <v>44</v>
       </c>
       <c r="AO34" t="n">
-        <v>600</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Icelandic Urvalsdeild</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="G35" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="H35" t="n">
-        <v>2.04</v>
+        <v>2.94</v>
       </c>
       <c r="I35" t="n">
-        <v>2.1</v>
+        <v>2.96</v>
       </c>
       <c r="J35" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="L35" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="N35" t="n">
-        <v>7.6</v>
+        <v>2.84</v>
       </c>
       <c r="O35" t="n">
-        <v>1.13</v>
+        <v>1.51</v>
       </c>
       <c r="P35" t="n">
-        <v>3.2</v>
+        <v>1.61</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.41</v>
+        <v>2.58</v>
       </c>
       <c r="R35" t="n">
-        <v>1.91</v>
+        <v>1.22</v>
       </c>
       <c r="S35" t="n">
-        <v>2.02</v>
+        <v>5.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.41</v>
+        <v>2.06</v>
       </c>
       <c r="U35" t="n">
-        <v>3.1</v>
+        <v>1.89</v>
       </c>
       <c r="V35" t="n">
-        <v>1.9</v>
+        <v>1.51</v>
       </c>
       <c r="W35" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="X35" t="n">
-        <v>60</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y35" t="n">
-        <v>21</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA35" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AB35" t="n">
-        <v>38</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AD35" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AF35" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AG35" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AJ35" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AK35" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AM35" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN35" t="n">
-        <v>17.5</v>
+        <v>48</v>
       </c>
       <c r="AO35" t="n">
-        <v>7.8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Paysandu</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.56</v>
+        <v>2.24</v>
       </c>
       <c r="G36" t="n">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="H36" t="n">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>7.8</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="L36" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O36" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P36" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S36" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="U36" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="V36" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="W36" t="n">
-        <v>2.56</v>
+        <v>1.75</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y36" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="Z36" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE36" t="n">
         <v>160</v>
       </c>
-      <c r="AA36" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>180</v>
-      </c>
       <c r="AF36" t="n">
-        <v>8.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="AI36" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="AJ36" t="n">
-        <v>15.5</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AL36" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AM36" t="n">
         <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AO36" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.35</v>
+        <v>5.3</v>
       </c>
       <c r="G37" t="n">
-        <v>1.39</v>
+        <v>5.7</v>
       </c>
       <c r="H37" t="n">
-        <v>12</v>
+        <v>1.86</v>
       </c>
       <c r="I37" t="n">
-        <v>16</v>
+        <v>1.91</v>
       </c>
       <c r="J37" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>5.8</v>
+        <v>3.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>3.55</v>
+        <v>2.78</v>
       </c>
       <c r="O37" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="P37" t="n">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.99</v>
+        <v>2.58</v>
       </c>
       <c r="R37" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="S37" t="n">
-        <v>3.55</v>
+        <v>5.1</v>
       </c>
       <c r="T37" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="U37" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="V37" t="n">
-        <v>1.07</v>
+        <v>2.08</v>
       </c>
       <c r="W37" t="n">
-        <v>3.55</v>
+        <v>1.21</v>
       </c>
       <c r="X37" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB37" t="n">
-        <v>6.8</v>
+        <v>14.5</v>
       </c>
       <c r="AC37" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF37" t="n">
         <v>42</v>
       </c>
-      <c r="AD37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AG37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH37" t="n">
         <v>40</v>
       </c>
-      <c r="AH37" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ37" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AK37" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN37" t="n">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,126 +5513,126 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Deportivo Cuenca</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.66</v>
+        <v>3.1</v>
       </c>
       <c r="G38" t="n">
-        <v>2.76</v>
+        <v>3.45</v>
       </c>
       <c r="H38" t="n">
-        <v>3.65</v>
+        <v>2.56</v>
       </c>
       <c r="I38" t="n">
-        <v>3.85</v>
+        <v>2.68</v>
       </c>
       <c r="J38" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="K38" t="n">
-        <v>2.76</v>
+        <v>3.35</v>
       </c>
       <c r="L38" t="n">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="M38" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="O38" t="n">
-        <v>1.85</v>
+        <v>1.43</v>
       </c>
       <c r="P38" t="n">
-        <v>1.34</v>
+        <v>1.68</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.7</v>
+        <v>2.34</v>
       </c>
       <c r="R38" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="S38" t="n">
-        <v>8.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="T38" t="n">
-        <v>2.66</v>
+        <v>1.91</v>
       </c>
       <c r="U38" t="n">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="V38" t="n">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="W38" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="X38" t="n">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AB38" t="n">
-        <v>6.6</v>
+        <v>13</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE38" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AF38" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AG38" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AJ38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK38" t="n">
         <v>55</v>
       </c>
-      <c r="AK38" t="n">
-        <v>60</v>
-      </c>
       <c r="AL38" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AM38" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AN38" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AO38" t="n">
-        <v>400</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -5648,126 +5648,126 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.1</v>
+        <v>2.72</v>
       </c>
       <c r="G39" t="n">
-        <v>2.14</v>
+        <v>2.76</v>
       </c>
       <c r="H39" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="K39" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="L39" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="M39" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="N39" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="P39" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="R39" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S39" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="T39" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="U39" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V39" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="W39" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="X39" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC39" t="n">
         <v>7</v>
       </c>
-      <c r="Y39" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD39" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AE39" t="n">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="AF39" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AG39" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH39" t="n">
         <v>34</v>
       </c>
       <c r="AI39" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AJ39" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AK39" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AL39" t="n">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="AM39" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="AN39" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AO39" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>1.61</v>
       </c>
       <c r="H40" t="n">
-        <v>2.66</v>
+        <v>7.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.74</v>
+        <v>7.8</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="K40" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M40" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="O40" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="P40" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="R40" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="S40" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="T40" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="U40" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="V40" t="n">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="W40" t="n">
-        <v>1.47</v>
+        <v>2.62</v>
       </c>
       <c r="X40" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.199999999999999</v>
+        <v>21</v>
       </c>
       <c r="Z40" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="AA40" t="n">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="AB40" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG40" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC40" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH40" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AI40" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ40" t="n">
-        <v>55</v>
+        <v>14.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AL40" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AM40" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AN40" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="AO40" t="n">
-        <v>38</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,1071 +5918,126 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>22:10:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4.2</v>
+        <v>1.72</v>
       </c>
       <c r="G41" t="n">
-        <v>4.6</v>
+        <v>1.76</v>
       </c>
       <c r="H41" t="n">
-        <v>2.06</v>
+        <v>5.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2.12</v>
+        <v>6.2</v>
       </c>
       <c r="J41" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="K41" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="O41" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="P41" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.34</v>
+        <v>1.97</v>
       </c>
       <c r="R41" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="S41" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="U41" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="V41" t="n">
-        <v>1.89</v>
+        <v>1.2</v>
       </c>
       <c r="W41" t="n">
-        <v>1.28</v>
+        <v>2.3</v>
       </c>
       <c r="X41" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="Y41" t="n">
-        <v>8</v>
+        <v>19.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>12.5</v>
+        <v>46</v>
       </c>
       <c r="AA41" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AB41" t="n">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC41" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD41" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="AE41" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG41" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI41" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO41" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025-10-20</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Vasco da Gama</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X42" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Brazilian Serie B</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025-10-20</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Ferroviaria</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Paysandu</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X43" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>350</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-10-20</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>La Equidad</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="G44" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V44" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X44" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>210</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2025-10-20</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Deportivo Cuenca</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X45" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2025-10-20</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>21:15:00</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Atl Tucuman</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>San Lorenzo</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S46" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X46" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>430</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2025-10-20</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Santos</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>EC Vitoria Salvador</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H47" t="n">
-        <v>7</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N47" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W47" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2025-10-20</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>22:10:00</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H48" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K48" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N48" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S48" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W48" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X48" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
